--- a/BackTest/2019-10-26 BackTest XEM.xlsx
+++ b/BackTest/2019-10-26 BackTest XEM.xlsx
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -3671,17 +3671,13 @@
         <v>47.19999999999991</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="K94" t="n">
-        <v>47.2</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
@@ -3710,3225 +3706,2721 @@
         <v>47.21999999999991</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="C96" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="D96" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="E96" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2016.0294</v>
+      </c>
+      <c r="G96" t="n">
+        <v>47.25999999999991</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="C97" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="D97" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="E97" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="F97" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G97" t="n">
+        <v>47.33999999999992</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="C98" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="D98" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="E98" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1385.224</v>
+      </c>
+      <c r="G98" t="n">
+        <v>47.39999999999992</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="C99" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="D99" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="E99" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1017.3867</v>
+      </c>
+      <c r="G99" t="n">
+        <v>47.47999999999993</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="C100" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="D100" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="E100" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1026.1556</v>
+      </c>
+      <c r="G100" t="n">
+        <v>47.49999999999992</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
         <v>47.2</v>
       </c>
-      <c r="K95" t="n">
+      <c r="C101" t="n">
         <v>47.2</v>
       </c>
-      <c r="L95" t="inlineStr">
+      <c r="D101" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="E101" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="F101" t="n">
+        <v>226.1798</v>
+      </c>
+      <c r="G101" t="n">
+        <v>47.45999999999992</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="C102" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="D102" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="E102" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="F102" t="n">
+        <v>10735.0849</v>
+      </c>
+      <c r="G102" t="n">
+        <v>47.41999999999992</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="C103" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="D103" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="E103" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="F103" t="n">
+        <v>39444.6202</v>
+      </c>
+      <c r="G103" t="n">
+        <v>47.39999999999992</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="C104" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="D104" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="E104" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="F104" t="n">
+        <v>21052.63157894</v>
+      </c>
+      <c r="G104" t="n">
+        <v>47.37999999999992</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="C105" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="D105" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="E105" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="F105" t="n">
+        <v>349.9664</v>
+      </c>
+      <c r="G105" t="n">
+        <v>47.35999999999991</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="C106" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="D106" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="E106" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="F106" t="n">
+        <v>4734.4498</v>
+      </c>
+      <c r="G106" t="n">
+        <v>47.35999999999992</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="C107" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="D107" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="E107" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="F107" t="n">
+        <v>681</v>
+      </c>
+      <c r="G107" t="n">
+        <v>47.31999999999992</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="C108" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="D108" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="E108" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="F108" t="n">
+        <v>6677.5249</v>
+      </c>
+      <c r="G108" t="n">
+        <v>47.29999999999991</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="C109" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="D109" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="E109" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="F109" t="n">
+        <v>520.7536</v>
+      </c>
+      <c r="G109" t="n">
+        <v>47.29999999999991</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="C110" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="D110" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="E110" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1341.8451</v>
+      </c>
+      <c r="G110" t="n">
+        <v>47.35999999999991</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="C111" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="D111" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="E111" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="F111" t="n">
+        <v>920.8267</v>
+      </c>
+      <c r="G111" t="n">
+        <v>47.41999999999992</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="C112" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="D112" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="E112" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="F112" t="n">
+        <v>20667.99105888</v>
+      </c>
+      <c r="G112" t="n">
+        <v>47.65999999999991</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="C113" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="D113" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="E113" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="F113" t="n">
+        <v>4200</v>
+      </c>
+      <c r="G113" t="n">
+        <v>47.71999999999991</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="C114" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="D114" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="E114" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1540.88</v>
+      </c>
+      <c r="G114" t="n">
+        <v>47.77999999999992</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="E115" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2780</v>
+      </c>
+      <c r="G115" t="n">
+        <v>47.87999999999992</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>48</v>
+      </c>
+      <c r="C116" t="n">
+        <v>48</v>
+      </c>
+      <c r="D116" t="n">
+        <v>48</v>
+      </c>
+      <c r="E116" t="n">
+        <v>48</v>
+      </c>
+      <c r="F116" t="n">
+        <v>16894.227</v>
+      </c>
+      <c r="G116" t="n">
+        <v>47.97999999999993</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="C117" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="E117" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="F117" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G117" t="n">
+        <v>47.91999999999993</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="C118" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="D118" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="E118" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="F118" t="n">
+        <v>8930.164000000001</v>
+      </c>
+      <c r="G118" t="n">
+        <v>48.03999999999994</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>48</v>
+      </c>
+      <c r="C119" t="n">
+        <v>48</v>
+      </c>
+      <c r="D119" t="n">
+        <v>48</v>
+      </c>
+      <c r="E119" t="n">
+        <v>48</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G119" t="n">
+        <v>48.07999999999994</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>48</v>
+      </c>
+      <c r="C120" t="n">
+        <v>48</v>
+      </c>
+      <c r="D120" t="n">
+        <v>48</v>
+      </c>
+      <c r="E120" t="n">
+        <v>48</v>
+      </c>
+      <c r="F120" t="n">
+        <v>492.2962</v>
+      </c>
+      <c r="G120" t="n">
+        <v>48.05999999999994</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="C121" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="D121" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="E121" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="F121" t="n">
+        <v>645.0766</v>
+      </c>
+      <c r="G121" t="n">
+        <v>48.09999999999994</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="C122" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="D122" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="E122" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1962</v>
+      </c>
+      <c r="G122" t="n">
+        <v>48.11999999999994</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C123" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="D123" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="E123" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="F123" t="n">
+        <v>99683.0658</v>
+      </c>
+      <c r="G123" t="n">
+        <v>48.19999999999995</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="C124" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="D124" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="E124" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="F124" t="n">
+        <v>16906.9999</v>
+      </c>
+      <c r="G124" t="n">
+        <v>48.31999999999995</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="C125" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="D125" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="E125" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="F125" t="n">
+        <v>15809.9352</v>
+      </c>
+      <c r="G125" t="n">
+        <v>48.41999999999994</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C126" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="D126" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="E126" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="F126" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G126" t="n">
+        <v>48.47999999999995</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C127" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="D127" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="E127" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="F127" t="n">
+        <v>23421.1156</v>
+      </c>
+      <c r="G127" t="n">
+        <v>48.53999999999995</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="C128" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="D128" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="E128" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="F128" t="n">
+        <v>771.9058</v>
+      </c>
+      <c r="G128" t="n">
+        <v>48.53999999999996</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="C129" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="D129" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="E129" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="F129" t="n">
+        <v>500</v>
+      </c>
+      <c r="G129" t="n">
+        <v>48.59999999999996</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="C130" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="D130" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="E130" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="F130" t="n">
+        <v>16.9918</v>
+      </c>
+      <c r="G130" t="n">
+        <v>48.73999999999997</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="C131" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="D131" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="E131" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="F131" t="n">
+        <v>32.3108</v>
+      </c>
+      <c r="G131" t="n">
+        <v>48.81999999999996</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C132" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="D132" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="E132" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="F132" t="n">
+        <v>763.8634</v>
+      </c>
+      <c r="G132" t="n">
+        <v>48.81999999999996</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C133" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="D133" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="E133" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="F133" t="n">
+        <v>50260.6807</v>
+      </c>
+      <c r="G133" t="n">
+        <v>48.79999999999996</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="C134" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="D134" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="E134" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="F134" t="n">
+        <v>4093.7581</v>
+      </c>
+      <c r="G134" t="n">
+        <v>48.65999999999996</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="C135" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="D135" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="E135" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="F135" t="n">
+        <v>380</v>
+      </c>
+      <c r="G135" t="n">
+        <v>48.49999999999996</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="C136" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="D136" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="E136" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1625.1453</v>
+      </c>
+      <c r="G136" t="n">
+        <v>48.37999999999997</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="C137" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="D137" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="E137" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1328.3882</v>
+      </c>
+      <c r="G137" t="n">
+        <v>48.31999999999997</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="C138" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="D138" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="E138" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1070</v>
+      </c>
+      <c r="G138" t="n">
+        <v>48.25999999999997</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="C139" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="D139" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="E139" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="F139" t="n">
+        <v>4328</v>
+      </c>
+      <c r="G139" t="n">
+        <v>48.23999999999997</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="E140" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>10500</v>
+      </c>
+      <c r="G140" t="n">
+        <v>48.17999999999998</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="C141" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="E141" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="F141" t="n">
+        <v>50</v>
+      </c>
+      <c r="G141" t="n">
+        <v>48.13999999999997</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="C142" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="E142" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="F142" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G142" t="n">
+        <v>48.11999999999998</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="C143" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="E143" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2504.0623</v>
+      </c>
+      <c r="G143" t="n">
+        <v>48.09999999999999</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="C144" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="D144" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="E144" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1029.9074</v>
+      </c>
+      <c r="G144" t="n">
+        <v>48.11999999999999</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="C145" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="D145" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="E145" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="F145" t="n">
+        <v>376.6115</v>
+      </c>
+      <c r="G145" t="n">
+        <v>48.11999999999999</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>48</v>
+      </c>
+      <c r="C146" t="n">
+        <v>48</v>
+      </c>
+      <c r="D146" t="n">
+        <v>48</v>
+      </c>
+      <c r="E146" t="n">
+        <v>48</v>
+      </c>
+      <c r="F146" t="n">
+        <v>500</v>
+      </c>
+      <c r="G146" t="n">
+        <v>48.09999999999998</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="C147" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="E147" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="F147" t="n">
+        <v>6076</v>
+      </c>
+      <c r="G147" t="n">
+        <v>48.09999999999998</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="C148" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="D148" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="E148" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="F148" t="n">
+        <v>3360</v>
+      </c>
+      <c r="G148" t="n">
+        <v>48.11999999999999</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="C149" t="n">
+        <v>48</v>
+      </c>
+      <c r="D149" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="E149" t="n">
+        <v>48</v>
+      </c>
+      <c r="F149" t="n">
+        <v>21000</v>
+      </c>
+      <c r="G149" t="n">
+        <v>48.07999999999998</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="C150" t="n">
+        <v>48</v>
+      </c>
+      <c r="D150" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="E150" t="n">
+        <v>48</v>
+      </c>
+      <c r="F150" t="n">
+        <v>5724.6849</v>
+      </c>
+      <c r="G150" t="n">
+        <v>48.05999999999999</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="C151" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="D151" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="E151" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1403.5761</v>
+      </c>
+      <c r="G151" t="n">
+        <v>48.01999999999998</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>48</v>
+      </c>
+      <c r="C152" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="D152" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="E152" t="n">
+        <v>48</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1490</v>
+      </c>
+      <c r="G152" t="n">
+        <v>48.03999999999998</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="C153" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="D153" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="E153" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1419.2829</v>
+      </c>
+      <c r="G153" t="n">
+        <v>48.01999999999998</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="C154" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="D154" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="E154" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="F154" t="n">
+        <v>9210.9558</v>
+      </c>
+      <c r="G154" t="n">
+        <v>47.99999999999998</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="C155" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="D155" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="E155" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="F155" t="n">
+        <v>3070.3185</v>
+      </c>
+      <c r="G155" t="n">
+        <v>47.97999999999998</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="C156" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="D156" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="E156" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="F156" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G156" t="n">
+        <v>47.99999999999996</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="C157" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="D157" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="E157" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="F157" t="n">
+        <v>4796.4292</v>
+      </c>
+      <c r="G157" t="n">
+        <v>47.93999999999996</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="C158" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="D158" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="E158" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="F158" t="n">
+        <v>784</v>
+      </c>
+      <c r="G158" t="n">
+        <v>47.85999999999996</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="C159" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="D159" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="E159" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="F159" t="n">
+        <v>12467</v>
+      </c>
+      <c r="G159" t="n">
+        <v>47.81999999999996</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="C160" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="D160" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="E160" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1263</v>
+      </c>
+      <c r="G160" t="n">
+        <v>47.73999999999996</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="C161" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="D161" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="E161" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2666.2967</v>
+      </c>
+      <c r="G161" t="n">
+        <v>47.63999999999996</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="C162" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="D162" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="E162" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="F162" t="n">
+        <v>12967.0761</v>
+      </c>
+      <c r="G162" t="n">
+        <v>47.53999999999996</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="C163" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="D163" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="E163" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="F163" t="n">
+        <v>20269.5868</v>
+      </c>
+      <c r="G163" t="n">
+        <v>47.43999999999996</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="D164" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="E164" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="F164" t="n">
+        <v>960.5830999999999</v>
+      </c>
+      <c r="G164" t="n">
+        <v>47.31999999999997</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="C165" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="D165" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="E165" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="F165" t="n">
+        <v>960.5830999999999</v>
+      </c>
+      <c r="G165" t="n">
+        <v>47.25999999999997</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="C166" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="D166" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="E166" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="F166" t="n">
+        <v>994.3115</v>
+      </c>
+      <c r="G166" t="n">
+        <v>47.19999999999997</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>47</v>
+      </c>
+      <c r="C167" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="D167" t="n">
+        <v>47</v>
+      </c>
+      <c r="E167" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="F167" t="n">
+        <v>15876.7103</v>
+      </c>
+      <c r="G167" t="n">
+        <v>47.09999999999997</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>47</v>
+      </c>
+      <c r="C168" t="n">
+        <v>47</v>
+      </c>
+      <c r="D168" t="n">
+        <v>47</v>
+      </c>
+      <c r="E168" t="n">
+        <v>47</v>
+      </c>
+      <c r="F168" t="n">
+        <v>10790</v>
+      </c>
+      <c r="G168" t="n">
+        <v>47.05999999999998</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="C169" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="D169" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="E169" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2221.1832</v>
+      </c>
+      <c r="G169" t="n">
+        <v>47.01999999999997</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="C170" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="D170" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="E170" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="F170" t="n">
+        <v>10067.008</v>
+      </c>
+      <c r="G170" t="n">
+        <v>46.93999999999998</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="C171" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="D171" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="E171" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1679.8937</v>
+      </c>
+      <c r="G171" t="n">
+        <v>46.81999999999998</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="K171" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="C172" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="D172" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="E172" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="F172" t="n">
+        <v>30898.2933</v>
+      </c>
+      <c r="G172" t="n">
+        <v>46.69999999999997</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="K172" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="L172" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="C96" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="D96" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="E96" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="F96" t="n">
-        <v>2016.0294</v>
-      </c>
-      <c r="G96" t="n">
-        <v>47.25999999999991</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="K96" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="C97" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="D97" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="E97" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="F97" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G97" t="n">
-        <v>47.33999999999992</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="K97" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="C98" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="D98" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="E98" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="F98" t="n">
-        <v>1385.224</v>
-      </c>
-      <c r="G98" t="n">
-        <v>47.39999999999992</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K98" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="C99" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="D99" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="E99" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="F99" t="n">
-        <v>1017.3867</v>
-      </c>
-      <c r="G99" t="n">
-        <v>47.47999999999993</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="K99" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="C100" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="D100" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="E100" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="F100" t="n">
-        <v>1026.1556</v>
-      </c>
-      <c r="G100" t="n">
-        <v>47.49999999999992</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="K100" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="C101" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="D101" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="E101" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="F101" t="n">
-        <v>226.1798</v>
-      </c>
-      <c r="G101" t="n">
-        <v>47.45999999999992</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="C102" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="D102" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="E102" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="F102" t="n">
-        <v>10735.0849</v>
-      </c>
-      <c r="G102" t="n">
-        <v>47.41999999999992</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="K102" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="C103" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="D103" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="E103" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="F103" t="n">
-        <v>39444.6202</v>
-      </c>
-      <c r="G103" t="n">
-        <v>47.39999999999992</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="K103" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="C104" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="D104" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="E104" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="F104" t="n">
-        <v>21052.63157894</v>
-      </c>
-      <c r="G104" t="n">
-        <v>47.37999999999992</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K104" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="C105" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="D105" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="E105" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="F105" t="n">
-        <v>349.9664</v>
-      </c>
-      <c r="G105" t="n">
-        <v>47.35999999999991</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K105" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="C106" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="D106" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="E106" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="F106" t="n">
-        <v>4734.4498</v>
-      </c>
-      <c r="G106" t="n">
-        <v>47.35999999999992</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="K106" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="C107" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="D107" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="E107" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="F107" t="n">
-        <v>681</v>
-      </c>
-      <c r="G107" t="n">
-        <v>47.31999999999992</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="K107" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="C108" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="D108" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="E108" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="F108" t="n">
-        <v>6677.5249</v>
-      </c>
-      <c r="G108" t="n">
-        <v>47.29999999999991</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K108" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="C109" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="D109" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="E109" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="F109" t="n">
-        <v>520.7536</v>
-      </c>
-      <c r="G109" t="n">
-        <v>47.29999999999991</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K109" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="C110" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="D110" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="E110" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="F110" t="n">
-        <v>1341.8451</v>
-      </c>
-      <c r="G110" t="n">
-        <v>47.35999999999991</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="K110" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="C111" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="D111" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="E111" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="F111" t="n">
-        <v>920.8267</v>
-      </c>
-      <c r="G111" t="n">
-        <v>47.41999999999992</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K111" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="C112" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="D112" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="E112" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="F112" t="n">
-        <v>20667.99105888</v>
-      </c>
-      <c r="G112" t="n">
-        <v>47.65999999999991</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="K112" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="C113" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="D113" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="E113" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="F113" t="n">
-        <v>4200</v>
-      </c>
-      <c r="G113" t="n">
-        <v>47.71999999999991</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="K113" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="C114" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="D114" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="E114" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="F114" t="n">
-        <v>1540.88</v>
-      </c>
-      <c r="G114" t="n">
-        <v>47.77999999999992</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="C115" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="D115" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="E115" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="F115" t="n">
-        <v>2780</v>
-      </c>
-      <c r="G115" t="n">
-        <v>47.87999999999992</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>48</v>
-      </c>
-      <c r="C116" t="n">
-        <v>48</v>
-      </c>
-      <c r="D116" t="n">
-        <v>48</v>
-      </c>
-      <c r="E116" t="n">
-        <v>48</v>
-      </c>
-      <c r="F116" t="n">
-        <v>16894.227</v>
-      </c>
-      <c r="G116" t="n">
-        <v>47.97999999999993</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="C117" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="D117" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="E117" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="F117" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G117" t="n">
-        <v>47.91999999999993</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="C118" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="D118" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="E118" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="F118" t="n">
-        <v>8930.164000000001</v>
-      </c>
-      <c r="G118" t="n">
-        <v>48.03999999999994</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>48</v>
-      </c>
-      <c r="C119" t="n">
-        <v>48</v>
-      </c>
-      <c r="D119" t="n">
-        <v>48</v>
-      </c>
-      <c r="E119" t="n">
-        <v>48</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1100</v>
-      </c>
-      <c r="G119" t="n">
-        <v>48.07999999999994</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>48</v>
-      </c>
-      <c r="C120" t="n">
-        <v>48</v>
-      </c>
-      <c r="D120" t="n">
-        <v>48</v>
-      </c>
-      <c r="E120" t="n">
-        <v>48</v>
-      </c>
-      <c r="F120" t="n">
-        <v>492.2962</v>
-      </c>
-      <c r="G120" t="n">
-        <v>48.05999999999994</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="C121" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="D121" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="E121" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="F121" t="n">
-        <v>645.0766</v>
-      </c>
-      <c r="G121" t="n">
-        <v>48.09999999999994</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="C122" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="D122" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="E122" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="F122" t="n">
-        <v>1962</v>
-      </c>
-      <c r="G122" t="n">
-        <v>48.11999999999994</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="C123" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="D123" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="E123" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="F123" t="n">
-        <v>99683.0658</v>
-      </c>
-      <c r="G123" t="n">
-        <v>48.19999999999995</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="C124" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="D124" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="E124" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="F124" t="n">
-        <v>16906.9999</v>
-      </c>
-      <c r="G124" t="n">
-        <v>48.31999999999995</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="C125" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="D125" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="E125" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="F125" t="n">
-        <v>15809.9352</v>
-      </c>
-      <c r="G125" t="n">
-        <v>48.41999999999994</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="C126" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="D126" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="E126" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="F126" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G126" t="n">
-        <v>48.47999999999995</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="C127" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="D127" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="E127" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="F127" t="n">
-        <v>23421.1156</v>
-      </c>
-      <c r="G127" t="n">
-        <v>48.53999999999995</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="C128" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="D128" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="E128" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="F128" t="n">
-        <v>771.9058</v>
-      </c>
-      <c r="G128" t="n">
-        <v>48.53999999999996</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="C129" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="D129" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="E129" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="F129" t="n">
-        <v>500</v>
-      </c>
-      <c r="G129" t="n">
-        <v>48.59999999999996</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="C130" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="D130" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="E130" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="F130" t="n">
-        <v>16.9918</v>
-      </c>
-      <c r="G130" t="n">
-        <v>48.73999999999997</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="C131" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="D131" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="E131" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="F131" t="n">
-        <v>32.3108</v>
-      </c>
-      <c r="G131" t="n">
-        <v>48.81999999999996</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="C132" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="D132" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="E132" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="F132" t="n">
-        <v>763.8634</v>
-      </c>
-      <c r="G132" t="n">
-        <v>48.81999999999996</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="C133" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="D133" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="E133" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="F133" t="n">
-        <v>50260.6807</v>
-      </c>
-      <c r="G133" t="n">
-        <v>48.79999999999996</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="C134" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="D134" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="E134" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="F134" t="n">
-        <v>4093.7581</v>
-      </c>
-      <c r="G134" t="n">
-        <v>48.65999999999996</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="C135" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="D135" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="E135" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="F135" t="n">
-        <v>380</v>
-      </c>
-      <c r="G135" t="n">
-        <v>48.49999999999996</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="C136" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="D136" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="E136" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1625.1453</v>
-      </c>
-      <c r="G136" t="n">
-        <v>48.37999999999997</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="C137" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="D137" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="E137" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1328.3882</v>
-      </c>
-      <c r="G137" t="n">
-        <v>48.31999999999997</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="C138" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="D138" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="E138" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1070</v>
-      </c>
-      <c r="G138" t="n">
-        <v>48.25999999999997</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="C139" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="D139" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="E139" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="F139" t="n">
-        <v>4328</v>
-      </c>
-      <c r="G139" t="n">
-        <v>48.23999999999997</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="C140" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="D140" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="E140" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="F140" t="n">
-        <v>10500</v>
-      </c>
-      <c r="G140" t="n">
-        <v>48.17999999999998</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="C141" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="D141" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="E141" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="F141" t="n">
-        <v>50</v>
-      </c>
-      <c r="G141" t="n">
-        <v>48.13999999999997</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="C142" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="D142" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="E142" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="F142" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G142" t="n">
-        <v>48.11999999999998</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="C143" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="D143" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="E143" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="F143" t="n">
-        <v>2504.0623</v>
-      </c>
-      <c r="G143" t="n">
-        <v>48.09999999999999</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="C144" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="D144" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="E144" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="F144" t="n">
-        <v>1029.9074</v>
-      </c>
-      <c r="G144" t="n">
-        <v>48.11999999999999</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="C145" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="D145" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="E145" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="F145" t="n">
-        <v>376.6115</v>
-      </c>
-      <c r="G145" t="n">
-        <v>48.11999999999999</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>48</v>
-      </c>
-      <c r="C146" t="n">
-        <v>48</v>
-      </c>
-      <c r="D146" t="n">
-        <v>48</v>
-      </c>
-      <c r="E146" t="n">
-        <v>48</v>
-      </c>
-      <c r="F146" t="n">
-        <v>500</v>
-      </c>
-      <c r="G146" t="n">
-        <v>48.09999999999998</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="C147" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="D147" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="E147" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="F147" t="n">
-        <v>6076</v>
-      </c>
-      <c r="G147" t="n">
-        <v>48.09999999999998</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="C148" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="D148" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="E148" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="F148" t="n">
-        <v>3360</v>
-      </c>
-      <c r="G148" t="n">
-        <v>48.11999999999999</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="C149" t="n">
-        <v>48</v>
-      </c>
-      <c r="D149" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="E149" t="n">
-        <v>48</v>
-      </c>
-      <c r="F149" t="n">
-        <v>21000</v>
-      </c>
-      <c r="G149" t="n">
-        <v>48.07999999999998</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="C150" t="n">
-        <v>48</v>
-      </c>
-      <c r="D150" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="E150" t="n">
-        <v>48</v>
-      </c>
-      <c r="F150" t="n">
-        <v>5724.6849</v>
-      </c>
-      <c r="G150" t="n">
-        <v>48.05999999999999</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="C151" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="D151" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="E151" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="F151" t="n">
-        <v>1403.5761</v>
-      </c>
-      <c r="G151" t="n">
-        <v>48.01999999999998</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>48</v>
-      </c>
-      <c r="C152" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="D152" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="E152" t="n">
-        <v>48</v>
-      </c>
-      <c r="F152" t="n">
-        <v>1490</v>
-      </c>
-      <c r="G152" t="n">
-        <v>48.03999999999998</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="C153" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="D153" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="E153" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="F153" t="n">
-        <v>1419.2829</v>
-      </c>
-      <c r="G153" t="n">
-        <v>48.01999999999998</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="C154" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="D154" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="E154" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="F154" t="n">
-        <v>9210.9558</v>
-      </c>
-      <c r="G154" t="n">
-        <v>47.99999999999998</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="C155" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="D155" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="E155" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="F155" t="n">
-        <v>3070.3185</v>
-      </c>
-      <c r="G155" t="n">
-        <v>47.97999999999998</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="C156" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="D156" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="E156" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="F156" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G156" t="n">
-        <v>47.99999999999996</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="C157" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="D157" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="E157" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="F157" t="n">
-        <v>4796.4292</v>
-      </c>
-      <c r="G157" t="n">
-        <v>47.93999999999996</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="C158" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="D158" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="E158" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="F158" t="n">
-        <v>784</v>
-      </c>
-      <c r="G158" t="n">
-        <v>47.85999999999996</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="C159" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="D159" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="E159" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="F159" t="n">
-        <v>12467</v>
-      </c>
-      <c r="G159" t="n">
-        <v>47.81999999999996</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="C160" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="D160" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="E160" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="F160" t="n">
-        <v>1263</v>
-      </c>
-      <c r="G160" t="n">
-        <v>47.73999999999996</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="C161" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="D161" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="E161" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="F161" t="n">
-        <v>2666.2967</v>
-      </c>
-      <c r="G161" t="n">
-        <v>47.63999999999996</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="C162" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="D162" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="E162" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="F162" t="n">
-        <v>12967.0761</v>
-      </c>
-      <c r="G162" t="n">
-        <v>47.53999999999996</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="C163" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="D163" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="E163" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="F163" t="n">
-        <v>20269.5868</v>
-      </c>
-      <c r="G163" t="n">
-        <v>47.43999999999996</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="C164" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="D164" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="E164" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="F164" t="n">
-        <v>960.5830999999999</v>
-      </c>
-      <c r="G164" t="n">
-        <v>47.31999999999997</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="C165" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="D165" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="E165" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="F165" t="n">
-        <v>960.5830999999999</v>
-      </c>
-      <c r="G165" t="n">
-        <v>47.25999999999997</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="C166" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="D166" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="E166" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="F166" t="n">
-        <v>994.3115</v>
-      </c>
-      <c r="G166" t="n">
-        <v>47.19999999999997</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>47</v>
-      </c>
-      <c r="C167" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="D167" t="n">
-        <v>47</v>
-      </c>
-      <c r="E167" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="F167" t="n">
-        <v>15876.7103</v>
-      </c>
-      <c r="G167" t="n">
-        <v>47.09999999999997</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="n">
-        <v>47</v>
-      </c>
-      <c r="K167" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>47</v>
-      </c>
-      <c r="C168" t="n">
-        <v>47</v>
-      </c>
-      <c r="D168" t="n">
-        <v>47</v>
-      </c>
-      <c r="E168" t="n">
-        <v>47</v>
-      </c>
-      <c r="F168" t="n">
-        <v>10790</v>
-      </c>
-      <c r="G168" t="n">
-        <v>47.05999999999998</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="n">
-        <v>47</v>
-      </c>
-      <c r="K168" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="C169" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="D169" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="E169" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="F169" t="n">
-        <v>2221.1832</v>
-      </c>
-      <c r="G169" t="n">
-        <v>47.01999999999997</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="K169" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="C170" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="D170" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="E170" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="F170" t="n">
-        <v>10067.008</v>
-      </c>
-      <c r="G170" t="n">
-        <v>46.93999999999998</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="K170" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="C171" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="D171" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="E171" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="F171" t="n">
-        <v>1679.8937</v>
-      </c>
-      <c r="G171" t="n">
-        <v>46.81999999999998</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="K171" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="C172" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="D172" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="E172" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="F172" t="n">
-        <v>30898.2933</v>
-      </c>
-      <c r="G172" t="n">
-        <v>46.69999999999997</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="K172" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6962,10 +6454,10 @@
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>46.5</v>
+        <v>46.3</v>
       </c>
       <c r="K173" t="n">
-        <v>47.2</v>
+        <v>46.8</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -7008,7 +6500,7 @@
         <v>46.3</v>
       </c>
       <c r="K174" t="n">
-        <v>47.2</v>
+        <v>46.8</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -7051,7 +6543,7 @@
         <v>46.3</v>
       </c>
       <c r="K175" t="n">
-        <v>47.2</v>
+        <v>46.8</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>

--- a/BackTest/2019-10-26 BackTest XEM.xlsx
+++ b/BackTest/2019-10-26 BackTest XEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M175"/>
+  <dimension ref="A1:M176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="C2" t="n">
-        <v>49</v>
+        <v>48.7</v>
       </c>
       <c r="D2" t="n">
         <v>49</v>
       </c>
       <c r="E2" t="n">
-        <v>48.9</v>
+        <v>48.7</v>
       </c>
       <c r="F2" t="n">
-        <v>7180</v>
+        <v>2994.1364</v>
       </c>
       <c r="G2" t="n">
-        <v>48.97999999999998</v>
+        <v>47.89499999999995</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="C3" t="n">
-        <v>48.8</v>
+        <v>49</v>
       </c>
       <c r="D3" t="n">
-        <v>48.8</v>
+        <v>49</v>
       </c>
       <c r="E3" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="F3" t="n">
-        <v>1364.0253</v>
+        <v>7180</v>
       </c>
       <c r="G3" t="n">
-        <v>49.05999999999997</v>
+        <v>47.90499999999994</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>48.4</v>
+        <v>48.8</v>
       </c>
       <c r="C4" t="n">
-        <v>48.4</v>
+        <v>48.8</v>
       </c>
       <c r="D4" t="n">
-        <v>48.4</v>
+        <v>48.8</v>
       </c>
       <c r="E4" t="n">
-        <v>48.4</v>
+        <v>48.8</v>
       </c>
       <c r="F4" t="n">
-        <v>1060.2796</v>
+        <v>1364.0253</v>
       </c>
       <c r="G4" t="n">
-        <v>48.93999999999998</v>
+        <v>47.93333333333328</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48.9</v>
+        <v>48.4</v>
       </c>
       <c r="C5" t="n">
-        <v>49</v>
+        <v>48.4</v>
       </c>
       <c r="D5" t="n">
-        <v>49</v>
+        <v>48.4</v>
       </c>
       <c r="E5" t="n">
-        <v>48.9</v>
+        <v>48.4</v>
       </c>
       <c r="F5" t="n">
-        <v>14693.8149</v>
+        <v>1060.2796</v>
       </c>
       <c r="G5" t="n">
-        <v>48.77999999999997</v>
+        <v>47.95666666666661</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="C6" t="n">
         <v>49</v>
@@ -582,13 +582,13 @@
         <v>49</v>
       </c>
       <c r="E6" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="F6" t="n">
-        <v>36121.9589</v>
+        <v>14693.8149</v>
       </c>
       <c r="G6" t="n">
-        <v>48.83999999999997</v>
+        <v>47.99833333333329</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49.2</v>
+        <v>49</v>
       </c>
       <c r="C7" t="n">
-        <v>49.2</v>
+        <v>49</v>
       </c>
       <c r="D7" t="n">
-        <v>49.2</v>
+        <v>49</v>
       </c>
       <c r="E7" t="n">
-        <v>49.2</v>
+        <v>49</v>
       </c>
       <c r="F7" t="n">
-        <v>1272.258</v>
+        <v>36121.9589</v>
       </c>
       <c r="G7" t="n">
-        <v>48.87999999999997</v>
+        <v>48.03333333333328</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>49.6</v>
+        <v>49.2</v>
       </c>
       <c r="C8" t="n">
-        <v>49.6</v>
+        <v>49.2</v>
       </c>
       <c r="D8" t="n">
-        <v>49.6</v>
+        <v>49.2</v>
       </c>
       <c r="E8" t="n">
-        <v>49.6</v>
+        <v>49.2</v>
       </c>
       <c r="F8" t="n">
-        <v>90</v>
+        <v>1272.258</v>
       </c>
       <c r="G8" t="n">
-        <v>49.03999999999998</v>
+        <v>48.06666666666661</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>49.7</v>
+        <v>49.6</v>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>49.6</v>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>49.6</v>
       </c>
       <c r="E9" t="n">
-        <v>49.7</v>
+        <v>49.6</v>
       </c>
       <c r="F9" t="n">
-        <v>19210.0539</v>
+        <v>90</v>
       </c>
       <c r="G9" t="n">
-        <v>49.35999999999997</v>
+        <v>48.10499999999994</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>50</v>
+        <v>49.7</v>
       </c>
       <c r="C10" t="n">
         <v>50</v>
@@ -722,13 +722,13 @@
         <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>50</v>
+        <v>49.7</v>
       </c>
       <c r="F10" t="n">
-        <v>8000</v>
+        <v>19210.0539</v>
       </c>
       <c r="G10" t="n">
-        <v>49.55999999999997</v>
+        <v>48.14666666666661</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,16 +760,16 @@
         <v>50</v>
       </c>
       <c r="F11" t="n">
-        <v>1100.1093</v>
+        <v>8000</v>
       </c>
       <c r="G11" t="n">
-        <v>49.75999999999997</v>
+        <v>48.18999999999994</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -783,28 +783,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>49.9</v>
+        <v>50</v>
       </c>
       <c r="C12" t="n">
-        <v>49.9</v>
+        <v>50</v>
       </c>
       <c r="D12" t="n">
-        <v>49.9</v>
+        <v>50</v>
       </c>
       <c r="E12" t="n">
-        <v>49.9</v>
+        <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>4008.016</v>
+        <v>1100.1093</v>
       </c>
       <c r="G12" t="n">
-        <v>49.89999999999996</v>
+        <v>48.23333333333327</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -830,10 +830,10 @@
         <v>49.9</v>
       </c>
       <c r="F13" t="n">
-        <v>858.123</v>
+        <v>4008.016</v>
       </c>
       <c r="G13" t="n">
-        <v>49.95999999999997</v>
+        <v>48.27333333333328</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>49.9</v>
       </c>
       <c r="F14" t="n">
-        <v>2496.1088</v>
+        <v>858.123</v>
       </c>
       <c r="G14" t="n">
-        <v>49.93999999999996</v>
+        <v>48.31333333333328</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,28 +888,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>50</v>
+        <v>49.9</v>
       </c>
       <c r="C15" t="n">
-        <v>50</v>
+        <v>49.9</v>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>49.9</v>
       </c>
       <c r="E15" t="n">
-        <v>50</v>
+        <v>49.9</v>
       </c>
       <c r="F15" t="n">
-        <v>1034.56</v>
+        <v>2496.1088</v>
       </c>
       <c r="G15" t="n">
-        <v>49.93999999999996</v>
+        <v>48.35499999999994</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -935,10 +935,10 @@
         <v>50</v>
       </c>
       <c r="F16" t="n">
-        <v>4285</v>
+        <v>1034.56</v>
       </c>
       <c r="G16" t="n">
-        <v>49.93999999999996</v>
+        <v>48.39499999999995</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -961,19 +961,19 @@
         <v>50</v>
       </c>
       <c r="C17" t="n">
-        <v>50.2</v>
+        <v>50</v>
       </c>
       <c r="D17" t="n">
-        <v>50.2</v>
+        <v>50</v>
       </c>
       <c r="E17" t="n">
         <v>50</v>
       </c>
       <c r="F17" t="n">
-        <v>5694</v>
+        <v>4285</v>
       </c>
       <c r="G17" t="n">
-        <v>49.99999999999996</v>
+        <v>48.43666666666661</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>49.9</v>
+        <v>50</v>
       </c>
       <c r="C18" t="n">
-        <v>50.3</v>
+        <v>50.2</v>
       </c>
       <c r="D18" t="n">
-        <v>50.3</v>
+        <v>50.2</v>
       </c>
       <c r="E18" t="n">
-        <v>49.4</v>
+        <v>50</v>
       </c>
       <c r="F18" t="n">
-        <v>97242.49950000001</v>
+        <v>5694</v>
       </c>
       <c r="G18" t="n">
-        <v>50.07999999999996</v>
+        <v>48.48166666666661</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>50.3</v>
+        <v>49.9</v>
       </c>
       <c r="C19" t="n">
         <v>50.3</v>
@@ -1037,13 +1037,13 @@
         <v>50.3</v>
       </c>
       <c r="E19" t="n">
-        <v>50.3</v>
+        <v>49.4</v>
       </c>
       <c r="F19" t="n">
-        <v>17015.5943</v>
+        <v>97242.49950000001</v>
       </c>
       <c r="G19" t="n">
-        <v>50.15999999999995</v>
+        <v>48.52499999999995</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>50.3</v>
       </c>
       <c r="F20" t="n">
-        <v>15080.5917</v>
+        <v>17015.5943</v>
       </c>
       <c r="G20" t="n">
-        <v>50.21999999999995</v>
+        <v>48.56833333333329</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>50.3</v>
       </c>
       <c r="F21" t="n">
-        <v>66594.9999</v>
+        <v>15080.5917</v>
       </c>
       <c r="G21" t="n">
-        <v>50.27999999999995</v>
+        <v>48.61166666666663</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>50.3</v>
       </c>
       <c r="C22" t="n">
-        <v>51</v>
+        <v>50.3</v>
       </c>
       <c r="D22" t="n">
-        <v>51</v>
+        <v>50.3</v>
       </c>
       <c r="E22" t="n">
         <v>50.3</v>
       </c>
       <c r="F22" t="n">
-        <v>126839.917</v>
+        <v>66594.9999</v>
       </c>
       <c r="G22" t="n">
-        <v>50.43999999999996</v>
+        <v>48.65499999999997</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="C23" t="n">
         <v>51</v>
       </c>
-      <c r="C23" t="n">
-        <v>51.5</v>
-      </c>
       <c r="D23" t="n">
-        <v>51.5</v>
+        <v>51</v>
       </c>
       <c r="E23" t="n">
-        <v>50.8</v>
+        <v>50.3</v>
       </c>
       <c r="F23" t="n">
-        <v>26699.6528</v>
+        <v>126839.917</v>
       </c>
       <c r="G23" t="n">
-        <v>50.67999999999995</v>
+        <v>48.70833333333329</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>50.5</v>
+        <v>51</v>
       </c>
       <c r="C24" t="n">
-        <v>50.5</v>
+        <v>51.5</v>
       </c>
       <c r="D24" t="n">
-        <v>50.5</v>
+        <v>51.5</v>
       </c>
       <c r="E24" t="n">
-        <v>50.5</v>
+        <v>50.8</v>
       </c>
       <c r="F24" t="n">
-        <v>1100</v>
+        <v>26699.6528</v>
       </c>
       <c r="G24" t="n">
-        <v>50.71999999999995</v>
+        <v>48.7683333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>50.1</v>
+        <v>50.5</v>
       </c>
       <c r="C25" t="n">
-        <v>48.7</v>
+        <v>50.5</v>
       </c>
       <c r="D25" t="n">
-        <v>50.1</v>
+        <v>50.5</v>
       </c>
       <c r="E25" t="n">
-        <v>48.6</v>
+        <v>50.5</v>
       </c>
       <c r="F25" t="n">
-        <v>16509.7166</v>
+        <v>1100</v>
       </c>
       <c r="G25" t="n">
-        <v>50.39999999999994</v>
+        <v>48.81166666666662</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>48.5</v>
+        <v>50.1</v>
       </c>
       <c r="C26" t="n">
-        <v>48.5</v>
+        <v>48.7</v>
       </c>
       <c r="D26" t="n">
-        <v>48.5</v>
+        <v>50.1</v>
       </c>
       <c r="E26" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="F26" t="n">
-        <v>2200</v>
+        <v>16509.7166</v>
       </c>
       <c r="G26" t="n">
-        <v>50.03999999999994</v>
+        <v>48.82499999999995</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,19 +1311,19 @@
         <v>48.5</v>
       </c>
       <c r="C27" t="n">
-        <v>47.7</v>
+        <v>48.5</v>
       </c>
       <c r="D27" t="n">
         <v>48.5</v>
       </c>
       <c r="E27" t="n">
-        <v>47.7</v>
+        <v>48.5</v>
       </c>
       <c r="F27" t="n">
-        <v>3128.2002</v>
+        <v>2200</v>
       </c>
       <c r="G27" t="n">
-        <v>49.37999999999994</v>
+        <v>48.83333333333329</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="C28" t="n">
-        <v>48.4</v>
+        <v>47.7</v>
       </c>
       <c r="D28" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="E28" t="n">
-        <v>48.4</v>
+        <v>47.7</v>
       </c>
       <c r="F28" t="n">
-        <v>7238</v>
+        <v>3128.2002</v>
       </c>
       <c r="G28" t="n">
-        <v>48.75999999999993</v>
+        <v>48.83666666666662</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>48.6</v>
+        <v>48.4</v>
       </c>
       <c r="C29" t="n">
-        <v>48.6</v>
+        <v>48.4</v>
       </c>
       <c r="D29" t="n">
-        <v>48.6</v>
+        <v>48.4</v>
       </c>
       <c r="E29" t="n">
-        <v>48.6</v>
+        <v>48.4</v>
       </c>
       <c r="F29" t="n">
-        <v>1056.2002</v>
+        <v>7238</v>
       </c>
       <c r="G29" t="n">
-        <v>48.37999999999994</v>
+        <v>48.84999999999995</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>48.9</v>
+        <v>48.6</v>
       </c>
       <c r="C30" t="n">
-        <v>48.9</v>
+        <v>48.6</v>
       </c>
       <c r="D30" t="n">
-        <v>48.9</v>
+        <v>48.6</v>
       </c>
       <c r="E30" t="n">
-        <v>48.9</v>
+        <v>48.6</v>
       </c>
       <c r="F30" t="n">
-        <v>361.5566</v>
+        <v>1056.2002</v>
       </c>
       <c r="G30" t="n">
-        <v>48.41999999999994</v>
+        <v>48.86499999999996</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>48.7</v>
+        <v>48.9</v>
       </c>
       <c r="C31" t="n">
-        <v>48.7</v>
+        <v>48.9</v>
       </c>
       <c r="D31" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="E31" t="n">
-        <v>48.7</v>
+        <v>48.9</v>
       </c>
       <c r="F31" t="n">
-        <v>2854</v>
+        <v>361.5566</v>
       </c>
       <c r="G31" t="n">
-        <v>48.45999999999994</v>
+        <v>48.88833333333329</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1489,16 +1489,16 @@
         <v>48.7</v>
       </c>
       <c r="D32" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="E32" t="n">
         <v>48.7</v>
       </c>
       <c r="F32" t="n">
-        <v>6368</v>
+        <v>2854</v>
       </c>
       <c r="G32" t="n">
-        <v>48.65999999999993</v>
+        <v>48.90499999999996</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="C33" t="n">
-        <v>48.9</v>
+        <v>48.7</v>
       </c>
       <c r="D33" t="n">
-        <v>48.9</v>
+        <v>48.7</v>
       </c>
       <c r="E33" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="F33" t="n">
-        <v>4644.2894</v>
+        <v>6368</v>
       </c>
       <c r="G33" t="n">
-        <v>48.75999999999993</v>
+        <v>48.92166666666662</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="C34" t="n">
         <v>48.9</v>
@@ -1562,13 +1562,13 @@
         <v>48.9</v>
       </c>
       <c r="E34" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="F34" t="n">
-        <v>10517.852</v>
+        <v>4644.2894</v>
       </c>
       <c r="G34" t="n">
-        <v>48.81999999999993</v>
+        <v>48.93999999999996</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1591,19 +1591,19 @@
         <v>48.9</v>
       </c>
       <c r="C35" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="D35" t="n">
         <v>48.9</v>
       </c>
       <c r="E35" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="F35" t="n">
-        <v>12271.7742</v>
+        <v>10517.852</v>
       </c>
       <c r="G35" t="n">
-        <v>48.79999999999993</v>
+        <v>48.95833333333329</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1626,19 +1626,19 @@
         <v>48.9</v>
       </c>
       <c r="C36" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="D36" t="n">
         <v>48.9</v>
       </c>
       <c r="E36" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="F36" t="n">
-        <v>2769.2943</v>
+        <v>12271.7742</v>
       </c>
       <c r="G36" t="n">
-        <v>48.83999999999993</v>
+        <v>48.97499999999995</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="C37" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="D37" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="E37" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="F37" t="n">
-        <v>345.2531</v>
+        <v>2769.2943</v>
       </c>
       <c r="G37" t="n">
-        <v>48.89999999999993</v>
+        <v>48.99333333333329</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>49.4</v>
+        <v>49</v>
       </c>
       <c r="C38" t="n">
-        <v>49.3</v>
+        <v>49</v>
       </c>
       <c r="D38" t="n">
-        <v>49.4</v>
+        <v>49</v>
       </c>
       <c r="E38" t="n">
-        <v>49.3</v>
+        <v>49</v>
       </c>
       <c r="F38" t="n">
-        <v>1904.9038</v>
+        <v>345.2531</v>
       </c>
       <c r="G38" t="n">
-        <v>48.97999999999993</v>
+        <v>49.01333333333329</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="C39" t="n">
         <v>49.3</v>
       </c>
-      <c r="C39" t="n">
-        <v>49.7</v>
-      </c>
       <c r="D39" t="n">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="E39" t="n">
         <v>49.3</v>
       </c>
       <c r="F39" t="n">
-        <v>20194.349</v>
+        <v>1904.9038</v>
       </c>
       <c r="G39" t="n">
-        <v>49.13999999999994</v>
+        <v>49.03333333333329</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="C40" t="n">
-        <v>49.1</v>
+        <v>49.7</v>
       </c>
       <c r="D40" t="n">
-        <v>49.2</v>
+        <v>49.7</v>
       </c>
       <c r="E40" t="n">
-        <v>49.1</v>
+        <v>49.3</v>
       </c>
       <c r="F40" t="n">
-        <v>32520.9998</v>
+        <v>20194.349</v>
       </c>
       <c r="G40" t="n">
-        <v>49.19999999999993</v>
+        <v>49.05833333333329</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,10 +1798,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="C41" t="n">
         <v>49.1</v>
-      </c>
-      <c r="C41" t="n">
-        <v>49.2</v>
       </c>
       <c r="D41" t="n">
         <v>49.2</v>
@@ -1810,10 +1810,10 @@
         <v>49.1</v>
       </c>
       <c r="F41" t="n">
-        <v>12071.2538</v>
+        <v>32520.9998</v>
       </c>
       <c r="G41" t="n">
-        <v>49.25999999999993</v>
+        <v>49.07833333333328</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,10 +1833,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="C42" t="n">
         <v>49.2</v>
-      </c>
-      <c r="C42" t="n">
-        <v>49.1</v>
       </c>
       <c r="D42" t="n">
         <v>49.2</v>
@@ -1845,10 +1845,10 @@
         <v>49.1</v>
       </c>
       <c r="F42" t="n">
-        <v>28033.0349</v>
+        <v>12071.2538</v>
       </c>
       <c r="G42" t="n">
-        <v>49.27999999999993</v>
+        <v>49.10166666666661</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>49.1</v>
+        <v>49.2</v>
       </c>
       <c r="C43" t="n">
         <v>49.1</v>
       </c>
       <c r="D43" t="n">
-        <v>49.1</v>
+        <v>49.2</v>
       </c>
       <c r="E43" t="n">
         <v>49.1</v>
       </c>
       <c r="F43" t="n">
-        <v>104491.8616</v>
+        <v>28033.0349</v>
       </c>
       <c r="G43" t="n">
-        <v>49.23999999999993</v>
+        <v>49.12666666666662</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="C44" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="D44" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="E44" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="F44" t="n">
-        <v>1760.2398</v>
+        <v>104491.8616</v>
       </c>
       <c r="G44" t="n">
-        <v>49.09999999999993</v>
+        <v>49.15166666666661</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>49.1</v>
+        <v>49</v>
       </c>
       <c r="C45" t="n">
-        <v>49.1</v>
+        <v>49</v>
       </c>
       <c r="D45" t="n">
-        <v>49.1</v>
+        <v>49</v>
       </c>
       <c r="E45" t="n">
-        <v>49.1</v>
+        <v>49</v>
       </c>
       <c r="F45" t="n">
-        <v>498.0589</v>
+        <v>1760.2398</v>
       </c>
       <c r="G45" t="n">
-        <v>49.09999999999994</v>
+        <v>49.17499999999995</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>49.1</v>
       </c>
       <c r="C46" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="D46" t="n">
-        <v>49.2</v>
+        <v>49.1</v>
       </c>
       <c r="E46" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="F46" t="n">
-        <v>6302.49673008</v>
+        <v>498.0589</v>
       </c>
       <c r="G46" t="n">
-        <v>49.05999999999993</v>
+        <v>49.19833333333328</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="C47" t="n">
         <v>49</v>
       </c>
-      <c r="C47" t="n">
-        <v>48.9</v>
-      </c>
       <c r="D47" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="E47" t="n">
         <v>49</v>
       </c>
-      <c r="E47" t="n">
-        <v>48.9</v>
-      </c>
       <c r="F47" t="n">
-        <v>50050.3403</v>
+        <v>6302.49673008</v>
       </c>
       <c r="G47" t="n">
-        <v>49.01999999999993</v>
+        <v>49.22166666666661</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="C48" t="n">
         <v>48.9</v>
       </c>
       <c r="D48" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="E48" t="n">
         <v>48.9</v>
       </c>
       <c r="F48" t="n">
-        <v>12871.6689</v>
+        <v>50050.3403</v>
       </c>
       <c r="G48" t="n">
-        <v>48.97999999999993</v>
+        <v>49.24333333333329</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="C49" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="D49" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="E49" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="F49" t="n">
-        <v>2000</v>
+        <v>12871.6689</v>
       </c>
       <c r="G49" t="n">
-        <v>48.93999999999993</v>
+        <v>49.25999999999996</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>48.1</v>
+        <v>48.8</v>
       </c>
       <c r="C50" t="n">
-        <v>47.6</v>
+        <v>48.8</v>
       </c>
       <c r="D50" t="n">
-        <v>48.1</v>
+        <v>48.8</v>
       </c>
       <c r="E50" t="n">
-        <v>47.6</v>
+        <v>48.8</v>
       </c>
       <c r="F50" t="n">
-        <v>123152.9186</v>
+        <v>2000</v>
       </c>
       <c r="G50" t="n">
-        <v>48.63999999999994</v>
+        <v>49.27499999999996</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>48.3</v>
+        <v>48.1</v>
       </c>
       <c r="C51" t="n">
-        <v>48.3</v>
+        <v>47.6</v>
       </c>
       <c r="D51" t="n">
-        <v>48.3</v>
+        <v>48.1</v>
       </c>
       <c r="E51" t="n">
-        <v>48.3</v>
+        <v>47.6</v>
       </c>
       <c r="F51" t="n">
-        <v>2017</v>
+        <v>123152.9186</v>
       </c>
       <c r="G51" t="n">
-        <v>48.49999999999993</v>
+        <v>49.26499999999996</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>48.5</v>
+        <v>48.3</v>
       </c>
       <c r="C52" t="n">
-        <v>48.5</v>
+        <v>48.3</v>
       </c>
       <c r="D52" t="n">
-        <v>48.5</v>
+        <v>48.3</v>
       </c>
       <c r="E52" t="n">
-        <v>48.5</v>
+        <v>48.3</v>
       </c>
       <c r="F52" t="n">
-        <v>6334.2474</v>
+        <v>2017</v>
       </c>
       <c r="G52" t="n">
-        <v>48.41999999999993</v>
+        <v>49.26499999999996</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2221,19 +2221,19 @@
         <v>48.5</v>
       </c>
       <c r="C53" t="n">
-        <v>48.1</v>
+        <v>48.5</v>
       </c>
       <c r="D53" t="n">
         <v>48.5</v>
       </c>
       <c r="E53" t="n">
-        <v>48.1</v>
+        <v>48.5</v>
       </c>
       <c r="F53" t="n">
-        <v>1981.5901</v>
+        <v>6334.2474</v>
       </c>
       <c r="G53" t="n">
-        <v>48.25999999999993</v>
+        <v>49.26499999999996</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>48.3</v>
+        <v>48.5</v>
       </c>
       <c r="C54" t="n">
-        <v>48.3</v>
+        <v>48.1</v>
       </c>
       <c r="D54" t="n">
-        <v>48.3</v>
+        <v>48.5</v>
       </c>
       <c r="E54" t="n">
-        <v>48.3</v>
+        <v>48.1</v>
       </c>
       <c r="F54" t="n">
-        <v>1333.4346</v>
+        <v>1981.5901</v>
       </c>
       <c r="G54" t="n">
-        <v>48.15999999999993</v>
+        <v>49.25499999999996</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>48.1</v>
+        <v>48.3</v>
       </c>
       <c r="C55" t="n">
-        <v>48.1</v>
+        <v>48.3</v>
       </c>
       <c r="D55" t="n">
-        <v>48.1</v>
+        <v>48.3</v>
       </c>
       <c r="E55" t="n">
-        <v>48.1</v>
+        <v>48.3</v>
       </c>
       <c r="F55" t="n">
-        <v>10395.0103</v>
+        <v>1333.4346</v>
       </c>
       <c r="G55" t="n">
-        <v>48.25999999999993</v>
+        <v>49.24166666666663</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>48.1</v>
       </c>
       <c r="F56" t="n">
-        <v>824.999</v>
+        <v>10395.0103</v>
       </c>
       <c r="G56" t="n">
-        <v>48.21999999999993</v>
+        <v>49.21666666666663</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="C57" t="n">
-        <v>47.9</v>
+        <v>48.1</v>
       </c>
       <c r="D57" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="E57" t="n">
-        <v>47.9</v>
+        <v>48.1</v>
       </c>
       <c r="F57" t="n">
-        <v>8121.104</v>
+        <v>824.999</v>
       </c>
       <c r="G57" t="n">
-        <v>48.09999999999992</v>
+        <v>49.19166666666663</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
+        <v>48</v>
+      </c>
+      <c r="C58" t="n">
         <v>47.9</v>
       </c>
-      <c r="C58" t="n">
-        <v>48.2</v>
-      </c>
       <c r="D58" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="E58" t="n">
         <v>47.9</v>
       </c>
       <c r="F58" t="n">
-        <v>21821.5838</v>
+        <v>8121.104</v>
       </c>
       <c r="G58" t="n">
-        <v>48.11999999999992</v>
+        <v>49.1633333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>48.1</v>
+        <v>47.9</v>
       </c>
       <c r="C59" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="D59" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="E59" t="n">
-        <v>48.1</v>
+        <v>47.9</v>
       </c>
       <c r="F59" t="n">
-        <v>16075.0816</v>
+        <v>21821.5838</v>
       </c>
       <c r="G59" t="n">
-        <v>48.07999999999991</v>
+        <v>49.15999999999996</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="C60" t="n">
-        <v>48.5</v>
+        <v>48.1</v>
       </c>
       <c r="D60" t="n">
-        <v>48.5</v>
+        <v>48.1</v>
       </c>
       <c r="E60" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="F60" t="n">
-        <v>31719.9763</v>
+        <v>16075.0816</v>
       </c>
       <c r="G60" t="n">
-        <v>48.15999999999992</v>
+        <v>49.14499999999996</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>48</v>
+        <v>48.2</v>
       </c>
       <c r="C61" t="n">
-        <v>48</v>
+        <v>48.5</v>
       </c>
       <c r="D61" t="n">
-        <v>48</v>
+        <v>48.5</v>
       </c>
       <c r="E61" t="n">
-        <v>48</v>
+        <v>48.2</v>
       </c>
       <c r="F61" t="n">
-        <v>2086.5073</v>
+        <v>31719.9763</v>
       </c>
       <c r="G61" t="n">
-        <v>48.13999999999992</v>
+        <v>49.12333333333329</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="C62" t="n">
         <v>48</v>
       </c>
       <c r="D62" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="E62" t="n">
         <v>48</v>
       </c>
       <c r="F62" t="n">
-        <v>5400</v>
+        <v>2086.5073</v>
       </c>
       <c r="G62" t="n">
-        <v>48.15999999999992</v>
+        <v>49.11166666666663</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2571,19 +2571,19 @@
         <v>48.1</v>
       </c>
       <c r="C63" t="n">
-        <v>47.8</v>
+        <v>48</v>
       </c>
       <c r="D63" t="n">
         <v>48.1</v>
       </c>
       <c r="E63" t="n">
-        <v>47.8</v>
+        <v>48</v>
       </c>
       <c r="F63" t="n">
-        <v>11962</v>
+        <v>5400</v>
       </c>
       <c r="G63" t="n">
-        <v>48.07999999999991</v>
+        <v>49.09499999999996</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>47.9</v>
+        <v>48.1</v>
       </c>
       <c r="C64" t="n">
-        <v>47.9</v>
+        <v>47.8</v>
       </c>
       <c r="D64" t="n">
-        <v>47.9</v>
+        <v>48.1</v>
       </c>
       <c r="E64" t="n">
-        <v>47.9</v>
+        <v>47.8</v>
       </c>
       <c r="F64" t="n">
-        <v>10271.7388</v>
+        <v>11962</v>
       </c>
       <c r="G64" t="n">
-        <v>48.03999999999991</v>
+        <v>49.07833333333329</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>47.7</v>
+        <v>47.9</v>
       </c>
       <c r="C65" t="n">
-        <v>47.7</v>
+        <v>47.9</v>
       </c>
       <c r="D65" t="n">
-        <v>47.8</v>
+        <v>47.9</v>
       </c>
       <c r="E65" t="n">
-        <v>47.7</v>
+        <v>47.9</v>
       </c>
       <c r="F65" t="n">
-        <v>46389.7195</v>
+        <v>10271.7388</v>
       </c>
       <c r="G65" t="n">
-        <v>47.87999999999992</v>
+        <v>49.06999999999996</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2679,16 +2679,16 @@
         <v>47.7</v>
       </c>
       <c r="D66" t="n">
-        <v>47.7</v>
+        <v>47.8</v>
       </c>
       <c r="E66" t="n">
         <v>47.7</v>
       </c>
       <c r="F66" t="n">
-        <v>37748.0305</v>
+        <v>46389.7195</v>
       </c>
       <c r="G66" t="n">
-        <v>47.81999999999992</v>
+        <v>49.04833333333329</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,10 +2720,10 @@
         <v>47.7</v>
       </c>
       <c r="F67" t="n">
-        <v>36200</v>
+        <v>37748.0305</v>
       </c>
       <c r="G67" t="n">
-        <v>47.75999999999991</v>
+        <v>49.02666666666662</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>47.7</v>
       </c>
       <c r="F68" t="n">
-        <v>756.8533</v>
+        <v>36200</v>
       </c>
       <c r="G68" t="n">
-        <v>47.73999999999991</v>
+        <v>49.00166666666662</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>47.7</v>
       </c>
       <c r="F69" t="n">
-        <v>1100</v>
+        <v>756.8533</v>
       </c>
       <c r="G69" t="n">
-        <v>47.6999999999999</v>
+        <v>48.96999999999995</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>47.8</v>
+        <v>47.7</v>
       </c>
       <c r="C70" t="n">
-        <v>47.8</v>
+        <v>47.7</v>
       </c>
       <c r="D70" t="n">
-        <v>47.8</v>
+        <v>47.7</v>
       </c>
       <c r="E70" t="n">
-        <v>47.8</v>
+        <v>47.7</v>
       </c>
       <c r="F70" t="n">
-        <v>1295.8393</v>
+        <v>1100</v>
       </c>
       <c r="G70" t="n">
-        <v>47.7199999999999</v>
+        <v>48.93166666666662</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>47.7</v>
+        <v>47.8</v>
       </c>
       <c r="C71" t="n">
-        <v>47.7</v>
+        <v>47.8</v>
       </c>
       <c r="D71" t="n">
-        <v>47.7</v>
+        <v>47.8</v>
       </c>
       <c r="E71" t="n">
-        <v>47.7</v>
+        <v>47.8</v>
       </c>
       <c r="F71" t="n">
-        <v>908.577</v>
+        <v>1295.8393</v>
       </c>
       <c r="G71" t="n">
-        <v>47.7199999999999</v>
+        <v>48.89499999999995</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2895,10 @@
         <v>47.7</v>
       </c>
       <c r="F72" t="n">
-        <v>999.9999</v>
+        <v>908.577</v>
       </c>
       <c r="G72" t="n">
-        <v>47.7199999999999</v>
+        <v>48.85666666666661</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>47.8</v>
+        <v>47.7</v>
       </c>
       <c r="C73" t="n">
-        <v>47.8</v>
+        <v>47.7</v>
       </c>
       <c r="D73" t="n">
-        <v>47.8</v>
+        <v>47.7</v>
       </c>
       <c r="E73" t="n">
-        <v>47.8</v>
+        <v>47.7</v>
       </c>
       <c r="F73" t="n">
-        <v>122.0083682</v>
+        <v>999.9999</v>
       </c>
       <c r="G73" t="n">
-        <v>47.73999999999991</v>
+        <v>48.81999999999994</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>47.6</v>
+        <v>47.8</v>
       </c>
       <c r="C74" t="n">
-        <v>47.6</v>
+        <v>47.8</v>
       </c>
       <c r="D74" t="n">
-        <v>47.6</v>
+        <v>47.8</v>
       </c>
       <c r="E74" t="n">
-        <v>47.6</v>
+        <v>47.8</v>
       </c>
       <c r="F74" t="n">
-        <v>11349.9649</v>
+        <v>122.0083682</v>
       </c>
       <c r="G74" t="n">
-        <v>47.71999999999991</v>
+        <v>48.78499999999995</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>47.6</v>
       </c>
       <c r="F75" t="n">
-        <v>57344.5024</v>
+        <v>11349.9649</v>
       </c>
       <c r="G75" t="n">
-        <v>47.67999999999991</v>
+        <v>48.74666666666661</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>47.5</v>
+        <v>47.6</v>
       </c>
       <c r="C76" t="n">
-        <v>47.5</v>
+        <v>47.6</v>
       </c>
       <c r="D76" t="n">
-        <v>47.5</v>
+        <v>47.6</v>
       </c>
       <c r="E76" t="n">
-        <v>47.5</v>
+        <v>47.6</v>
       </c>
       <c r="F76" t="n">
-        <v>19462.4009</v>
+        <v>57344.5024</v>
       </c>
       <c r="G76" t="n">
-        <v>47.63999999999992</v>
+        <v>48.70666666666661</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="C77" t="n">
-        <v>47.2</v>
+        <v>47.5</v>
       </c>
       <c r="D77" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="E77" t="n">
-        <v>47.2</v>
+        <v>47.5</v>
       </c>
       <c r="F77" t="n">
-        <v>39975.7941</v>
+        <v>19462.4009</v>
       </c>
       <c r="G77" t="n">
-        <v>47.53999999999992</v>
+        <v>48.66499999999994</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>47.9</v>
+        <v>47.6</v>
       </c>
       <c r="C78" t="n">
-        <v>47.9</v>
+        <v>47.2</v>
       </c>
       <c r="D78" t="n">
-        <v>47.9</v>
+        <v>47.6</v>
       </c>
       <c r="E78" t="n">
-        <v>47.9</v>
+        <v>47.2</v>
       </c>
       <c r="F78" t="n">
-        <v>90.31310000000001</v>
+        <v>39975.7941</v>
       </c>
       <c r="G78" t="n">
-        <v>47.55999999999991</v>
+        <v>48.61499999999994</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>47.3</v>
+        <v>47.9</v>
       </c>
       <c r="C79" t="n">
-        <v>47.3</v>
+        <v>47.9</v>
       </c>
       <c r="D79" t="n">
-        <v>47.3</v>
+        <v>47.9</v>
       </c>
       <c r="E79" t="n">
-        <v>47.3</v>
+        <v>47.9</v>
       </c>
       <c r="F79" t="n">
-        <v>505.3666</v>
+        <v>90.31310000000001</v>
       </c>
       <c r="G79" t="n">
-        <v>47.49999999999991</v>
+        <v>48.57499999999994</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>47.8</v>
+        <v>47.3</v>
       </c>
       <c r="C80" t="n">
-        <v>47.8</v>
+        <v>47.3</v>
       </c>
       <c r="D80" t="n">
-        <v>47.8</v>
+        <v>47.3</v>
       </c>
       <c r="E80" t="n">
         <v>47.3</v>
       </c>
       <c r="F80" t="n">
-        <v>131.6522</v>
+        <v>505.3666</v>
       </c>
       <c r="G80" t="n">
-        <v>47.53999999999991</v>
+        <v>48.52499999999994</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,10 +3198,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>47.3</v>
+        <v>47.8</v>
       </c>
       <c r="C81" t="n">
-        <v>47.5</v>
+        <v>47.8</v>
       </c>
       <c r="D81" t="n">
         <v>47.8</v>
@@ -3210,10 +3210,10 @@
         <v>47.3</v>
       </c>
       <c r="F81" t="n">
-        <v>315.0418</v>
+        <v>131.6522</v>
       </c>
       <c r="G81" t="n">
-        <v>47.53999999999992</v>
+        <v>48.48333333333327</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>47.6</v>
+        <v>47.3</v>
       </c>
       <c r="C82" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="D82" t="n">
-        <v>47.6</v>
+        <v>47.8</v>
       </c>
       <c r="E82" t="n">
-        <v>47.6</v>
+        <v>47.3</v>
       </c>
       <c r="F82" t="n">
-        <v>1243.2343</v>
+        <v>315.0418</v>
       </c>
       <c r="G82" t="n">
-        <v>47.61999999999993</v>
+        <v>48.4366666666666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>47.5</v>
+        <v>47.6</v>
       </c>
       <c r="C83" t="n">
-        <v>47.5</v>
+        <v>47.6</v>
       </c>
       <c r="D83" t="n">
-        <v>47.5</v>
+        <v>47.6</v>
       </c>
       <c r="E83" t="n">
-        <v>47.5</v>
+        <v>47.6</v>
       </c>
       <c r="F83" t="n">
-        <v>10</v>
+        <v>1243.2343</v>
       </c>
       <c r="G83" t="n">
-        <v>47.53999999999992</v>
+        <v>48.37999999999993</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>47.4</v>
+        <v>47.5</v>
       </c>
       <c r="C84" t="n">
-        <v>47.3</v>
+        <v>47.5</v>
       </c>
       <c r="D84" t="n">
-        <v>47.4</v>
+        <v>47.5</v>
       </c>
       <c r="E84" t="n">
-        <v>47.2</v>
+        <v>47.5</v>
       </c>
       <c r="F84" t="n">
-        <v>12780.9956</v>
+        <v>10</v>
       </c>
       <c r="G84" t="n">
-        <v>47.53999999999992</v>
+        <v>48.31333333333327</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>47.8</v>
+        <v>47.4</v>
       </c>
       <c r="C85" t="n">
-        <v>47.8</v>
+        <v>47.3</v>
       </c>
       <c r="D85" t="n">
-        <v>47.8</v>
+        <v>47.4</v>
       </c>
       <c r="E85" t="n">
-        <v>47.8</v>
+        <v>47.2</v>
       </c>
       <c r="F85" t="n">
-        <v>19.2468</v>
+        <v>12780.9956</v>
       </c>
       <c r="G85" t="n">
-        <v>47.53999999999992</v>
+        <v>48.25999999999994</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>47.3</v>
+        <v>47.8</v>
       </c>
       <c r="C86" t="n">
-        <v>47.3</v>
+        <v>47.8</v>
       </c>
       <c r="D86" t="n">
-        <v>47.3</v>
+        <v>47.8</v>
       </c>
       <c r="E86" t="n">
-        <v>47.2</v>
+        <v>47.8</v>
       </c>
       <c r="F86" t="n">
-        <v>4036.5561</v>
+        <v>19.2468</v>
       </c>
       <c r="G86" t="n">
-        <v>47.49999999999992</v>
+        <v>48.24499999999994</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3417,13 +3417,13 @@
         <v>47.3</v>
       </c>
       <c r="E87" t="n">
-        <v>47.3</v>
+        <v>47.2</v>
       </c>
       <c r="F87" t="n">
-        <v>1815.2114</v>
+        <v>4036.5561</v>
       </c>
       <c r="G87" t="n">
-        <v>47.43999999999993</v>
+        <v>48.22499999999994</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>47.2</v>
+        <v>47.3</v>
       </c>
       <c r="C88" t="n">
-        <v>47.2</v>
+        <v>47.3</v>
       </c>
       <c r="D88" t="n">
-        <v>47.2</v>
+        <v>47.3</v>
       </c>
       <c r="E88" t="n">
-        <v>47.2</v>
+        <v>47.3</v>
       </c>
       <c r="F88" t="n">
-        <v>9251.083500000001</v>
+        <v>1815.2114</v>
       </c>
       <c r="G88" t="n">
-        <v>47.37999999999992</v>
+        <v>48.21833333333328</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         <v>47.2</v>
       </c>
       <c r="F89" t="n">
-        <v>6134.6071</v>
+        <v>9251.083500000001</v>
       </c>
       <c r="G89" t="n">
-        <v>47.35999999999992</v>
+        <v>48.19833333333328</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>47.2</v>
       </c>
       <c r="F90" t="n">
-        <v>25319.9286</v>
+        <v>6134.6071</v>
       </c>
       <c r="G90" t="n">
-        <v>47.23999999999992</v>
+        <v>48.17499999999995</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>47.2</v>
       </c>
       <c r="F91" t="n">
-        <v>20694.4531</v>
+        <v>25319.9286</v>
       </c>
       <c r="G91" t="n">
-        <v>47.21999999999991</v>
+        <v>48.14666666666661</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3595,10 @@
         <v>47.2</v>
       </c>
       <c r="F92" t="n">
-        <v>66.9533</v>
+        <v>20694.4531</v>
       </c>
       <c r="G92" t="n">
-        <v>47.19999999999991</v>
+        <v>48.12166666666661</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>47.2</v>
       </c>
       <c r="F93" t="n">
-        <v>91.75020000000001</v>
+        <v>66.9533</v>
       </c>
       <c r="G93" t="n">
-        <v>47.19999999999991</v>
+        <v>48.09666666666661</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3665,10 +3665,10 @@
         <v>47.2</v>
       </c>
       <c r="F94" t="n">
-        <v>516.7818</v>
+        <v>91.75020000000001</v>
       </c>
       <c r="G94" t="n">
-        <v>47.19999999999991</v>
+        <v>48.06833333333327</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3691,19 +3691,19 @@
         <v>47.2</v>
       </c>
       <c r="C95" t="n">
-        <v>47.3</v>
+        <v>47.2</v>
       </c>
       <c r="D95" t="n">
-        <v>47.3</v>
+        <v>47.2</v>
       </c>
       <c r="E95" t="n">
         <v>47.2</v>
       </c>
       <c r="F95" t="n">
-        <v>17563.5384</v>
+        <v>516.7818</v>
       </c>
       <c r="G95" t="n">
-        <v>47.21999999999991</v>
+        <v>48.03999999999994</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>47.4</v>
+        <v>47.2</v>
       </c>
       <c r="C96" t="n">
-        <v>47.4</v>
+        <v>47.3</v>
       </c>
       <c r="D96" t="n">
-        <v>47.4</v>
+        <v>47.3</v>
       </c>
       <c r="E96" t="n">
-        <v>47.4</v>
+        <v>47.2</v>
       </c>
       <c r="F96" t="n">
-        <v>2016.0294</v>
+        <v>17563.5384</v>
       </c>
       <c r="G96" t="n">
-        <v>47.25999999999991</v>
+        <v>48.01499999999994</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>47.6</v>
+        <v>47.4</v>
       </c>
       <c r="C97" t="n">
-        <v>47.6</v>
+        <v>47.4</v>
       </c>
       <c r="D97" t="n">
-        <v>47.6</v>
+        <v>47.4</v>
       </c>
       <c r="E97" t="n">
-        <v>47.6</v>
+        <v>47.4</v>
       </c>
       <c r="F97" t="n">
-        <v>10000</v>
+        <v>2016.0294</v>
       </c>
       <c r="G97" t="n">
-        <v>47.33999999999992</v>
+        <v>47.98999999999993</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>47.5</v>
+        <v>47.6</v>
       </c>
       <c r="C98" t="n">
-        <v>47.5</v>
+        <v>47.6</v>
       </c>
       <c r="D98" t="n">
-        <v>47.5</v>
+        <v>47.6</v>
       </c>
       <c r="E98" t="n">
-        <v>47.5</v>
+        <v>47.6</v>
       </c>
       <c r="F98" t="n">
-        <v>1385.224</v>
+        <v>10000</v>
       </c>
       <c r="G98" t="n">
-        <v>47.39999999999992</v>
+        <v>47.9666666666666</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="C99" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="D99" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="E99" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="F99" t="n">
-        <v>1017.3867</v>
+        <v>1385.224</v>
       </c>
       <c r="G99" t="n">
-        <v>47.47999999999993</v>
+        <v>47.9366666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>47.4</v>
+        <v>47.6</v>
       </c>
       <c r="C100" t="n">
-        <v>47.4</v>
+        <v>47.6</v>
       </c>
       <c r="D100" t="n">
-        <v>47.4</v>
+        <v>47.6</v>
       </c>
       <c r="E100" t="n">
-        <v>47.4</v>
+        <v>47.6</v>
       </c>
       <c r="F100" t="n">
-        <v>1026.1556</v>
+        <v>1017.3867</v>
       </c>
       <c r="G100" t="n">
-        <v>47.49999999999992</v>
+        <v>47.9016666666666</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>47.2</v>
+        <v>47.4</v>
       </c>
       <c r="C101" t="n">
-        <v>47.2</v>
+        <v>47.4</v>
       </c>
       <c r="D101" t="n">
-        <v>47.2</v>
+        <v>47.4</v>
       </c>
       <c r="E101" t="n">
-        <v>47.2</v>
+        <v>47.4</v>
       </c>
       <c r="F101" t="n">
-        <v>226.1798</v>
+        <v>1026.1556</v>
       </c>
       <c r="G101" t="n">
-        <v>47.45999999999992</v>
+        <v>47.87333333333326</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>47.4</v>
+        <v>47.2</v>
       </c>
       <c r="C102" t="n">
-        <v>47.4</v>
+        <v>47.2</v>
       </c>
       <c r="D102" t="n">
-        <v>47.4</v>
+        <v>47.2</v>
       </c>
       <c r="E102" t="n">
-        <v>47.4</v>
+        <v>47.2</v>
       </c>
       <c r="F102" t="n">
-        <v>10735.0849</v>
+        <v>226.1798</v>
       </c>
       <c r="G102" t="n">
-        <v>47.41999999999992</v>
+        <v>47.83999999999993</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>47.4</v>
       </c>
       <c r="F103" t="n">
-        <v>39444.6202</v>
+        <v>10735.0849</v>
       </c>
       <c r="G103" t="n">
-        <v>47.39999999999992</v>
+        <v>47.8116666666666</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>47.5</v>
+        <v>47.4</v>
       </c>
       <c r="C104" t="n">
-        <v>47.5</v>
+        <v>47.4</v>
       </c>
       <c r="D104" t="n">
-        <v>47.5</v>
+        <v>47.4</v>
       </c>
       <c r="E104" t="n">
-        <v>47.5</v>
+        <v>47.4</v>
       </c>
       <c r="F104" t="n">
-        <v>21052.63157894</v>
+        <v>39444.6202</v>
       </c>
       <c r="G104" t="n">
-        <v>47.37999999999992</v>
+        <v>47.78333333333327</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>47.3</v>
+        <v>47.5</v>
       </c>
       <c r="C105" t="n">
-        <v>47.3</v>
+        <v>47.5</v>
       </c>
       <c r="D105" t="n">
-        <v>47.3</v>
+        <v>47.5</v>
       </c>
       <c r="E105" t="n">
-        <v>47.3</v>
+        <v>47.5</v>
       </c>
       <c r="F105" t="n">
-        <v>349.9664</v>
+        <v>21052.63157894</v>
       </c>
       <c r="G105" t="n">
-        <v>47.35999999999991</v>
+        <v>47.75833333333328</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>47.2</v>
+        <v>47.3</v>
       </c>
       <c r="C106" t="n">
-        <v>47.2</v>
+        <v>47.3</v>
       </c>
       <c r="D106" t="n">
-        <v>47.2</v>
+        <v>47.3</v>
       </c>
       <c r="E106" t="n">
-        <v>47.2</v>
+        <v>47.3</v>
       </c>
       <c r="F106" t="n">
-        <v>4734.4498</v>
+        <v>349.9664</v>
       </c>
       <c r="G106" t="n">
-        <v>47.35999999999992</v>
+        <v>47.72833333333327</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4120,10 +4120,10 @@
         <v>47.2</v>
       </c>
       <c r="F107" t="n">
-        <v>681</v>
+        <v>4734.4498</v>
       </c>
       <c r="G107" t="n">
-        <v>47.31999999999992</v>
+        <v>47.69833333333327</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>47.3</v>
+        <v>47.2</v>
       </c>
       <c r="C108" t="n">
-        <v>47.3</v>
+        <v>47.2</v>
       </c>
       <c r="D108" t="n">
-        <v>47.3</v>
+        <v>47.2</v>
       </c>
       <c r="E108" t="n">
-        <v>47.3</v>
+        <v>47.2</v>
       </c>
       <c r="F108" t="n">
-        <v>6677.5249</v>
+        <v>681</v>
       </c>
       <c r="G108" t="n">
-        <v>47.29999999999991</v>
+        <v>47.66999999999994</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>47.5</v>
+        <v>47.3</v>
       </c>
       <c r="C109" t="n">
-        <v>47.5</v>
+        <v>47.3</v>
       </c>
       <c r="D109" t="n">
-        <v>47.5</v>
+        <v>47.3</v>
       </c>
       <c r="E109" t="n">
-        <v>47.5</v>
+        <v>47.3</v>
       </c>
       <c r="F109" t="n">
-        <v>520.7536</v>
+        <v>6677.5249</v>
       </c>
       <c r="G109" t="n">
-        <v>47.29999999999991</v>
+        <v>47.64333333333327</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="C110" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="D110" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="E110" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="F110" t="n">
-        <v>1341.8451</v>
+        <v>520.7536</v>
       </c>
       <c r="G110" t="n">
-        <v>47.35999999999991</v>
+        <v>47.6216666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>47.5</v>
+        <v>47.6</v>
       </c>
       <c r="C111" t="n">
-        <v>47.5</v>
+        <v>47.6</v>
       </c>
       <c r="D111" t="n">
-        <v>47.5</v>
+        <v>47.6</v>
       </c>
       <c r="E111" t="n">
-        <v>47.5</v>
+        <v>47.6</v>
       </c>
       <c r="F111" t="n">
-        <v>920.8267</v>
+        <v>1341.8451</v>
       </c>
       <c r="G111" t="n">
-        <v>47.41999999999992</v>
+        <v>47.6216666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>48.2</v>
+        <v>47.5</v>
       </c>
       <c r="C112" t="n">
-        <v>48.4</v>
+        <v>47.5</v>
       </c>
       <c r="D112" t="n">
-        <v>48.4</v>
+        <v>47.5</v>
       </c>
       <c r="E112" t="n">
-        <v>48.2</v>
+        <v>47.5</v>
       </c>
       <c r="F112" t="n">
-        <v>20667.99105888</v>
+        <v>920.8267</v>
       </c>
       <c r="G112" t="n">
-        <v>47.65999999999991</v>
+        <v>47.60833333333326</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>47.8</v>
+        <v>48.2</v>
       </c>
       <c r="C113" t="n">
-        <v>47.6</v>
+        <v>48.4</v>
       </c>
       <c r="D113" t="n">
-        <v>47.8</v>
+        <v>48.4</v>
       </c>
       <c r="E113" t="n">
-        <v>47.6</v>
+        <v>48.2</v>
       </c>
       <c r="F113" t="n">
-        <v>4200</v>
+        <v>20667.99105888</v>
       </c>
       <c r="G113" t="n">
-        <v>47.71999999999991</v>
+        <v>47.6066666666666</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4356,19 +4356,19 @@
         <v>47.8</v>
       </c>
       <c r="C114" t="n">
-        <v>47.8</v>
+        <v>47.6</v>
       </c>
       <c r="D114" t="n">
         <v>47.8</v>
       </c>
       <c r="E114" t="n">
-        <v>47.8</v>
+        <v>47.6</v>
       </c>
       <c r="F114" t="n">
-        <v>1540.88</v>
+        <v>4200</v>
       </c>
       <c r="G114" t="n">
-        <v>47.77999999999992</v>
+        <v>47.59833333333327</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>48.1</v>
+        <v>47.8</v>
       </c>
       <c r="C115" t="n">
-        <v>48.1</v>
+        <v>47.8</v>
       </c>
       <c r="D115" t="n">
-        <v>48.1</v>
+        <v>47.8</v>
       </c>
       <c r="E115" t="n">
-        <v>48.1</v>
+        <v>47.8</v>
       </c>
       <c r="F115" t="n">
-        <v>2780</v>
+        <v>1540.88</v>
       </c>
       <c r="G115" t="n">
-        <v>47.87999999999992</v>
+        <v>47.58999999999993</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="C116" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="D116" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="E116" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="F116" t="n">
-        <v>16894.227</v>
+        <v>2780</v>
       </c>
       <c r="G116" t="n">
-        <v>47.97999999999993</v>
+        <v>47.58999999999993</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="C117" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="D117" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="E117" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="F117" t="n">
-        <v>5000</v>
+        <v>16894.227</v>
       </c>
       <c r="G117" t="n">
-        <v>47.91999999999993</v>
+        <v>47.58833333333327</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>47.8</v>
+        <v>48.1</v>
       </c>
       <c r="C118" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="D118" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="E118" t="n">
-        <v>47.8</v>
+        <v>48.1</v>
       </c>
       <c r="F118" t="n">
-        <v>8930.164000000001</v>
+        <v>5000</v>
       </c>
       <c r="G118" t="n">
-        <v>48.03999999999994</v>
+        <v>47.5916666666666</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>48</v>
+        <v>47.8</v>
       </c>
       <c r="C119" t="n">
-        <v>48</v>
+        <v>48.2</v>
       </c>
       <c r="D119" t="n">
-        <v>48</v>
+        <v>48.2</v>
       </c>
       <c r="E119" t="n">
-        <v>48</v>
+        <v>47.8</v>
       </c>
       <c r="F119" t="n">
-        <v>1100</v>
+        <v>8930.164000000001</v>
       </c>
       <c r="G119" t="n">
-        <v>48.07999999999994</v>
+        <v>47.5916666666666</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4575,10 +4575,10 @@
         <v>48</v>
       </c>
       <c r="F120" t="n">
-        <v>492.2962</v>
+        <v>1100</v>
       </c>
       <c r="G120" t="n">
-        <v>48.05999999999994</v>
+        <v>47.58999999999993</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="C121" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="D121" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="E121" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="F121" t="n">
-        <v>645.0766</v>
+        <v>492.2962</v>
       </c>
       <c r="G121" t="n">
-        <v>48.09999999999994</v>
+        <v>47.5816666666666</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,7 +4633,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="C122" t="n">
         <v>48.2</v>
@@ -4642,13 +4642,13 @@
         <v>48.2</v>
       </c>
       <c r="E122" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="F122" t="n">
-        <v>1962</v>
+        <v>645.0766</v>
       </c>
       <c r="G122" t="n">
-        <v>48.11999999999994</v>
+        <v>47.58499999999993</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>48.5</v>
+        <v>48.1</v>
       </c>
       <c r="C123" t="n">
-        <v>48.6</v>
+        <v>48.2</v>
       </c>
       <c r="D123" t="n">
-        <v>48.6</v>
+        <v>48.2</v>
       </c>
       <c r="E123" t="n">
-        <v>48.5</v>
+        <v>48.1</v>
       </c>
       <c r="F123" t="n">
-        <v>99683.0658</v>
+        <v>1962</v>
       </c>
       <c r="G123" t="n">
-        <v>48.19999999999995</v>
+        <v>47.58833333333326</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="C124" t="n">
         <v>48.6</v>
@@ -4712,13 +4712,13 @@
         <v>48.6</v>
       </c>
       <c r="E124" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="F124" t="n">
-        <v>16906.9999</v>
+        <v>99683.0658</v>
       </c>
       <c r="G124" t="n">
-        <v>48.31999999999995</v>
+        <v>47.60166666666659</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4741,19 +4741,19 @@
         <v>48.6</v>
       </c>
       <c r="C125" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="D125" t="n">
         <v>48.6</v>
       </c>
       <c r="E125" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="F125" t="n">
-        <v>15809.9352</v>
+        <v>16906.9999</v>
       </c>
       <c r="G125" t="n">
-        <v>48.41999999999994</v>
+        <v>47.61333333333325</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,28 +4773,28 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="C126" t="n">
         <v>48.5</v>
       </c>
       <c r="D126" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="E126" t="n">
         <v>48.5</v>
       </c>
       <c r="F126" t="n">
-        <v>10000</v>
+        <v>15809.9352</v>
       </c>
       <c r="G126" t="n">
-        <v>48.47999999999995</v>
+        <v>47.62666666666659</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -4820,16 +4820,16 @@
         <v>48.5</v>
       </c>
       <c r="F127" t="n">
-        <v>23421.1156</v>
+        <v>10000</v>
       </c>
       <c r="G127" t="n">
-        <v>48.53999999999995</v>
+        <v>47.63999999999992</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="C128" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="D128" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="E128" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="F128" t="n">
-        <v>771.9058</v>
+        <v>23421.1156</v>
       </c>
       <c r="G128" t="n">
-        <v>48.53999999999996</v>
+        <v>47.65333333333326</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>48.9</v>
+        <v>48.6</v>
       </c>
       <c r="C129" t="n">
-        <v>48.9</v>
+        <v>48.6</v>
       </c>
       <c r="D129" t="n">
-        <v>48.9</v>
+        <v>48.6</v>
       </c>
       <c r="E129" t="n">
-        <v>48.9</v>
+        <v>48.6</v>
       </c>
       <c r="F129" t="n">
-        <v>500</v>
+        <v>771.9058</v>
       </c>
       <c r="G129" t="n">
-        <v>48.59999999999996</v>
+        <v>47.66833333333327</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>49.2</v>
+        <v>48.9</v>
       </c>
       <c r="C130" t="n">
-        <v>49.2</v>
+        <v>48.9</v>
       </c>
       <c r="D130" t="n">
-        <v>49.2</v>
+        <v>48.9</v>
       </c>
       <c r="E130" t="n">
-        <v>49.2</v>
+        <v>48.9</v>
       </c>
       <c r="F130" t="n">
-        <v>16.9918</v>
+        <v>500</v>
       </c>
       <c r="G130" t="n">
-        <v>48.73999999999997</v>
+        <v>47.68833333333327</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>48.9</v>
+        <v>49.2</v>
       </c>
       <c r="C131" t="n">
-        <v>48.9</v>
+        <v>49.2</v>
       </c>
       <c r="D131" t="n">
-        <v>48.9</v>
+        <v>49.2</v>
       </c>
       <c r="E131" t="n">
-        <v>48.9</v>
+        <v>49.2</v>
       </c>
       <c r="F131" t="n">
-        <v>32.3108</v>
+        <v>16.9918</v>
       </c>
       <c r="G131" t="n">
-        <v>48.81999999999996</v>
+        <v>47.71166666666659</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>48.5</v>
+        <v>48.9</v>
       </c>
       <c r="C132" t="n">
-        <v>48.5</v>
+        <v>48.9</v>
       </c>
       <c r="D132" t="n">
-        <v>48.5</v>
+        <v>48.9</v>
       </c>
       <c r="E132" t="n">
-        <v>48.5</v>
+        <v>48.9</v>
       </c>
       <c r="F132" t="n">
-        <v>763.8634</v>
+        <v>32.3108</v>
       </c>
       <c r="G132" t="n">
-        <v>48.81999999999996</v>
+        <v>47.7316666666666</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5030,10 +5030,10 @@
         <v>48.5</v>
       </c>
       <c r="F133" t="n">
-        <v>50260.6807</v>
+        <v>763.8634</v>
       </c>
       <c r="G133" t="n">
-        <v>48.79999999999996</v>
+        <v>47.74499999999993</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>48.2</v>
+        <v>48.5</v>
       </c>
       <c r="C134" t="n">
-        <v>48.2</v>
+        <v>48.5</v>
       </c>
       <c r="D134" t="n">
-        <v>48.2</v>
+        <v>48.5</v>
       </c>
       <c r="E134" t="n">
-        <v>48.2</v>
+        <v>48.5</v>
       </c>
       <c r="F134" t="n">
-        <v>4093.7581</v>
+        <v>50260.6807</v>
       </c>
       <c r="G134" t="n">
-        <v>48.65999999999996</v>
+        <v>47.7566666666666</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>48.4</v>
+        <v>48.2</v>
       </c>
       <c r="C135" t="n">
-        <v>48.4</v>
+        <v>48.2</v>
       </c>
       <c r="D135" t="n">
-        <v>48.4</v>
+        <v>48.2</v>
       </c>
       <c r="E135" t="n">
-        <v>48.4</v>
+        <v>48.2</v>
       </c>
       <c r="F135" t="n">
-        <v>380</v>
+        <v>4093.7581</v>
       </c>
       <c r="G135" t="n">
-        <v>48.49999999999996</v>
+        <v>47.7666666666666</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="C136" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="D136" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="E136" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="F136" t="n">
-        <v>1625.1453</v>
+        <v>380</v>
       </c>
       <c r="G136" t="n">
-        <v>48.37999999999997</v>
+        <v>47.77999999999994</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="C137" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="D137" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="E137" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="F137" t="n">
-        <v>1328.3882</v>
+        <v>1625.1453</v>
       </c>
       <c r="G137" t="n">
-        <v>48.31999999999997</v>
+        <v>47.79333333333327</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5205,10 +5205,10 @@
         <v>48.2</v>
       </c>
       <c r="F138" t="n">
-        <v>1070</v>
+        <v>1328.3882</v>
       </c>
       <c r="G138" t="n">
-        <v>48.25999999999997</v>
+        <v>47.80999999999994</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="C139" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="D139" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="E139" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="F139" t="n">
-        <v>4328</v>
+        <v>1070</v>
       </c>
       <c r="G139" t="n">
-        <v>48.23999999999997</v>
+        <v>47.81499999999993</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5275,10 +5275,10 @@
         <v>48.1</v>
       </c>
       <c r="F140" t="n">
-        <v>10500</v>
+        <v>4328</v>
       </c>
       <c r="G140" t="n">
-        <v>48.17999999999998</v>
+        <v>47.82833333333326</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5310,10 +5310,10 @@
         <v>48.1</v>
       </c>
       <c r="F141" t="n">
-        <v>50</v>
+        <v>10500</v>
       </c>
       <c r="G141" t="n">
-        <v>48.13999999999997</v>
+        <v>47.83333333333326</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5345,10 +5345,10 @@
         <v>48.1</v>
       </c>
       <c r="F142" t="n">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="G142" t="n">
-        <v>48.11999999999998</v>
+        <v>47.84333333333326</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5380,10 +5380,10 @@
         <v>48.1</v>
       </c>
       <c r="F143" t="n">
-        <v>2504.0623</v>
+        <v>5000</v>
       </c>
       <c r="G143" t="n">
-        <v>48.09999999999999</v>
+        <v>47.85166666666659</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="C144" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="D144" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="E144" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="F144" t="n">
-        <v>1029.9074</v>
+        <v>2504.0623</v>
       </c>
       <c r="G144" t="n">
-        <v>48.11999999999999</v>
+        <v>47.86166666666659</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5441,19 +5441,19 @@
         <v>48.2</v>
       </c>
       <c r="C145" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="D145" t="n">
         <v>48.2</v>
       </c>
       <c r="E145" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="F145" t="n">
-        <v>376.6115</v>
+        <v>1029.9074</v>
       </c>
       <c r="G145" t="n">
-        <v>48.11999999999999</v>
+        <v>47.87666666666658</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5473,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>48</v>
+        <v>48.2</v>
       </c>
       <c r="C146" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="D146" t="n">
-        <v>48</v>
+        <v>48.2</v>
       </c>
       <c r="E146" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="F146" t="n">
-        <v>500</v>
+        <v>376.6115</v>
       </c>
       <c r="G146" t="n">
-        <v>48.09999999999998</v>
+        <v>47.88166666666658</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="C147" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="D147" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="E147" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="F147" t="n">
-        <v>6076</v>
+        <v>500</v>
       </c>
       <c r="G147" t="n">
-        <v>48.09999999999998</v>
+        <v>47.89333333333324</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,22 +5543,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="C148" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="D148" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="E148" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="F148" t="n">
-        <v>3360</v>
+        <v>6076</v>
       </c>
       <c r="G148" t="n">
-        <v>48.11999999999999</v>
+        <v>47.90666666666657</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5581,19 +5581,19 @@
         <v>48.2</v>
       </c>
       <c r="C149" t="n">
-        <v>48</v>
+        <v>48.2</v>
       </c>
       <c r="D149" t="n">
         <v>48.2</v>
       </c>
       <c r="E149" t="n">
-        <v>48</v>
+        <v>48.2</v>
       </c>
       <c r="F149" t="n">
-        <v>21000</v>
+        <v>3360</v>
       </c>
       <c r="G149" t="n">
-        <v>48.07999999999998</v>
+        <v>47.92333333333324</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="C150" t="n">
         <v>48</v>
       </c>
       <c r="D150" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="E150" t="n">
         <v>48</v>
       </c>
       <c r="F150" t="n">
-        <v>5724.6849</v>
+        <v>21000</v>
       </c>
       <c r="G150" t="n">
-        <v>48.05999999999999</v>
+        <v>47.93666666666658</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>47.8</v>
+        <v>48.1</v>
       </c>
       <c r="C151" t="n">
-        <v>47.8</v>
+        <v>48</v>
       </c>
       <c r="D151" t="n">
-        <v>47.8</v>
+        <v>48.1</v>
       </c>
       <c r="E151" t="n">
-        <v>47.8</v>
+        <v>48</v>
       </c>
       <c r="F151" t="n">
-        <v>1403.5761</v>
+        <v>5724.6849</v>
       </c>
       <c r="G151" t="n">
-        <v>48.01999999999998</v>
+        <v>47.94999999999991</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>48</v>
+        <v>47.8</v>
       </c>
       <c r="C152" t="n">
-        <v>48.2</v>
+        <v>47.8</v>
       </c>
       <c r="D152" t="n">
-        <v>48.2</v>
+        <v>47.8</v>
       </c>
       <c r="E152" t="n">
-        <v>48</v>
+        <v>47.8</v>
       </c>
       <c r="F152" t="n">
-        <v>1490</v>
+        <v>1403.5761</v>
       </c>
       <c r="G152" t="n">
-        <v>48.03999999999998</v>
+        <v>47.95999999999992</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="C153" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="D153" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="E153" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="F153" t="n">
-        <v>1419.2829</v>
+        <v>1490</v>
       </c>
       <c r="G153" t="n">
-        <v>48.01999999999998</v>
+        <v>47.97666666666658</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>47.9</v>
+        <v>48.1</v>
       </c>
       <c r="C154" t="n">
-        <v>47.9</v>
+        <v>48.1</v>
       </c>
       <c r="D154" t="n">
-        <v>47.9</v>
+        <v>48.1</v>
       </c>
       <c r="E154" t="n">
-        <v>47.9</v>
+        <v>48.1</v>
       </c>
       <c r="F154" t="n">
-        <v>9210.9558</v>
+        <v>1419.2829</v>
       </c>
       <c r="G154" t="n">
-        <v>47.99999999999998</v>
+        <v>47.99166666666658</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5800,10 +5800,10 @@
         <v>47.9</v>
       </c>
       <c r="F155" t="n">
-        <v>3070.3185</v>
+        <v>9210.9558</v>
       </c>
       <c r="G155" t="n">
-        <v>47.97999999999998</v>
+        <v>48.00333333333325</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5835,10 +5835,10 @@
         <v>47.9</v>
       </c>
       <c r="F156" t="n">
-        <v>5000</v>
+        <v>3070.3185</v>
       </c>
       <c r="G156" t="n">
-        <v>47.99999999999996</v>
+        <v>48.01333333333325</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5870,10 +5870,10 @@
         <v>47.9</v>
       </c>
       <c r="F157" t="n">
-        <v>4796.4292</v>
+        <v>5000</v>
       </c>
       <c r="G157" t="n">
-        <v>47.93999999999996</v>
+        <v>48.02166666666658</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +5893,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>47.7</v>
+        <v>47.9</v>
       </c>
       <c r="C158" t="n">
-        <v>47.7</v>
+        <v>47.9</v>
       </c>
       <c r="D158" t="n">
-        <v>47.7</v>
+        <v>47.9</v>
       </c>
       <c r="E158" t="n">
-        <v>47.7</v>
+        <v>47.9</v>
       </c>
       <c r="F158" t="n">
-        <v>784</v>
+        <v>4796.4292</v>
       </c>
       <c r="G158" t="n">
-        <v>47.85999999999996</v>
+        <v>48.02666666666659</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5940,10 +5940,10 @@
         <v>47.7</v>
       </c>
       <c r="F159" t="n">
-        <v>12467</v>
+        <v>784</v>
       </c>
       <c r="G159" t="n">
-        <v>47.81999999999996</v>
+        <v>48.02999999999992</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>47.5</v>
+        <v>47.7</v>
       </c>
       <c r="C160" t="n">
-        <v>47.5</v>
+        <v>47.7</v>
       </c>
       <c r="D160" t="n">
-        <v>47.5</v>
+        <v>47.7</v>
       </c>
       <c r="E160" t="n">
-        <v>47.5</v>
+        <v>47.7</v>
       </c>
       <c r="F160" t="n">
-        <v>1263</v>
+        <v>12467</v>
       </c>
       <c r="G160" t="n">
-        <v>47.73999999999996</v>
+        <v>48.03166666666659</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +5998,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>47.4</v>
+        <v>47.5</v>
       </c>
       <c r="C161" t="n">
-        <v>47.4</v>
+        <v>47.5</v>
       </c>
       <c r="D161" t="n">
-        <v>47.4</v>
+        <v>47.5</v>
       </c>
       <c r="E161" t="n">
-        <v>47.4</v>
+        <v>47.5</v>
       </c>
       <c r="F161" t="n">
-        <v>2666.2967</v>
+        <v>1263</v>
       </c>
       <c r="G161" t="n">
-        <v>47.63999999999996</v>
+        <v>48.03333333333325</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6045,10 +6045,10 @@
         <v>47.4</v>
       </c>
       <c r="F162" t="n">
-        <v>12967.0761</v>
+        <v>2666.2967</v>
       </c>
       <c r="G162" t="n">
-        <v>47.53999999999996</v>
+        <v>48.03666666666659</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>47.2</v>
+        <v>47.4</v>
       </c>
       <c r="C163" t="n">
-        <v>47.2</v>
+        <v>47.4</v>
       </c>
       <c r="D163" t="n">
-        <v>47.2</v>
+        <v>47.4</v>
       </c>
       <c r="E163" t="n">
-        <v>47.2</v>
+        <v>47.4</v>
       </c>
       <c r="F163" t="n">
-        <v>20269.5868</v>
+        <v>12967.0761</v>
       </c>
       <c r="G163" t="n">
-        <v>47.43999999999996</v>
+        <v>48.03666666666659</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6103,22 +6103,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>47.1</v>
+        <v>47.2</v>
       </c>
       <c r="C164" t="n">
-        <v>47.1</v>
+        <v>47.2</v>
       </c>
       <c r="D164" t="n">
-        <v>47.1</v>
+        <v>47.2</v>
       </c>
       <c r="E164" t="n">
-        <v>47.1</v>
+        <v>47.2</v>
       </c>
       <c r="F164" t="n">
-        <v>960.5830999999999</v>
+        <v>20269.5868</v>
       </c>
       <c r="G164" t="n">
-        <v>47.31999999999997</v>
+        <v>48.03333333333325</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,22 +6138,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="C165" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="D165" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="E165" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="F165" t="n">
         <v>960.5830999999999</v>
       </c>
       <c r="G165" t="n">
-        <v>47.25999999999997</v>
+        <v>48.02666666666658</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,22 +6173,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>47.1</v>
+        <v>47.2</v>
       </c>
       <c r="C166" t="n">
-        <v>47.1</v>
+        <v>47.2</v>
       </c>
       <c r="D166" t="n">
-        <v>47.1</v>
+        <v>47.2</v>
       </c>
       <c r="E166" t="n">
-        <v>47.1</v>
+        <v>47.2</v>
       </c>
       <c r="F166" t="n">
-        <v>994.3115</v>
+        <v>960.5830999999999</v>
       </c>
       <c r="G166" t="n">
-        <v>47.19999999999997</v>
+        <v>48.02499999999991</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6208,22 +6208,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>47</v>
+        <v>47.1</v>
       </c>
       <c r="C167" t="n">
-        <v>46.9</v>
+        <v>47.1</v>
       </c>
       <c r="D167" t="n">
-        <v>47</v>
+        <v>47.1</v>
       </c>
       <c r="E167" t="n">
-        <v>46.9</v>
+        <v>47.1</v>
       </c>
       <c r="F167" t="n">
-        <v>15876.7103</v>
+        <v>994.3115</v>
       </c>
       <c r="G167" t="n">
-        <v>47.09999999999997</v>
+        <v>48.02333333333324</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6246,19 +6246,19 @@
         <v>47</v>
       </c>
       <c r="C168" t="n">
-        <v>47</v>
+        <v>46.9</v>
       </c>
       <c r="D168" t="n">
         <v>47</v>
       </c>
       <c r="E168" t="n">
-        <v>47</v>
+        <v>46.9</v>
       </c>
       <c r="F168" t="n">
-        <v>10790</v>
+        <v>15876.7103</v>
       </c>
       <c r="G168" t="n">
-        <v>47.05999999999998</v>
+        <v>48.01833333333325</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,22 +6278,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>46.8</v>
+        <v>47</v>
       </c>
       <c r="C169" t="n">
-        <v>46.9</v>
+        <v>47</v>
       </c>
       <c r="D169" t="n">
-        <v>46.9</v>
+        <v>47</v>
       </c>
       <c r="E169" t="n">
-        <v>46.8</v>
+        <v>47</v>
       </c>
       <c r="F169" t="n">
-        <v>2221.1832</v>
+        <v>10790</v>
       </c>
       <c r="G169" t="n">
-        <v>47.01999999999997</v>
+        <v>48.01333333333324</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,22 +6313,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>46.7</v>
+        <v>46.8</v>
       </c>
       <c r="C170" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="D170" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="E170" t="n">
         <v>46.8</v>
       </c>
-      <c r="D170" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="E170" t="n">
-        <v>46.7</v>
-      </c>
       <c r="F170" t="n">
-        <v>10067.008</v>
+        <v>2221.1832</v>
       </c>
       <c r="G170" t="n">
-        <v>46.93999999999998</v>
+        <v>48.00333333333325</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,35 +6348,31 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>46.5</v>
+        <v>46.7</v>
       </c>
       <c r="C171" t="n">
-        <v>46.5</v>
+        <v>46.8</v>
       </c>
       <c r="D171" t="n">
-        <v>46.5</v>
+        <v>46.8</v>
       </c>
       <c r="E171" t="n">
-        <v>46.5</v>
+        <v>46.7</v>
       </c>
       <c r="F171" t="n">
-        <v>1679.8937</v>
+        <v>10067.008</v>
       </c>
       <c r="G171" t="n">
-        <v>46.81999999999998</v>
+        <v>47.98999999999992</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="K171" t="n">
-        <v>46.8</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
@@ -6390,80 +6386,70 @@
         <v>46.5</v>
       </c>
       <c r="C172" t="n">
-        <v>46.3</v>
+        <v>46.5</v>
       </c>
       <c r="D172" t="n">
         <v>46.5</v>
       </c>
       <c r="E172" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1679.8937</v>
+      </c>
+      <c r="G172" t="n">
+        <v>47.97333333333325</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="C173" t="n">
         <v>46.3</v>
       </c>
-      <c r="F172" t="n">
+      <c r="D173" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="E173" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="F173" t="n">
         <v>30898.2933</v>
       </c>
-      <c r="G172" t="n">
-        <v>46.69999999999997</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="n">
+      <c r="G173" t="n">
+        <v>47.93833333333325</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
         <v>46.5</v>
       </c>
-      <c r="K172" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="L172" t="inlineStr">
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="C173" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="D173" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="E173" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="F173" t="n">
-        <v>12065.1327</v>
-      </c>
-      <c r="G173" t="n">
-        <v>46.55999999999997</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="K173" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6473,22 +6459,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>46.3</v>
+        <v>46.5</v>
       </c>
       <c r="C174" t="n">
         <v>46.3</v>
       </c>
       <c r="D174" t="n">
-        <v>46.3</v>
+        <v>46.6</v>
       </c>
       <c r="E174" t="n">
         <v>46.3</v>
       </c>
       <c r="F174" t="n">
-        <v>10386</v>
+        <v>12065.1327</v>
       </c>
       <c r="G174" t="n">
-        <v>46.43999999999997</v>
+        <v>47.91666666666659</v>
       </c>
       <c r="H174" t="n">
         <v>1</v>
@@ -6499,9 +6485,7 @@
       <c r="J174" t="n">
         <v>46.3</v>
       </c>
-      <c r="K174" t="n">
-        <v>46.8</v>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6528,10 +6512,10 @@
         <v>46.3</v>
       </c>
       <c r="F175" t="n">
-        <v>11426.2871</v>
+        <v>10386</v>
       </c>
       <c r="G175" t="n">
-        <v>46.33999999999996</v>
+        <v>47.89166666666659</v>
       </c>
       <c r="H175" t="n">
         <v>1</v>
@@ -6542,9 +6526,7 @@
       <c r="J175" t="n">
         <v>46.3</v>
       </c>
-      <c r="K175" t="n">
-        <v>46.8</v>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6554,6 +6536,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="C176" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="D176" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E176" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="F176" t="n">
+        <v>11426.2871</v>
+      </c>
+      <c r="G176" t="n">
+        <v>47.86166666666659</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-26 BackTest XEM.xlsx
+++ b/BackTest/2019-10-26 BackTest XEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M176"/>
+  <dimension ref="A1:N186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>2994.1364</v>
       </c>
       <c r="G2" t="n">
+        <v>48.72666666666668</v>
+      </c>
+      <c r="H2" t="n">
         <v>47.89499999999995</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>7180</v>
       </c>
       <c r="G3" t="n">
+        <v>48.82000000000001</v>
+      </c>
+      <c r="H3" t="n">
         <v>47.90499999999994</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>1364.0253</v>
       </c>
       <c r="G4" t="n">
+        <v>48.88000000000001</v>
+      </c>
+      <c r="H4" t="n">
         <v>47.93333333333328</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1060.2796</v>
       </c>
       <c r="G5" t="n">
+        <v>48.91333333333334</v>
+      </c>
+      <c r="H5" t="n">
         <v>47.95666666666661</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>14693.8149</v>
       </c>
       <c r="G6" t="n">
+        <v>48.96666666666668</v>
+      </c>
+      <c r="H6" t="n">
         <v>47.99833333333329</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>36121.9589</v>
       </c>
       <c r="G7" t="n">
+        <v>49.01333333333334</v>
+      </c>
+      <c r="H7" t="n">
         <v>48.03333333333328</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>1272.258</v>
       </c>
       <c r="G8" t="n">
+        <v>49.06000000000002</v>
+      </c>
+      <c r="H8" t="n">
         <v>48.06666666666661</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>90</v>
       </c>
       <c r="G9" t="n">
+        <v>49.12000000000001</v>
+      </c>
+      <c r="H9" t="n">
         <v>48.10499999999994</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>19210.0539</v>
       </c>
       <c r="G10" t="n">
+        <v>49.18000000000001</v>
+      </c>
+      <c r="H10" t="n">
         <v>48.14666666666661</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>8000</v>
       </c>
       <c r="G11" t="n">
+        <v>49.20666666666668</v>
+      </c>
+      <c r="H11" t="n">
         <v>48.18999999999994</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>1100.1093</v>
       </c>
       <c r="G12" t="n">
+        <v>49.23333333333334</v>
+      </c>
+      <c r="H12" t="n">
         <v>48.23333333333327</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>4008.016</v>
       </c>
       <c r="G13" t="n">
+        <v>49.25333333333334</v>
+      </c>
+      <c r="H13" t="n">
         <v>48.27333333333328</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>858.123</v>
       </c>
       <c r="G14" t="n">
+        <v>49.35333333333334</v>
+      </c>
+      <c r="H14" t="n">
         <v>48.31333333333328</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>2496.1088</v>
       </c>
       <c r="G15" t="n">
+        <v>49.41333333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>48.35499999999994</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>1034.56</v>
       </c>
       <c r="G16" t="n">
+        <v>49.42666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>48.39499999999995</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>4285</v>
       </c>
       <c r="G17" t="n">
+        <v>49.51333333333334</v>
+      </c>
+      <c r="H17" t="n">
         <v>48.43666666666661</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>5694</v>
       </c>
       <c r="G18" t="n">
+        <v>49.59333333333334</v>
+      </c>
+      <c r="H18" t="n">
         <v>48.48166666666661</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>97242.49950000001</v>
       </c>
       <c r="G19" t="n">
+        <v>49.69333333333334</v>
+      </c>
+      <c r="H19" t="n">
         <v>48.52499999999995</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>17015.5943</v>
       </c>
       <c r="G20" t="n">
+        <v>49.82000000000001</v>
+      </c>
+      <c r="H20" t="n">
         <v>48.56833333333329</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>15080.5917</v>
       </c>
       <c r="G21" t="n">
+        <v>49.90666666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>48.61166666666663</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>66594.9999</v>
       </c>
       <c r="G22" t="n">
+        <v>49.99333333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>48.65499999999997</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>126839.917</v>
       </c>
       <c r="G23" t="n">
+        <v>50.11333333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>48.70833333333329</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>26699.6528</v>
       </c>
       <c r="G24" t="n">
+        <v>50.23999999999999</v>
+      </c>
+      <c r="H24" t="n">
         <v>48.7683333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>1100</v>
       </c>
       <c r="G25" t="n">
+        <v>50.27333333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>48.81166666666662</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>16509.7166</v>
       </c>
       <c r="G26" t="n">
+        <v>50.18666666666666</v>
+      </c>
+      <c r="H26" t="n">
         <v>48.82499999999995</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>2200</v>
       </c>
       <c r="G27" t="n">
+        <v>50.08666666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>48.83333333333329</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>3128.2002</v>
       </c>
       <c r="G28" t="n">
+        <v>49.94</v>
+      </c>
+      <c r="H28" t="n">
         <v>48.83666666666662</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>7238</v>
       </c>
       <c r="G29" t="n">
+        <v>49.84</v>
+      </c>
+      <c r="H29" t="n">
         <v>48.84999999999995</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>1056.2002</v>
       </c>
       <c r="G30" t="n">
+        <v>49.75333333333334</v>
+      </c>
+      <c r="H30" t="n">
         <v>48.86499999999996</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>361.5566</v>
       </c>
       <c r="G31" t="n">
+        <v>49.68</v>
+      </c>
+      <c r="H31" t="n">
         <v>48.88833333333329</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>2854</v>
       </c>
       <c r="G32" t="n">
+        <v>49.59333333333334</v>
+      </c>
+      <c r="H32" t="n">
         <v>48.90499999999996</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>6368</v>
       </c>
       <c r="G33" t="n">
+        <v>49.49333333333334</v>
+      </c>
+      <c r="H33" t="n">
         <v>48.92166666666662</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>4644.2894</v>
       </c>
       <c r="G34" t="n">
+        <v>49.40000000000001</v>
+      </c>
+      <c r="H34" t="n">
         <v>48.93999999999996</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>10517.852</v>
       </c>
       <c r="G35" t="n">
+        <v>49.30666666666668</v>
+      </c>
+      <c r="H35" t="n">
         <v>48.95833333333329</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>12271.7742</v>
       </c>
       <c r="G36" t="n">
+        <v>49.20666666666668</v>
+      </c>
+      <c r="H36" t="n">
         <v>48.97499999999995</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>2769.2943</v>
       </c>
       <c r="G37" t="n">
+        <v>49.11333333333334</v>
+      </c>
+      <c r="H37" t="n">
         <v>48.99333333333329</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>345.2531</v>
       </c>
       <c r="G38" t="n">
+        <v>48.98000000000001</v>
+      </c>
+      <c r="H38" t="n">
         <v>49.01333333333329</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>1904.9038</v>
       </c>
       <c r="G39" t="n">
+        <v>48.83333333333334</v>
+      </c>
+      <c r="H39" t="n">
         <v>49.03333333333329</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>20194.349</v>
       </c>
       <c r="G40" t="n">
+        <v>48.78000000000001</v>
+      </c>
+      <c r="H40" t="n">
         <v>49.05833333333329</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>32520.9998</v>
       </c>
       <c r="G41" t="n">
+        <v>48.80666666666668</v>
+      </c>
+      <c r="H41" t="n">
         <v>49.07833333333328</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>12071.2538</v>
       </c>
       <c r="G42" t="n">
+        <v>48.85333333333335</v>
+      </c>
+      <c r="H42" t="n">
         <v>49.10166666666661</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>28033.0349</v>
       </c>
       <c r="G43" t="n">
+        <v>48.94666666666668</v>
+      </c>
+      <c r="H43" t="n">
         <v>49.12666666666662</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>104491.8616</v>
       </c>
       <c r="G44" t="n">
+        <v>48.99333333333335</v>
+      </c>
+      <c r="H44" t="n">
         <v>49.15166666666661</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>1760.2398</v>
       </c>
       <c r="G45" t="n">
+        <v>49.02000000000001</v>
+      </c>
+      <c r="H45" t="n">
         <v>49.17499999999995</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>498.0589</v>
       </c>
       <c r="G46" t="n">
+        <v>49.03333333333335</v>
+      </c>
+      <c r="H46" t="n">
         <v>49.19833333333328</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>6302.49673008</v>
       </c>
       <c r="G47" t="n">
+        <v>49.05333333333335</v>
+      </c>
+      <c r="H47" t="n">
         <v>49.22166666666661</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>50050.3403</v>
       </c>
       <c r="G48" t="n">
+        <v>49.06666666666668</v>
+      </c>
+      <c r="H48" t="n">
         <v>49.24333333333329</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>12871.6689</v>
       </c>
       <c r="G49" t="n">
+        <v>49.06666666666668</v>
+      </c>
+      <c r="H49" t="n">
         <v>49.25999999999996</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>2000</v>
       </c>
       <c r="G50" t="n">
+        <v>49.06000000000001</v>
+      </c>
+      <c r="H50" t="n">
         <v>49.27499999999996</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>123152.9186</v>
       </c>
       <c r="G51" t="n">
+        <v>48.98000000000001</v>
+      </c>
+      <c r="H51" t="n">
         <v>49.26499999999996</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>2017</v>
       </c>
       <c r="G52" t="n">
+        <v>48.94000000000001</v>
+      </c>
+      <c r="H52" t="n">
         <v>49.26499999999996</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>6334.2474</v>
       </c>
       <c r="G53" t="n">
+        <v>48.90666666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>49.26499999999996</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>1981.5901</v>
       </c>
       <c r="G54" t="n">
+        <v>48.82666666666668</v>
+      </c>
+      <c r="H54" t="n">
         <v>49.25499999999996</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>1333.4346</v>
       </c>
       <c r="G55" t="n">
+        <v>48.73333333333334</v>
+      </c>
+      <c r="H55" t="n">
         <v>49.24166666666663</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>10395.0103</v>
       </c>
       <c r="G56" t="n">
+        <v>48.66666666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>49.21666666666663</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>824.999</v>
       </c>
       <c r="G57" t="n">
+        <v>48.59333333333334</v>
+      </c>
+      <c r="H57" t="n">
         <v>49.19166666666663</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>8121.104</v>
       </c>
       <c r="G58" t="n">
+        <v>48.51333333333334</v>
+      </c>
+      <c r="H58" t="n">
         <v>49.1633333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>21821.5838</v>
       </c>
       <c r="G59" t="n">
+        <v>48.45333333333334</v>
+      </c>
+      <c r="H59" t="n">
         <v>49.15999999999996</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>16075.0816</v>
       </c>
       <c r="G60" t="n">
+        <v>48.39333333333334</v>
+      </c>
+      <c r="H60" t="n">
         <v>49.14499999999996</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>31719.9763</v>
       </c>
       <c r="G61" t="n">
+        <v>48.35333333333334</v>
+      </c>
+      <c r="H61" t="n">
         <v>49.12333333333329</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>2086.5073</v>
       </c>
       <c r="G62" t="n">
+        <v>48.28666666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>49.11166666666663</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>5400</v>
       </c>
       <c r="G63" t="n">
+        <v>48.22666666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>49.09499999999996</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>11962</v>
       </c>
       <c r="G64" t="n">
+        <v>48.15333333333334</v>
+      </c>
+      <c r="H64" t="n">
         <v>49.07833333333329</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>10271.7388</v>
       </c>
       <c r="G65" t="n">
+        <v>48.09333333333334</v>
+      </c>
+      <c r="H65" t="n">
         <v>49.06999999999996</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>46389.7195</v>
       </c>
       <c r="G66" t="n">
+        <v>48.10000000000001</v>
+      </c>
+      <c r="H66" t="n">
         <v>49.04833333333329</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>37748.0305</v>
       </c>
       <c r="G67" t="n">
+        <v>48.06000000000002</v>
+      </c>
+      <c r="H67" t="n">
         <v>49.02666666666662</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>36200</v>
       </c>
       <c r="G68" t="n">
+        <v>48.00666666666668</v>
+      </c>
+      <c r="H68" t="n">
         <v>49.00166666666662</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>756.8533</v>
       </c>
       <c r="G69" t="n">
+        <v>47.98000000000002</v>
+      </c>
+      <c r="H69" t="n">
         <v>48.96999999999995</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>1100</v>
       </c>
       <c r="G70" t="n">
+        <v>47.94000000000003</v>
+      </c>
+      <c r="H70" t="n">
         <v>48.93166666666662</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>1295.8393</v>
       </c>
       <c r="G71" t="n">
+        <v>47.92000000000002</v>
+      </c>
+      <c r="H71" t="n">
         <v>48.89499999999995</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>908.577</v>
       </c>
       <c r="G72" t="n">
+        <v>47.89333333333335</v>
+      </c>
+      <c r="H72" t="n">
         <v>48.85666666666661</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>999.9999</v>
       </c>
       <c r="G73" t="n">
+        <v>47.88000000000002</v>
+      </c>
+      <c r="H73" t="n">
         <v>48.81999999999994</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>122.0083682</v>
       </c>
       <c r="G74" t="n">
+        <v>47.85333333333335</v>
+      </c>
+      <c r="H74" t="n">
         <v>48.78499999999995</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>11349.9649</v>
       </c>
       <c r="G75" t="n">
+        <v>47.82000000000002</v>
+      </c>
+      <c r="H75" t="n">
         <v>48.74666666666661</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>57344.5024</v>
       </c>
       <c r="G76" t="n">
+        <v>47.76000000000002</v>
+      </c>
+      <c r="H76" t="n">
         <v>48.70666666666661</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>19462.4009</v>
       </c>
       <c r="G77" t="n">
+        <v>47.72666666666669</v>
+      </c>
+      <c r="H77" t="n">
         <v>48.66499999999994</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>39975.7941</v>
       </c>
       <c r="G78" t="n">
+        <v>47.67333333333336</v>
+      </c>
+      <c r="H78" t="n">
         <v>48.61499999999994</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>90.31310000000001</v>
       </c>
       <c r="G79" t="n">
+        <v>47.68000000000003</v>
+      </c>
+      <c r="H79" t="n">
         <v>48.57499999999994</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>505.3666</v>
       </c>
       <c r="G80" t="n">
+        <v>47.64000000000002</v>
+      </c>
+      <c r="H80" t="n">
         <v>48.52499999999994</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>131.6522</v>
       </c>
       <c r="G81" t="n">
+        <v>47.64666666666668</v>
+      </c>
+      <c r="H81" t="n">
         <v>48.48333333333327</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>315.0418</v>
       </c>
       <c r="G82" t="n">
+        <v>47.63333333333335</v>
+      </c>
+      <c r="H82" t="n">
         <v>48.4366666666666</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>1243.2343</v>
       </c>
       <c r="G83" t="n">
+        <v>47.62666666666668</v>
+      </c>
+      <c r="H83" t="n">
         <v>48.37999999999993</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>10</v>
       </c>
       <c r="G84" t="n">
+        <v>47.61333333333334</v>
+      </c>
+      <c r="H84" t="n">
         <v>48.31333333333327</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>12780.9956</v>
       </c>
       <c r="G85" t="n">
+        <v>47.58666666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>48.25999999999994</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>19.2468</v>
       </c>
       <c r="G86" t="n">
+        <v>47.58666666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>48.24499999999994</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>4036.5561</v>
       </c>
       <c r="G87" t="n">
+        <v>47.56</v>
+      </c>
+      <c r="H87" t="n">
         <v>48.22499999999994</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>1815.2114</v>
       </c>
       <c r="G88" t="n">
+        <v>47.53333333333332</v>
+      </c>
+      <c r="H88" t="n">
         <v>48.21833333333328</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>9251.083500000001</v>
       </c>
       <c r="G89" t="n">
+        <v>47.49333333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>48.19833333333328</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>6134.6071</v>
       </c>
       <c r="G90" t="n">
+        <v>47.46666666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>48.17499999999995</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>25319.9286</v>
       </c>
       <c r="G91" t="n">
+        <v>47.44</v>
+      </c>
+      <c r="H91" t="n">
         <v>48.14666666666661</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>20694.4531</v>
       </c>
       <c r="G92" t="n">
+        <v>47.42</v>
+      </c>
+      <c r="H92" t="n">
         <v>48.12166666666661</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>66.9533</v>
       </c>
       <c r="G93" t="n">
+        <v>47.42</v>
+      </c>
+      <c r="H93" t="n">
         <v>48.09666666666661</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>91.75020000000001</v>
       </c>
       <c r="G94" t="n">
+        <v>47.37333333333334</v>
+      </c>
+      <c r="H94" t="n">
         <v>48.06833333333327</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>516.7818</v>
       </c>
       <c r="G95" t="n">
+        <v>47.36666666666668</v>
+      </c>
+      <c r="H95" t="n">
         <v>48.03999999999994</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>17563.5384</v>
       </c>
       <c r="G96" t="n">
+        <v>47.33333333333335</v>
+      </c>
+      <c r="H96" t="n">
         <v>48.01499999999994</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>2016.0294</v>
       </c>
       <c r="G97" t="n">
+        <v>47.32666666666668</v>
+      </c>
+      <c r="H97" t="n">
         <v>47.98999999999993</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>10000</v>
       </c>
       <c r="G98" t="n">
+        <v>47.32666666666668</v>
+      </c>
+      <c r="H98" t="n">
         <v>47.9666666666666</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>1385.224</v>
       </c>
       <c r="G99" t="n">
+        <v>47.32666666666668</v>
+      </c>
+      <c r="H99" t="n">
         <v>47.9366666666666</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>1017.3867</v>
       </c>
       <c r="G100" t="n">
+        <v>47.34666666666669</v>
+      </c>
+      <c r="H100" t="n">
         <v>47.9016666666666</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>1026.1556</v>
       </c>
       <c r="G101" t="n">
+        <v>47.32000000000002</v>
+      </c>
+      <c r="H101" t="n">
         <v>47.87333333333326</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>226.1798</v>
       </c>
       <c r="G102" t="n">
+        <v>47.31333333333336</v>
+      </c>
+      <c r="H102" t="n">
         <v>47.83999999999993</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>10735.0849</v>
       </c>
       <c r="G103" t="n">
+        <v>47.32000000000003</v>
+      </c>
+      <c r="H103" t="n">
         <v>47.8116666666666</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>39444.6202</v>
       </c>
       <c r="G104" t="n">
+        <v>47.33333333333336</v>
+      </c>
+      <c r="H104" t="n">
         <v>47.78333333333327</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>21052.63157894</v>
       </c>
       <c r="G105" t="n">
+        <v>47.35333333333335</v>
+      </c>
+      <c r="H105" t="n">
         <v>47.75833333333328</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>349.9664</v>
       </c>
       <c r="G106" t="n">
+        <v>47.36000000000001</v>
+      </c>
+      <c r="H106" t="n">
         <v>47.72833333333327</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>4734.4498</v>
       </c>
       <c r="G107" t="n">
+        <v>47.36000000000001</v>
+      </c>
+      <c r="H107" t="n">
         <v>47.69833333333327</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>681</v>
       </c>
       <c r="G108" t="n">
+        <v>47.36000000000001</v>
+      </c>
+      <c r="H108" t="n">
         <v>47.66999999999994</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>6677.5249</v>
       </c>
       <c r="G109" t="n">
+        <v>47.36666666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>47.64333333333327</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>520.7536</v>
       </c>
       <c r="G110" t="n">
+        <v>47.38666666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>47.6216666666666</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>1341.8451</v>
       </c>
       <c r="G111" t="n">
+        <v>47.40666666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>47.6216666666666</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>920.8267</v>
       </c>
       <c r="G112" t="n">
+        <v>47.41333333333334</v>
+      </c>
+      <c r="H112" t="n">
         <v>47.60833333333326</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>20667.99105888</v>
       </c>
       <c r="G113" t="n">
+        <v>47.46666666666668</v>
+      </c>
+      <c r="H113" t="n">
         <v>47.6066666666666</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>4200</v>
       </c>
       <c r="G114" t="n">
+        <v>47.47333333333334</v>
+      </c>
+      <c r="H114" t="n">
         <v>47.59833333333327</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>1540.88</v>
       </c>
       <c r="G115" t="n">
+        <v>47.48666666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>47.58999999999993</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>2780</v>
       </c>
       <c r="G116" t="n">
+        <v>47.53333333333334</v>
+      </c>
+      <c r="H116" t="n">
         <v>47.58999999999993</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>16894.227</v>
       </c>
       <c r="G117" t="n">
+        <v>47.58666666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>47.58833333333327</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>5000</v>
       </c>
       <c r="G118" t="n">
+        <v>47.63333333333334</v>
+      </c>
+      <c r="H118" t="n">
         <v>47.5916666666666</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>8930.164000000001</v>
       </c>
       <c r="G119" t="n">
+        <v>47.68666666666668</v>
+      </c>
+      <c r="H119" t="n">
         <v>47.5916666666666</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>1100</v>
       </c>
       <c r="G120" t="n">
+        <v>47.72000000000001</v>
+      </c>
+      <c r="H120" t="n">
         <v>47.58999999999993</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>492.2962</v>
       </c>
       <c r="G121" t="n">
+        <v>47.76666666666668</v>
+      </c>
+      <c r="H121" t="n">
         <v>47.5816666666666</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5013,21 @@
         <v>645.0766</v>
       </c>
       <c r="G122" t="n">
+        <v>47.83333333333335</v>
+      </c>
+      <c r="H122" t="n">
         <v>47.58499999999993</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5051,21 @@
         <v>1962</v>
       </c>
       <c r="G123" t="n">
+        <v>47.90000000000001</v>
+      </c>
+      <c r="H123" t="n">
         <v>47.58833333333326</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5089,21 @@
         <v>99683.0658</v>
       </c>
       <c r="G124" t="n">
+        <v>47.98666666666669</v>
+      </c>
+      <c r="H124" t="n">
         <v>47.60166666666659</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5127,21 @@
         <v>16906.9999</v>
       </c>
       <c r="G125" t="n">
+        <v>48.06000000000002</v>
+      </c>
+      <c r="H125" t="n">
         <v>47.61333333333325</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5165,21 @@
         <v>15809.9352</v>
       </c>
       <c r="G126" t="n">
+        <v>48.12000000000002</v>
+      </c>
+      <c r="H126" t="n">
         <v>47.62666666666659</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5203,21 @@
         <v>10000</v>
       </c>
       <c r="G127" t="n">
+        <v>48.18666666666669</v>
+      </c>
+      <c r="H127" t="n">
         <v>47.63999999999992</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5241,21 @@
         <v>23421.1156</v>
       </c>
       <c r="G128" t="n">
+        <v>48.19333333333336</v>
+      </c>
+      <c r="H128" t="n">
         <v>47.65333333333326</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5279,21 @@
         <v>771.9058</v>
       </c>
       <c r="G129" t="n">
+        <v>48.26000000000002</v>
+      </c>
+      <c r="H129" t="n">
         <v>47.66833333333327</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5317,21 @@
         <v>500</v>
       </c>
       <c r="G130" t="n">
+        <v>48.33333333333336</v>
+      </c>
+      <c r="H130" t="n">
         <v>47.68833333333327</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5355,21 @@
         <v>16.9918</v>
       </c>
       <c r="G131" t="n">
+        <v>48.40666666666669</v>
+      </c>
+      <c r="H131" t="n">
         <v>47.71166666666659</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5393,21 @@
         <v>32.3108</v>
       </c>
       <c r="G132" t="n">
+        <v>48.46666666666669</v>
+      </c>
+      <c r="H132" t="n">
         <v>47.7316666666666</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5431,21 @@
         <v>763.8634</v>
       </c>
       <c r="G133" t="n">
+        <v>48.49333333333335</v>
+      </c>
+      <c r="H133" t="n">
         <v>47.74499999999993</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5469,21 @@
         <v>50260.6807</v>
       </c>
       <c r="G134" t="n">
+        <v>48.51333333333335</v>
+      </c>
+      <c r="H134" t="n">
         <v>47.7566666666666</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5507,21 @@
         <v>4093.7581</v>
       </c>
       <c r="G135" t="n">
+        <v>48.52666666666669</v>
+      </c>
+      <c r="H135" t="n">
         <v>47.7666666666666</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5545,21 @@
         <v>380</v>
       </c>
       <c r="G136" t="n">
+        <v>48.55333333333336</v>
+      </c>
+      <c r="H136" t="n">
         <v>47.77999999999994</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5583,21 @@
         <v>1625.1453</v>
       </c>
       <c r="G137" t="n">
+        <v>48.56000000000002</v>
+      </c>
+      <c r="H137" t="n">
         <v>47.79333333333327</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5621,21 @@
         <v>1328.3882</v>
       </c>
       <c r="G138" t="n">
+        <v>48.56000000000002</v>
+      </c>
+      <c r="H138" t="n">
         <v>47.80999999999994</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5659,21 @@
         <v>1070</v>
       </c>
       <c r="G139" t="n">
+        <v>48.53333333333335</v>
+      </c>
+      <c r="H139" t="n">
         <v>47.81499999999993</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5697,21 @@
         <v>4328</v>
       </c>
       <c r="G140" t="n">
+        <v>48.50000000000001</v>
+      </c>
+      <c r="H140" t="n">
         <v>47.82833333333326</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5735,21 @@
         <v>10500</v>
       </c>
       <c r="G141" t="n">
+        <v>48.47333333333335</v>
+      </c>
+      <c r="H141" t="n">
         <v>47.83333333333326</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +5773,21 @@
         <v>50</v>
       </c>
       <c r="G142" t="n">
+        <v>48.44666666666669</v>
+      </c>
+      <c r="H142" t="n">
         <v>47.84333333333326</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +5811,21 @@
         <v>5000</v>
       </c>
       <c r="G143" t="n">
+        <v>48.42000000000002</v>
+      </c>
+      <c r="H143" t="n">
         <v>47.85166666666659</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +5849,21 @@
         <v>2504.0623</v>
       </c>
       <c r="G144" t="n">
+        <v>48.38666666666668</v>
+      </c>
+      <c r="H144" t="n">
         <v>47.86166666666659</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +5887,21 @@
         <v>1029.9074</v>
       </c>
       <c r="G145" t="n">
+        <v>48.34000000000002</v>
+      </c>
+      <c r="H145" t="n">
         <v>47.87666666666658</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +5925,21 @@
         <v>376.6115</v>
       </c>
       <c r="G146" t="n">
+        <v>48.26666666666669</v>
+      </c>
+      <c r="H146" t="n">
         <v>47.88166666666658</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +5963,21 @@
         <v>500</v>
       </c>
       <c r="G147" t="n">
+        <v>48.20666666666669</v>
+      </c>
+      <c r="H147" t="n">
         <v>47.89333333333324</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6001,21 @@
         <v>6076</v>
       </c>
       <c r="G148" t="n">
+        <v>48.18000000000003</v>
+      </c>
+      <c r="H148" t="n">
         <v>47.90666666666657</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6039,21 @@
         <v>3360</v>
       </c>
       <c r="G149" t="n">
+        <v>48.16000000000003</v>
+      </c>
+      <c r="H149" t="n">
         <v>47.92333333333324</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6077,21 @@
         <v>21000</v>
       </c>
       <c r="G150" t="n">
+        <v>48.14666666666669</v>
+      </c>
+      <c r="H150" t="n">
         <v>47.93666666666658</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6115,21 @@
         <v>5724.6849</v>
       </c>
       <c r="G151" t="n">
+        <v>48.12000000000003</v>
+      </c>
+      <c r="H151" t="n">
         <v>47.94999999999991</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6153,21 @@
         <v>1403.5761</v>
       </c>
       <c r="G152" t="n">
+        <v>48.08666666666669</v>
+      </c>
+      <c r="H152" t="n">
         <v>47.95999999999992</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6191,21 @@
         <v>1490</v>
       </c>
       <c r="G153" t="n">
+        <v>48.08666666666669</v>
+      </c>
+      <c r="H153" t="n">
         <v>47.97666666666658</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6229,21 @@
         <v>1419.2829</v>
       </c>
       <c r="G154" t="n">
+        <v>48.08000000000003</v>
+      </c>
+      <c r="H154" t="n">
         <v>47.99166666666658</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6267,21 @@
         <v>9210.9558</v>
       </c>
       <c r="G155" t="n">
+        <v>48.06666666666669</v>
+      </c>
+      <c r="H155" t="n">
         <v>48.00333333333325</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6305,21 @@
         <v>3070.3185</v>
       </c>
       <c r="G156" t="n">
+        <v>48.05333333333336</v>
+      </c>
+      <c r="H156" t="n">
         <v>48.01333333333325</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6343,21 @@
         <v>5000</v>
       </c>
       <c r="G157" t="n">
+        <v>48.04000000000001</v>
+      </c>
+      <c r="H157" t="n">
         <v>48.02166666666658</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6381,21 @@
         <v>4796.4292</v>
       </c>
       <c r="G158" t="n">
+        <v>48.02666666666668</v>
+      </c>
+      <c r="H158" t="n">
         <v>48.02666666666659</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6419,21 @@
         <v>784</v>
       </c>
       <c r="G159" t="n">
+        <v>48.00000000000001</v>
+      </c>
+      <c r="H159" t="n">
         <v>48.02999999999992</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6457,25 @@
         <v>12467</v>
       </c>
       <c r="G160" t="n">
+        <v>47.96666666666668</v>
+      </c>
+      <c r="H160" t="n">
         <v>48.03166666666659</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="L160" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6499,29 @@
         <v>1263</v>
       </c>
       <c r="G161" t="n">
+        <v>47.92666666666668</v>
+      </c>
+      <c r="H161" t="n">
         <v>48.03333333333325</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="L161" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6545,27 @@
         <v>2666.2967</v>
       </c>
       <c r="G162" t="n">
+        <v>47.88666666666668</v>
+      </c>
+      <c r="H162" t="n">
         <v>48.03666666666659</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="L162" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6589,25 @@
         <v>12967.0761</v>
       </c>
       <c r="G163" t="n">
+        <v>47.84000000000001</v>
+      </c>
+      <c r="H163" t="n">
         <v>48.03666666666659</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="L163" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +6631,27 @@
         <v>20269.5868</v>
       </c>
       <c r="G164" t="n">
+        <v>47.77333333333334</v>
+      </c>
+      <c r="H164" t="n">
         <v>48.03333333333325</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="L164" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +6675,29 @@
         <v>960.5830999999999</v>
       </c>
       <c r="G165" t="n">
+        <v>47.71333333333335</v>
+      </c>
+      <c r="H165" t="n">
         <v>48.02666666666658</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="L165" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +6721,25 @@
         <v>960.5830999999999</v>
       </c>
       <c r="G166" t="n">
+        <v>47.66000000000001</v>
+      </c>
+      <c r="H166" t="n">
         <v>48.02499999999991</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L166" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +6763,29 @@
         <v>994.3115</v>
       </c>
       <c r="G167" t="n">
+        <v>47.61333333333335</v>
+      </c>
+      <c r="H167" t="n">
         <v>48.02333333333324</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="L167" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +6809,29 @@
         <v>15876.7103</v>
       </c>
       <c r="G168" t="n">
+        <v>47.52666666666668</v>
+      </c>
+      <c r="H168" t="n">
         <v>48.01833333333325</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L168" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +6855,29 @@
         <v>10790</v>
       </c>
       <c r="G169" t="n">
+        <v>47.45333333333335</v>
+      </c>
+      <c r="H169" t="n">
         <v>48.01333333333324</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="L169" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +6901,27 @@
         <v>2221.1832</v>
       </c>
       <c r="G170" t="n">
+        <v>47.38666666666668</v>
+      </c>
+      <c r="H170" t="n">
         <v>48.00333333333325</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="L170" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +6945,27 @@
         <v>10067.008</v>
       </c>
       <c r="G171" t="n">
+        <v>47.31333333333335</v>
+      </c>
+      <c r="H171" t="n">
         <v>47.98999999999992</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="L171" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +6989,27 @@
         <v>1679.8937</v>
       </c>
       <c r="G172" t="n">
+        <v>47.22000000000001</v>
+      </c>
+      <c r="H172" t="n">
         <v>47.97333333333325</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="L172" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,24 +7033,29 @@
         <v>30898.2933</v>
       </c>
       <c r="G173" t="n">
+        <v>47.11333333333334</v>
+      </c>
+      <c r="H173" t="n">
         <v>47.93833333333325</v>
       </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
         <v>46.5</v>
       </c>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
+      <c r="L173" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="M173" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6474,24 +7079,27 @@
         <v>12065.1327</v>
       </c>
       <c r="G174" t="n">
+        <v>47.02</v>
+      </c>
+      <c r="H174" t="n">
         <v>47.91666666666659</v>
       </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>46.3</v>
+        <v>0</v>
       </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
+      <c r="L174" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="M174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6515,24 +7123,27 @@
         <v>10386</v>
       </c>
       <c r="G175" t="n">
+        <v>46.92666666666666</v>
+      </c>
+      <c r="H175" t="n">
         <v>47.89166666666659</v>
       </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>46.3</v>
+        <v>0</v>
       </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
+      <c r="L175" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="M175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6556,24 +7167,481 @@
         <v>11426.2871</v>
       </c>
       <c r="G176" t="n">
+        <v>46.84666666666666</v>
+      </c>
+      <c r="H176" t="n">
         <v>47.86166666666659</v>
       </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>46.3</v>
+        <v>0</v>
       </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
+      <c r="L176" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="M176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
+      <c r="N176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="C177" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="D177" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E177" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="F177" t="n">
+        <v>4714.1727</v>
+      </c>
+      <c r="G177" t="n">
+        <v>46.77333333333333</v>
+      </c>
+      <c r="H177" t="n">
+        <v>47.83333333333326</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="C178" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="D178" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E178" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1540.0495</v>
+      </c>
+      <c r="G178" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="H178" t="n">
+        <v>47.80333333333327</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="C179" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="D179" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E179" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G179" t="n">
+        <v>46.63999999999999</v>
+      </c>
+      <c r="H179" t="n">
+        <v>47.77166666666661</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="L179" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="C180" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="D180" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E180" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2300.6952</v>
+      </c>
+      <c r="G180" t="n">
+        <v>46.58666666666665</v>
+      </c>
+      <c r="H180" t="n">
+        <v>47.74333333333328</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="L180" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="C181" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="D181" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E181" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="F181" t="n">
+        <v>21.945</v>
+      </c>
+      <c r="G181" t="n">
+        <v>46.52666666666664</v>
+      </c>
+      <c r="H181" t="n">
+        <v>47.71499999999995</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="L181" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="C182" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="D182" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E182" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="F182" t="n">
+        <v>14417.77</v>
+      </c>
+      <c r="G182" t="n">
+        <v>46.47333333333331</v>
+      </c>
+      <c r="H182" t="n">
+        <v>47.68333333333329</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="L182" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="C183" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="D183" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E183" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="F183" t="n">
+        <v>32953.3725</v>
+      </c>
+      <c r="G183" t="n">
+        <v>46.41999999999997</v>
+      </c>
+      <c r="H183" t="n">
+        <v>47.64833333333329</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="L183" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="C184" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="D184" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="E184" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2128.8847</v>
+      </c>
+      <c r="G184" t="n">
+        <v>46.35999999999998</v>
+      </c>
+      <c r="H184" t="n">
+        <v>47.60666666666662</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="C185" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="D185" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="E185" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="F185" t="n">
+        <v>7308.7759</v>
+      </c>
+      <c r="G185" t="n">
+        <v>46.30666666666664</v>
+      </c>
+      <c r="H185" t="n">
+        <v>47.56499999999996</v>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="L185" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="C186" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="D186" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E186" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="F186" t="n">
+        <v>27</v>
+      </c>
+      <c r="G186" t="n">
+        <v>46.27333333333331</v>
+      </c>
+      <c r="H186" t="n">
+        <v>47.52833333333329</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="L186" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest XEM.xlsx
+++ b/BackTest/2019-10-26 BackTest XEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M215"/>
+  <dimension ref="A1:N173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>47.7</v>
+        <v>49.9</v>
       </c>
       <c r="C2" t="n">
-        <v>47.7</v>
+        <v>49.9</v>
       </c>
       <c r="D2" t="n">
-        <v>47.7</v>
+        <v>49.9</v>
       </c>
       <c r="E2" t="n">
-        <v>47.7</v>
+        <v>49.9</v>
       </c>
       <c r="F2" t="n">
-        <v>1110.9078</v>
+        <v>2496.1088</v>
       </c>
       <c r="G2" t="n">
-        <v>146929.06500725</v>
+        <v>49.93999999999996</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>47.8</v>
+        <v>50</v>
       </c>
       <c r="C3" t="n">
-        <v>47.8</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>47.8</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>47.8</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
-        <v>773.2688000000001</v>
+        <v>1034.56</v>
       </c>
       <c r="G3" t="n">
-        <v>147702.33380725</v>
+        <v>49.93999999999996</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47.8</v>
+        <v>50</v>
       </c>
       <c r="C4" t="n">
-        <v>47.8</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>47.8</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>47.8</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>382.3846</v>
+        <v>4285</v>
       </c>
       <c r="G4" t="n">
-        <v>147702.33380725</v>
+        <v>49.93999999999996</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>47.8</v>
+        <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>47.8</v>
+        <v>50.2</v>
       </c>
       <c r="D5" t="n">
-        <v>47.8</v>
+        <v>50.2</v>
       </c>
       <c r="E5" t="n">
-        <v>47.8</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>471.477</v>
+        <v>5694</v>
       </c>
       <c r="G5" t="n">
-        <v>147702.33380725</v>
+        <v>49.99999999999996</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47.8</v>
+        <v>49.9</v>
       </c>
       <c r="C6" t="n">
-        <v>47.8</v>
+        <v>50.3</v>
       </c>
       <c r="D6" t="n">
-        <v>47.8</v>
+        <v>50.3</v>
       </c>
       <c r="E6" t="n">
-        <v>47.8</v>
+        <v>49.4</v>
       </c>
       <c r="F6" t="n">
-        <v>356.5628</v>
+        <v>97242.49950000001</v>
       </c>
       <c r="G6" t="n">
-        <v>147702.33380725</v>
+        <v>50.07999999999996</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>47.8</v>
+        <v>50.3</v>
       </c>
       <c r="C7" t="n">
-        <v>47.8</v>
+        <v>50.3</v>
       </c>
       <c r="D7" t="n">
-        <v>47.8</v>
+        <v>50.3</v>
       </c>
       <c r="E7" t="n">
-        <v>47.8</v>
+        <v>50.3</v>
       </c>
       <c r="F7" t="n">
-        <v>1585.2793</v>
+        <v>17015.5943</v>
       </c>
       <c r="G7" t="n">
-        <v>147702.33380725</v>
+        <v>50.15999999999995</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>48.1</v>
+        <v>50.3</v>
       </c>
       <c r="C8" t="n">
-        <v>48.1</v>
+        <v>50.3</v>
       </c>
       <c r="D8" t="n">
-        <v>48.1</v>
+        <v>50.3</v>
       </c>
       <c r="E8" t="n">
-        <v>48.1</v>
+        <v>50.3</v>
       </c>
       <c r="F8" t="n">
-        <v>1864.4991</v>
+        <v>15080.5917</v>
       </c>
       <c r="G8" t="n">
-        <v>149566.83290725</v>
+        <v>50.21999999999995</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>48.2</v>
+        <v>50.3</v>
       </c>
       <c r="C9" t="n">
-        <v>48.2</v>
+        <v>50.3</v>
       </c>
       <c r="D9" t="n">
-        <v>48.2</v>
+        <v>50.3</v>
       </c>
       <c r="E9" t="n">
-        <v>48.2</v>
+        <v>50.3</v>
       </c>
       <c r="F9" t="n">
-        <v>10000</v>
+        <v>66594.9999</v>
       </c>
       <c r="G9" t="n">
-        <v>159566.83290725</v>
+        <v>50.27999999999995</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>47.9</v>
+        <v>50.3</v>
       </c>
       <c r="C10" t="n">
-        <v>47.9</v>
+        <v>51</v>
       </c>
       <c r="D10" t="n">
-        <v>47.9</v>
+        <v>51</v>
       </c>
       <c r="E10" t="n">
-        <v>47.9</v>
+        <v>50.3</v>
       </c>
       <c r="F10" t="n">
-        <v>1955.3636</v>
+        <v>126839.917</v>
       </c>
       <c r="G10" t="n">
-        <v>157611.46930725</v>
+        <v>50.43999999999996</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>47.8</v>
+        <v>51</v>
       </c>
       <c r="C11" t="n">
-        <v>47.8</v>
+        <v>51.5</v>
       </c>
       <c r="D11" t="n">
-        <v>47.8</v>
+        <v>51.5</v>
       </c>
       <c r="E11" t="n">
-        <v>47.8</v>
+        <v>50.8</v>
       </c>
       <c r="F11" t="n">
-        <v>5418.41</v>
+        <v>26699.6528</v>
       </c>
       <c r="G11" t="n">
-        <v>152193.05930725</v>
+        <v>50.67999999999995</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,34 +791,35 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>47.8</v>
+        <v>50.5</v>
       </c>
       <c r="C12" t="n">
-        <v>47.6</v>
+        <v>50.5</v>
       </c>
       <c r="D12" t="n">
-        <v>47.8</v>
+        <v>50.5</v>
       </c>
       <c r="E12" t="n">
-        <v>47.6</v>
+        <v>50.5</v>
       </c>
       <c r="F12" t="n">
-        <v>23336.1598</v>
+        <v>1100</v>
       </c>
       <c r="G12" t="n">
-        <v>128856.89950725</v>
+        <v>50.71999999999995</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,34 +827,35 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>47.6</v>
+        <v>50.1</v>
       </c>
       <c r="C13" t="n">
-        <v>47.6</v>
+        <v>48.7</v>
       </c>
       <c r="D13" t="n">
-        <v>47.6</v>
+        <v>50.1</v>
       </c>
       <c r="E13" t="n">
-        <v>47.6</v>
+        <v>48.6</v>
       </c>
       <c r="F13" t="n">
-        <v>15041.2015</v>
+        <v>16509.7166</v>
       </c>
       <c r="G13" t="n">
-        <v>128856.89950725</v>
+        <v>50.39999999999994</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,34 +863,35 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>47.6</v>
+        <v>48.5</v>
       </c>
       <c r="C14" t="n">
-        <v>47.6</v>
+        <v>48.5</v>
       </c>
       <c r="D14" t="n">
-        <v>47.6</v>
+        <v>48.5</v>
       </c>
       <c r="E14" t="n">
-        <v>47.6</v>
+        <v>48.5</v>
       </c>
       <c r="F14" t="n">
-        <v>1647.2436</v>
+        <v>2200</v>
       </c>
       <c r="G14" t="n">
-        <v>128856.89950725</v>
+        <v>50.03999999999994</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>47.6</v>
+        <v>48.5</v>
       </c>
       <c r="C15" t="n">
         <v>47.7</v>
       </c>
       <c r="D15" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="E15" t="n">
         <v>47.7</v>
       </c>
-      <c r="E15" t="n">
-        <v>47.6</v>
-      </c>
       <c r="F15" t="n">
-        <v>916.8397</v>
+        <v>3128.2002</v>
       </c>
       <c r="G15" t="n">
-        <v>129773.73920725</v>
+        <v>49.37999999999994</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>47.6</v>
+        <v>48.4</v>
       </c>
       <c r="C16" t="n">
-        <v>47.6</v>
+        <v>48.4</v>
       </c>
       <c r="D16" t="n">
-        <v>47.6</v>
+        <v>48.4</v>
       </c>
       <c r="E16" t="n">
-        <v>47.6</v>
+        <v>48.4</v>
       </c>
       <c r="F16" t="n">
-        <v>9303.893599999999</v>
+        <v>7238</v>
       </c>
       <c r="G16" t="n">
-        <v>120469.84560725</v>
+        <v>48.75999999999993</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>47.6</v>
+        <v>48.6</v>
       </c>
       <c r="C17" t="n">
-        <v>47.6</v>
+        <v>48.6</v>
       </c>
       <c r="D17" t="n">
-        <v>47.6</v>
+        <v>48.6</v>
       </c>
       <c r="E17" t="n">
-        <v>47.6</v>
+        <v>48.6</v>
       </c>
       <c r="F17" t="n">
-        <v>5432</v>
+        <v>1056.2002</v>
       </c>
       <c r="G17" t="n">
-        <v>120469.84560725</v>
+        <v>48.37999999999994</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>47.8</v>
+        <v>48.9</v>
       </c>
       <c r="C18" t="n">
-        <v>47.9</v>
+        <v>48.9</v>
       </c>
       <c r="D18" t="n">
-        <v>47.9</v>
+        <v>48.9</v>
       </c>
       <c r="E18" t="n">
-        <v>47.8</v>
+        <v>48.9</v>
       </c>
       <c r="F18" t="n">
-        <v>1992</v>
+        <v>361.5566</v>
       </c>
       <c r="G18" t="n">
-        <v>122461.84560725</v>
+        <v>48.41999999999994</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>47.9</v>
+        <v>48.7</v>
       </c>
       <c r="C19" t="n">
-        <v>47.9</v>
+        <v>48.7</v>
       </c>
       <c r="D19" t="n">
-        <v>47.9</v>
+        <v>48.8</v>
       </c>
       <c r="E19" t="n">
-        <v>47.9</v>
+        <v>48.7</v>
       </c>
       <c r="F19" t="n">
-        <v>160.341</v>
+        <v>2854</v>
       </c>
       <c r="G19" t="n">
-        <v>122461.84560725</v>
+        <v>48.45999999999994</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>48</v>
+        <v>48.7</v>
       </c>
       <c r="C20" t="n">
-        <v>48.2</v>
+        <v>48.7</v>
       </c>
       <c r="D20" t="n">
-        <v>48.2</v>
+        <v>48.7</v>
       </c>
       <c r="E20" t="n">
-        <v>48</v>
+        <v>48.7</v>
       </c>
       <c r="F20" t="n">
-        <v>18986.1514</v>
+        <v>6368</v>
       </c>
       <c r="G20" t="n">
-        <v>141447.99700725</v>
+        <v>48.65999999999993</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>48.3</v>
+        <v>48.8</v>
       </c>
       <c r="C21" t="n">
-        <v>48.3</v>
+        <v>48.9</v>
       </c>
       <c r="D21" t="n">
-        <v>48.3</v>
+        <v>48.9</v>
       </c>
       <c r="E21" t="n">
-        <v>48.3</v>
+        <v>48.8</v>
       </c>
       <c r="F21" t="n">
-        <v>50</v>
+        <v>4644.2894</v>
       </c>
       <c r="G21" t="n">
-        <v>141497.99700725</v>
+        <v>48.75999999999993</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>48.4</v>
+        <v>48.9</v>
       </c>
       <c r="C22" t="n">
-        <v>48.5</v>
+        <v>48.9</v>
       </c>
       <c r="D22" t="n">
-        <v>48.5</v>
+        <v>48.9</v>
       </c>
       <c r="E22" t="n">
-        <v>48.4</v>
+        <v>48.9</v>
       </c>
       <c r="F22" t="n">
-        <v>1600.29927025</v>
+        <v>10517.852</v>
       </c>
       <c r="G22" t="n">
-        <v>143098.2962775</v>
+        <v>48.81999999999993</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>48.7</v>
+        <v>48.9</v>
       </c>
       <c r="C23" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="D23" t="n">
-        <v>48.7</v>
+        <v>48.9</v>
       </c>
       <c r="E23" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="F23" t="n">
-        <v>17657.8279</v>
+        <v>12271.7742</v>
       </c>
       <c r="G23" t="n">
-        <v>160756.1241775</v>
+        <v>48.79999999999993</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,34 +1223,35 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="C24" t="n">
-        <v>49.1</v>
+        <v>48.9</v>
       </c>
       <c r="D24" t="n">
-        <v>49.1</v>
+        <v>48.9</v>
       </c>
       <c r="E24" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="F24" t="n">
-        <v>5309.5316</v>
+        <v>2769.2943</v>
       </c>
       <c r="G24" t="n">
-        <v>166065.6557775</v>
+        <v>48.83999999999993</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1232,34 +1259,35 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>49.5</v>
+        <v>49</v>
       </c>
       <c r="C25" t="n">
-        <v>49.6</v>
+        <v>49</v>
       </c>
       <c r="D25" t="n">
-        <v>49.6</v>
+        <v>49</v>
       </c>
       <c r="E25" t="n">
-        <v>49.4</v>
+        <v>49</v>
       </c>
       <c r="F25" t="n">
-        <v>12104.04</v>
+        <v>345.2531</v>
       </c>
       <c r="G25" t="n">
-        <v>178169.6957775</v>
+        <v>48.89999999999993</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,34 +1295,35 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>49.6</v>
+        <v>49.4</v>
       </c>
       <c r="C26" t="n">
-        <v>49.6</v>
+        <v>49.3</v>
       </c>
       <c r="D26" t="n">
-        <v>49.6</v>
+        <v>49.4</v>
       </c>
       <c r="E26" t="n">
-        <v>49.6</v>
+        <v>49.3</v>
       </c>
       <c r="F26" t="n">
-        <v>28523.7879</v>
+        <v>1904.9038</v>
       </c>
       <c r="G26" t="n">
-        <v>178169.6957775</v>
+        <v>48.97999999999993</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1302,34 +1331,35 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>49.6</v>
+        <v>49.3</v>
       </c>
       <c r="C27" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="D27" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="E27" t="n">
-        <v>49.6</v>
+        <v>49.3</v>
       </c>
       <c r="F27" t="n">
-        <v>738.2298</v>
+        <v>20194.349</v>
       </c>
       <c r="G27" t="n">
-        <v>178169.6957775</v>
+        <v>49.13999999999994</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,34 +1367,35 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>49</v>
+        <v>49.2</v>
       </c>
       <c r="C28" t="n">
-        <v>48.4</v>
+        <v>49.1</v>
       </c>
       <c r="D28" t="n">
-        <v>49</v>
+        <v>49.2</v>
       </c>
       <c r="E28" t="n">
-        <v>48.4</v>
+        <v>49.1</v>
       </c>
       <c r="F28" t="n">
-        <v>4378.7835</v>
+        <v>32520.9998</v>
       </c>
       <c r="G28" t="n">
-        <v>173790.9122775</v>
+        <v>49.19999999999993</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,34 +1403,35 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>48.9</v>
+        <v>49.1</v>
       </c>
       <c r="C29" t="n">
-        <v>49</v>
+        <v>49.2</v>
       </c>
       <c r="D29" t="n">
-        <v>49</v>
+        <v>49.2</v>
       </c>
       <c r="E29" t="n">
-        <v>48.9</v>
+        <v>49.1</v>
       </c>
       <c r="F29" t="n">
-        <v>10000</v>
+        <v>12071.2538</v>
       </c>
       <c r="G29" t="n">
-        <v>183790.9122775</v>
+        <v>49.25999999999993</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1416,25 +1449,25 @@
         <v>49.2</v>
       </c>
       <c r="C30" t="n">
-        <v>49.8</v>
+        <v>49.1</v>
       </c>
       <c r="D30" t="n">
-        <v>49.8</v>
+        <v>49.2</v>
       </c>
       <c r="E30" t="n">
-        <v>49.2</v>
+        <v>49.1</v>
       </c>
       <c r="F30" t="n">
-        <v>20712.3219</v>
+        <v>28033.0349</v>
       </c>
       <c r="G30" t="n">
-        <v>204503.2341775</v>
+        <v>49.27999999999993</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1442,34 +1475,35 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="C31" t="n">
-        <v>48.7</v>
+        <v>49.1</v>
       </c>
       <c r="D31" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="E31" t="n">
-        <v>48.7</v>
+        <v>49.1</v>
       </c>
       <c r="F31" t="n">
-        <v>2994.1364</v>
+        <v>104491.8616</v>
       </c>
       <c r="G31" t="n">
-        <v>201509.0977775</v>
+        <v>49.23999999999993</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1477,13 +1511,14 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="C32" t="n">
         <v>49</v>
@@ -1492,19 +1527,19 @@
         <v>49</v>
       </c>
       <c r="E32" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="F32" t="n">
-        <v>7180</v>
+        <v>1760.2398</v>
       </c>
       <c r="G32" t="n">
-        <v>208689.0977775</v>
+        <v>49.09999999999993</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1512,34 +1547,35 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>48.8</v>
+        <v>49.1</v>
       </c>
       <c r="C33" t="n">
-        <v>48.8</v>
+        <v>49.1</v>
       </c>
       <c r="D33" t="n">
-        <v>48.8</v>
+        <v>49.1</v>
       </c>
       <c r="E33" t="n">
-        <v>48.8</v>
+        <v>49.1</v>
       </c>
       <c r="F33" t="n">
-        <v>1364.0253</v>
+        <v>498.0589</v>
       </c>
       <c r="G33" t="n">
-        <v>207325.0724775</v>
+        <v>49.09999999999994</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1547,34 +1583,35 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>48.4</v>
+        <v>49.1</v>
       </c>
       <c r="C34" t="n">
-        <v>48.4</v>
+        <v>49</v>
       </c>
       <c r="D34" t="n">
-        <v>48.4</v>
+        <v>49.2</v>
       </c>
       <c r="E34" t="n">
-        <v>48.4</v>
+        <v>49</v>
       </c>
       <c r="F34" t="n">
-        <v>1060.2796</v>
+        <v>6302.49673008</v>
       </c>
       <c r="G34" t="n">
-        <v>206264.7928775</v>
+        <v>49.05999999999993</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1582,16 +1619,17 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>49</v>
+      </c>
+      <c r="C35" t="n">
         <v>48.9</v>
-      </c>
-      <c r="C35" t="n">
-        <v>49</v>
       </c>
       <c r="D35" t="n">
         <v>49</v>
@@ -1600,16 +1638,16 @@
         <v>48.9</v>
       </c>
       <c r="F35" t="n">
-        <v>14693.8149</v>
+        <v>50050.3403</v>
       </c>
       <c r="G35" t="n">
-        <v>220958.6077775</v>
+        <v>49.01999999999993</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1617,34 +1655,35 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="C36" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="D36" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="E36" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="F36" t="n">
-        <v>36121.9589</v>
+        <v>12871.6689</v>
       </c>
       <c r="G36" t="n">
-        <v>220958.6077775</v>
+        <v>48.97999999999993</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1652,34 +1691,35 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>49.2</v>
+        <v>48.8</v>
       </c>
       <c r="C37" t="n">
-        <v>49.2</v>
+        <v>48.8</v>
       </c>
       <c r="D37" t="n">
-        <v>49.2</v>
+        <v>48.8</v>
       </c>
       <c r="E37" t="n">
-        <v>49.2</v>
+        <v>48.8</v>
       </c>
       <c r="F37" t="n">
-        <v>1272.258</v>
+        <v>2000</v>
       </c>
       <c r="G37" t="n">
-        <v>222230.8657775</v>
+        <v>48.93999999999993</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1687,34 +1727,35 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>49.6</v>
+        <v>48.1</v>
       </c>
       <c r="C38" t="n">
-        <v>49.6</v>
+        <v>47.6</v>
       </c>
       <c r="D38" t="n">
-        <v>49.6</v>
+        <v>48.1</v>
       </c>
       <c r="E38" t="n">
-        <v>49.6</v>
+        <v>47.6</v>
       </c>
       <c r="F38" t="n">
-        <v>90</v>
+        <v>123152.9186</v>
       </c>
       <c r="G38" t="n">
-        <v>222320.8657775</v>
+        <v>48.63999999999994</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>49.7</v>
+        <v>48.3</v>
       </c>
       <c r="C39" t="n">
-        <v>50</v>
+        <v>48.3</v>
       </c>
       <c r="D39" t="n">
-        <v>50</v>
+        <v>48.3</v>
       </c>
       <c r="E39" t="n">
-        <v>49.7</v>
+        <v>48.3</v>
       </c>
       <c r="F39" t="n">
-        <v>19210.0539</v>
+        <v>2017</v>
       </c>
       <c r="G39" t="n">
-        <v>241530.9196775</v>
+        <v>48.49999999999993</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>50</v>
+        <v>48.5</v>
       </c>
       <c r="C40" t="n">
-        <v>50</v>
+        <v>48.5</v>
       </c>
       <c r="D40" t="n">
-        <v>50</v>
+        <v>48.5</v>
       </c>
       <c r="E40" t="n">
-        <v>50</v>
+        <v>48.5</v>
       </c>
       <c r="F40" t="n">
-        <v>8000</v>
+        <v>6334.2474</v>
       </c>
       <c r="G40" t="n">
-        <v>241530.9196775</v>
+        <v>48.41999999999993</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>50</v>
+        <v>48.5</v>
       </c>
       <c r="C41" t="n">
-        <v>50</v>
+        <v>48.1</v>
       </c>
       <c r="D41" t="n">
-        <v>50</v>
+        <v>48.5</v>
       </c>
       <c r="E41" t="n">
-        <v>50</v>
+        <v>48.1</v>
       </c>
       <c r="F41" t="n">
-        <v>1100.1093</v>
+        <v>1981.5901</v>
       </c>
       <c r="G41" t="n">
-        <v>241530.9196775</v>
+        <v>48.25999999999993</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>49.9</v>
+        <v>48.3</v>
       </c>
       <c r="C42" t="n">
-        <v>49.9</v>
+        <v>48.3</v>
       </c>
       <c r="D42" t="n">
-        <v>49.9</v>
+        <v>48.3</v>
       </c>
       <c r="E42" t="n">
-        <v>49.9</v>
+        <v>48.3</v>
       </c>
       <c r="F42" t="n">
-        <v>4008.016</v>
+        <v>1333.4346</v>
       </c>
       <c r="G42" t="n">
-        <v>237522.9036775</v>
+        <v>48.15999999999993</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>49.9</v>
+        <v>48.1</v>
       </c>
       <c r="C43" t="n">
-        <v>49.9</v>
+        <v>48.1</v>
       </c>
       <c r="D43" t="n">
-        <v>49.9</v>
+        <v>48.1</v>
       </c>
       <c r="E43" t="n">
-        <v>49.9</v>
+        <v>48.1</v>
       </c>
       <c r="F43" t="n">
-        <v>858.123</v>
+        <v>10395.0103</v>
       </c>
       <c r="G43" t="n">
-        <v>237522.9036775</v>
+        <v>48.25999999999993</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>49.9</v>
+        <v>48.1</v>
       </c>
       <c r="C44" t="n">
-        <v>49.9</v>
+        <v>48.1</v>
       </c>
       <c r="D44" t="n">
-        <v>49.9</v>
+        <v>48.1</v>
       </c>
       <c r="E44" t="n">
-        <v>49.9</v>
+        <v>48.1</v>
       </c>
       <c r="F44" t="n">
-        <v>2496.1088</v>
+        <v>824.999</v>
       </c>
       <c r="G44" t="n">
-        <v>237522.9036775</v>
+        <v>48.21999999999993</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C45" t="n">
-        <v>50</v>
+        <v>47.9</v>
       </c>
       <c r="D45" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E45" t="n">
-        <v>50</v>
+        <v>47.9</v>
       </c>
       <c r="F45" t="n">
-        <v>1034.56</v>
+        <v>8121.104</v>
       </c>
       <c r="G45" t="n">
-        <v>238557.4636775</v>
+        <v>48.09999999999992</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>50</v>
+        <v>47.9</v>
       </c>
       <c r="C46" t="n">
-        <v>50</v>
+        <v>48.2</v>
       </c>
       <c r="D46" t="n">
-        <v>50</v>
+        <v>48.2</v>
       </c>
       <c r="E46" t="n">
-        <v>50</v>
+        <v>47.9</v>
       </c>
       <c r="F46" t="n">
-        <v>4285</v>
+        <v>21821.5838</v>
       </c>
       <c r="G46" t="n">
-        <v>238557.4636775</v>
+        <v>48.11999999999992</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>50</v>
+        <v>48.1</v>
       </c>
       <c r="C47" t="n">
-        <v>50.2</v>
+        <v>48.1</v>
       </c>
       <c r="D47" t="n">
-        <v>50.2</v>
+        <v>48.1</v>
       </c>
       <c r="E47" t="n">
-        <v>50</v>
+        <v>48.1</v>
       </c>
       <c r="F47" t="n">
-        <v>5694</v>
+        <v>16075.0816</v>
       </c>
       <c r="G47" t="n">
-        <v>244251.4636775</v>
+        <v>48.07999999999991</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>49.9</v>
+        <v>48.2</v>
       </c>
       <c r="C48" t="n">
-        <v>50.3</v>
+        <v>48.5</v>
       </c>
       <c r="D48" t="n">
-        <v>50.3</v>
+        <v>48.5</v>
       </c>
       <c r="E48" t="n">
-        <v>49.4</v>
+        <v>48.2</v>
       </c>
       <c r="F48" t="n">
-        <v>97242.49950000001</v>
+        <v>31719.9763</v>
       </c>
       <c r="G48" t="n">
-        <v>341493.9631774999</v>
+        <v>48.15999999999992</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>50.3</v>
+        <v>48</v>
       </c>
       <c r="C49" t="n">
-        <v>50.3</v>
+        <v>48</v>
       </c>
       <c r="D49" t="n">
-        <v>50.3</v>
+        <v>48</v>
       </c>
       <c r="E49" t="n">
-        <v>50.3</v>
+        <v>48</v>
       </c>
       <c r="F49" t="n">
-        <v>17015.5943</v>
+        <v>2086.5073</v>
       </c>
       <c r="G49" t="n">
-        <v>341493.9631774999</v>
+        <v>48.13999999999992</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>50.3</v>
+        <v>48.1</v>
       </c>
       <c r="C50" t="n">
-        <v>50.3</v>
+        <v>48</v>
       </c>
       <c r="D50" t="n">
-        <v>50.3</v>
+        <v>48.1</v>
       </c>
       <c r="E50" t="n">
-        <v>50.3</v>
+        <v>48</v>
       </c>
       <c r="F50" t="n">
-        <v>15080.5917</v>
+        <v>5400</v>
       </c>
       <c r="G50" t="n">
-        <v>341493.9631774999</v>
+        <v>48.15999999999992</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>50.3</v>
+        <v>48.1</v>
       </c>
       <c r="C51" t="n">
-        <v>50.3</v>
+        <v>47.8</v>
       </c>
       <c r="D51" t="n">
-        <v>50.3</v>
+        <v>48.1</v>
       </c>
       <c r="E51" t="n">
-        <v>50.3</v>
+        <v>47.8</v>
       </c>
       <c r="F51" t="n">
-        <v>66594.9999</v>
+        <v>11962</v>
       </c>
       <c r="G51" t="n">
-        <v>341493.9631774999</v>
+        <v>48.07999999999991</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>50.3</v>
+        <v>47.9</v>
       </c>
       <c r="C52" t="n">
-        <v>51</v>
+        <v>47.9</v>
       </c>
       <c r="D52" t="n">
-        <v>51</v>
+        <v>47.9</v>
       </c>
       <c r="E52" t="n">
-        <v>50.3</v>
+        <v>47.9</v>
       </c>
       <c r="F52" t="n">
-        <v>126839.917</v>
+        <v>10271.7388</v>
       </c>
       <c r="G52" t="n">
-        <v>468333.8801775</v>
+        <v>48.03999999999991</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,34 +2267,35 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>51</v>
+        <v>47.7</v>
       </c>
       <c r="C53" t="n">
-        <v>51.5</v>
+        <v>47.7</v>
       </c>
       <c r="D53" t="n">
-        <v>51.5</v>
+        <v>47.8</v>
       </c>
       <c r="E53" t="n">
-        <v>50.8</v>
+        <v>47.7</v>
       </c>
       <c r="F53" t="n">
-        <v>26699.6528</v>
+        <v>46389.7195</v>
       </c>
       <c r="G53" t="n">
-        <v>495033.5329774999</v>
+        <v>47.87999999999992</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2247,34 +2303,35 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>50.5</v>
+        <v>47.7</v>
       </c>
       <c r="C54" t="n">
-        <v>50.5</v>
+        <v>47.7</v>
       </c>
       <c r="D54" t="n">
-        <v>50.5</v>
+        <v>47.7</v>
       </c>
       <c r="E54" t="n">
-        <v>50.5</v>
+        <v>47.7</v>
       </c>
       <c r="F54" t="n">
-        <v>1100</v>
+        <v>37748.0305</v>
       </c>
       <c r="G54" t="n">
-        <v>493933.5329774999</v>
+        <v>47.81999999999992</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2282,34 +2339,35 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>50.1</v>
+        <v>47.7</v>
       </c>
       <c r="C55" t="n">
-        <v>48.7</v>
+        <v>47.7</v>
       </c>
       <c r="D55" t="n">
-        <v>50.1</v>
+        <v>47.7</v>
       </c>
       <c r="E55" t="n">
-        <v>48.6</v>
+        <v>47.7</v>
       </c>
       <c r="F55" t="n">
-        <v>16509.7166</v>
+        <v>36200</v>
       </c>
       <c r="G55" t="n">
-        <v>477423.8163775</v>
+        <v>47.75999999999991</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>48.5</v>
+        <v>47.7</v>
       </c>
       <c r="C56" t="n">
-        <v>48.5</v>
+        <v>47.7</v>
       </c>
       <c r="D56" t="n">
-        <v>48.5</v>
+        <v>47.7</v>
       </c>
       <c r="E56" t="n">
-        <v>48.5</v>
+        <v>47.7</v>
       </c>
       <c r="F56" t="n">
-        <v>2200</v>
+        <v>756.8533</v>
       </c>
       <c r="G56" t="n">
-        <v>475223.8163775</v>
+        <v>47.73999999999991</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>48.5</v>
+        <v>47.7</v>
       </c>
       <c r="C57" t="n">
         <v>47.7</v>
       </c>
       <c r="D57" t="n">
-        <v>48.5</v>
+        <v>47.7</v>
       </c>
       <c r="E57" t="n">
         <v>47.7</v>
       </c>
       <c r="F57" t="n">
-        <v>3128.2002</v>
+        <v>1100</v>
       </c>
       <c r="G57" t="n">
-        <v>472095.6161774999</v>
+        <v>47.6999999999999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>48.4</v>
+        <v>47.8</v>
       </c>
       <c r="C58" t="n">
-        <v>48.4</v>
+        <v>47.8</v>
       </c>
       <c r="D58" t="n">
-        <v>48.4</v>
+        <v>47.8</v>
       </c>
       <c r="E58" t="n">
-        <v>48.4</v>
+        <v>47.8</v>
       </c>
       <c r="F58" t="n">
-        <v>7238</v>
+        <v>1295.8393</v>
       </c>
       <c r="G58" t="n">
-        <v>479333.6161774999</v>
+        <v>47.7199999999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>48.6</v>
+        <v>47.7</v>
       </c>
       <c r="C59" t="n">
-        <v>48.6</v>
+        <v>47.7</v>
       </c>
       <c r="D59" t="n">
-        <v>48.6</v>
+        <v>47.7</v>
       </c>
       <c r="E59" t="n">
-        <v>48.6</v>
+        <v>47.7</v>
       </c>
       <c r="F59" t="n">
-        <v>1056.2002</v>
+        <v>908.577</v>
       </c>
       <c r="G59" t="n">
-        <v>480389.8163775</v>
+        <v>47.7199999999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>48.9</v>
+        <v>47.7</v>
       </c>
       <c r="C60" t="n">
-        <v>48.9</v>
+        <v>47.7</v>
       </c>
       <c r="D60" t="n">
-        <v>48.9</v>
+        <v>47.7</v>
       </c>
       <c r="E60" t="n">
-        <v>48.9</v>
+        <v>47.7</v>
       </c>
       <c r="F60" t="n">
-        <v>361.5566</v>
+        <v>999.9999</v>
       </c>
       <c r="G60" t="n">
-        <v>480751.3729775</v>
+        <v>47.7199999999999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>48.7</v>
+        <v>47.8</v>
       </c>
       <c r="C61" t="n">
-        <v>48.7</v>
+        <v>47.8</v>
       </c>
       <c r="D61" t="n">
-        <v>48.8</v>
+        <v>47.8</v>
       </c>
       <c r="E61" t="n">
-        <v>48.7</v>
+        <v>47.8</v>
       </c>
       <c r="F61" t="n">
-        <v>2854</v>
+        <v>122.0083682</v>
       </c>
       <c r="G61" t="n">
-        <v>477897.3729775</v>
+        <v>47.73999999999991</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>48.7</v>
+        <v>47.6</v>
       </c>
       <c r="C62" t="n">
-        <v>48.7</v>
+        <v>47.6</v>
       </c>
       <c r="D62" t="n">
-        <v>48.7</v>
+        <v>47.6</v>
       </c>
       <c r="E62" t="n">
-        <v>48.7</v>
+        <v>47.6</v>
       </c>
       <c r="F62" t="n">
-        <v>6368</v>
+        <v>11349.9649</v>
       </c>
       <c r="G62" t="n">
-        <v>477897.3729775</v>
+        <v>47.71999999999991</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>48.8</v>
+        <v>47.6</v>
       </c>
       <c r="C63" t="n">
-        <v>48.9</v>
+        <v>47.6</v>
       </c>
       <c r="D63" t="n">
-        <v>48.9</v>
+        <v>47.6</v>
       </c>
       <c r="E63" t="n">
-        <v>48.8</v>
+        <v>47.6</v>
       </c>
       <c r="F63" t="n">
-        <v>4644.2894</v>
+        <v>57344.5024</v>
       </c>
       <c r="G63" t="n">
-        <v>482541.6623775</v>
+        <v>47.67999999999991</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>48.9</v>
+        <v>47.5</v>
       </c>
       <c r="C64" t="n">
-        <v>48.9</v>
+        <v>47.5</v>
       </c>
       <c r="D64" t="n">
-        <v>48.9</v>
+        <v>47.5</v>
       </c>
       <c r="E64" t="n">
-        <v>48.9</v>
+        <v>47.5</v>
       </c>
       <c r="F64" t="n">
-        <v>10517.852</v>
+        <v>19462.4009</v>
       </c>
       <c r="G64" t="n">
-        <v>482541.6623775</v>
+        <v>47.63999999999992</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>48.9</v>
+        <v>47.6</v>
       </c>
       <c r="C65" t="n">
-        <v>48.8</v>
+        <v>47.2</v>
       </c>
       <c r="D65" t="n">
-        <v>48.9</v>
+        <v>47.6</v>
       </c>
       <c r="E65" t="n">
-        <v>48.8</v>
+        <v>47.2</v>
       </c>
       <c r="F65" t="n">
-        <v>12271.7742</v>
+        <v>39975.7941</v>
       </c>
       <c r="G65" t="n">
-        <v>470269.8881775</v>
+        <v>47.53999999999992</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>48.9</v>
+        <v>47.9</v>
       </c>
       <c r="C66" t="n">
-        <v>48.9</v>
+        <v>47.9</v>
       </c>
       <c r="D66" t="n">
-        <v>48.9</v>
+        <v>47.9</v>
       </c>
       <c r="E66" t="n">
-        <v>48.9</v>
+        <v>47.9</v>
       </c>
       <c r="F66" t="n">
-        <v>2769.2943</v>
+        <v>90.31310000000001</v>
       </c>
       <c r="G66" t="n">
-        <v>473039.1824775</v>
+        <v>47.55999999999991</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>49</v>
+        <v>47.3</v>
       </c>
       <c r="C67" t="n">
-        <v>49</v>
+        <v>47.3</v>
       </c>
       <c r="D67" t="n">
-        <v>49</v>
+        <v>47.3</v>
       </c>
       <c r="E67" t="n">
-        <v>49</v>
+        <v>47.3</v>
       </c>
       <c r="F67" t="n">
-        <v>345.2531</v>
+        <v>505.3666</v>
       </c>
       <c r="G67" t="n">
-        <v>473384.4355775</v>
+        <v>47.49999999999991</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>49.4</v>
+        <v>47.8</v>
       </c>
       <c r="C68" t="n">
-        <v>49.3</v>
+        <v>47.8</v>
       </c>
       <c r="D68" t="n">
-        <v>49.4</v>
+        <v>47.8</v>
       </c>
       <c r="E68" t="n">
-        <v>49.3</v>
+        <v>47.3</v>
       </c>
       <c r="F68" t="n">
-        <v>1904.9038</v>
+        <v>131.6522</v>
       </c>
       <c r="G68" t="n">
-        <v>475289.3393775</v>
+        <v>47.53999999999991</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,34 +2843,35 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>49.3</v>
+        <v>47.3</v>
       </c>
       <c r="C69" t="n">
-        <v>49.7</v>
+        <v>47.5</v>
       </c>
       <c r="D69" t="n">
-        <v>49.7</v>
+        <v>47.8</v>
       </c>
       <c r="E69" t="n">
-        <v>49.3</v>
+        <v>47.3</v>
       </c>
       <c r="F69" t="n">
-        <v>20194.349</v>
+        <v>315.0418</v>
       </c>
       <c r="G69" t="n">
-        <v>495483.6883775</v>
+        <v>47.53999999999992</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2807,34 +2879,35 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>49.2</v>
+        <v>47.6</v>
       </c>
       <c r="C70" t="n">
-        <v>49.1</v>
+        <v>47.6</v>
       </c>
       <c r="D70" t="n">
-        <v>49.2</v>
+        <v>47.6</v>
       </c>
       <c r="E70" t="n">
-        <v>49.1</v>
+        <v>47.6</v>
       </c>
       <c r="F70" t="n">
-        <v>32520.9998</v>
+        <v>1243.2343</v>
       </c>
       <c r="G70" t="n">
-        <v>462962.6885775</v>
+        <v>47.61999999999993</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -2842,34 +2915,35 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>49.1</v>
+        <v>47.5</v>
       </c>
       <c r="C71" t="n">
-        <v>49.2</v>
+        <v>47.5</v>
       </c>
       <c r="D71" t="n">
-        <v>49.2</v>
+        <v>47.5</v>
       </c>
       <c r="E71" t="n">
-        <v>49.1</v>
+        <v>47.5</v>
       </c>
       <c r="F71" t="n">
-        <v>12071.2538</v>
+        <v>10</v>
       </c>
       <c r="G71" t="n">
-        <v>475033.9423775</v>
+        <v>47.53999999999992</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>49.2</v>
+        <v>47.4</v>
       </c>
       <c r="C72" t="n">
-        <v>49.1</v>
+        <v>47.3</v>
       </c>
       <c r="D72" t="n">
-        <v>49.2</v>
+        <v>47.4</v>
       </c>
       <c r="E72" t="n">
-        <v>49.1</v>
+        <v>47.2</v>
       </c>
       <c r="F72" t="n">
-        <v>28033.0349</v>
+        <v>12780.9956</v>
       </c>
       <c r="G72" t="n">
-        <v>447000.9074775</v>
+        <v>47.53999999999992</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>49.1</v>
+        <v>47.8</v>
       </c>
       <c r="C73" t="n">
-        <v>49.1</v>
+        <v>47.8</v>
       </c>
       <c r="D73" t="n">
-        <v>49.1</v>
+        <v>47.8</v>
       </c>
       <c r="E73" t="n">
-        <v>49.1</v>
+        <v>47.8</v>
       </c>
       <c r="F73" t="n">
-        <v>104491.8616</v>
+        <v>19.2468</v>
       </c>
       <c r="G73" t="n">
-        <v>447000.9074775</v>
+        <v>47.53999999999992</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>49</v>
+        <v>47.3</v>
       </c>
       <c r="C74" t="n">
-        <v>49</v>
+        <v>47.3</v>
       </c>
       <c r="D74" t="n">
-        <v>49</v>
+        <v>47.3</v>
       </c>
       <c r="E74" t="n">
-        <v>49</v>
+        <v>47.2</v>
       </c>
       <c r="F74" t="n">
-        <v>1760.2398</v>
+        <v>4036.5561</v>
       </c>
       <c r="G74" t="n">
-        <v>445240.6676775001</v>
+        <v>47.49999999999992</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>49.1</v>
+        <v>47.3</v>
       </c>
       <c r="C75" t="n">
-        <v>49.1</v>
+        <v>47.3</v>
       </c>
       <c r="D75" t="n">
-        <v>49.1</v>
+        <v>47.3</v>
       </c>
       <c r="E75" t="n">
-        <v>49.1</v>
+        <v>47.3</v>
       </c>
       <c r="F75" t="n">
-        <v>498.0589</v>
+        <v>1815.2114</v>
       </c>
       <c r="G75" t="n">
-        <v>445738.7265775001</v>
+        <v>47.43999999999993</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>49.1</v>
+        <v>47.2</v>
       </c>
       <c r="C76" t="n">
-        <v>49</v>
+        <v>47.2</v>
       </c>
       <c r="D76" t="n">
-        <v>49.2</v>
+        <v>47.2</v>
       </c>
       <c r="E76" t="n">
-        <v>49</v>
+        <v>47.2</v>
       </c>
       <c r="F76" t="n">
-        <v>6302.49673008</v>
+        <v>9251.083500000001</v>
       </c>
       <c r="G76" t="n">
-        <v>439436.2298474201</v>
+        <v>47.37999999999992</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>49</v>
+        <v>47.2</v>
       </c>
       <c r="C77" t="n">
-        <v>48.9</v>
+        <v>47.2</v>
       </c>
       <c r="D77" t="n">
-        <v>49</v>
+        <v>47.2</v>
       </c>
       <c r="E77" t="n">
-        <v>48.9</v>
+        <v>47.2</v>
       </c>
       <c r="F77" t="n">
-        <v>50050.3403</v>
+        <v>6134.6071</v>
       </c>
       <c r="G77" t="n">
-        <v>389385.8895474201</v>
+        <v>47.35999999999992</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>48.9</v>
+        <v>47.2</v>
       </c>
       <c r="C78" t="n">
-        <v>48.9</v>
+        <v>47.2</v>
       </c>
       <c r="D78" t="n">
-        <v>48.9</v>
+        <v>47.2</v>
       </c>
       <c r="E78" t="n">
-        <v>48.9</v>
+        <v>47.2</v>
       </c>
       <c r="F78" t="n">
-        <v>12871.6689</v>
+        <v>25319.9286</v>
       </c>
       <c r="G78" t="n">
-        <v>389385.8895474201</v>
+        <v>47.23999999999992</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3203,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>48.8</v>
+        <v>47.2</v>
       </c>
       <c r="C79" t="n">
-        <v>48.8</v>
+        <v>47.2</v>
       </c>
       <c r="D79" t="n">
-        <v>48.8</v>
+        <v>47.2</v>
       </c>
       <c r="E79" t="n">
-        <v>48.8</v>
+        <v>47.2</v>
       </c>
       <c r="F79" t="n">
-        <v>2000</v>
+        <v>20694.4531</v>
       </c>
       <c r="G79" t="n">
-        <v>387385.8895474201</v>
+        <v>47.21999999999991</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3239,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>48.1</v>
+        <v>47.2</v>
       </c>
       <c r="C80" t="n">
-        <v>47.6</v>
+        <v>47.2</v>
       </c>
       <c r="D80" t="n">
-        <v>48.1</v>
+        <v>47.2</v>
       </c>
       <c r="E80" t="n">
-        <v>47.6</v>
+        <v>47.2</v>
       </c>
       <c r="F80" t="n">
-        <v>123152.9186</v>
+        <v>66.9533</v>
       </c>
       <c r="G80" t="n">
-        <v>264232.9709474201</v>
+        <v>47.19999999999991</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3275,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>48.3</v>
+        <v>47.2</v>
       </c>
       <c r="C81" t="n">
-        <v>48.3</v>
+        <v>47.2</v>
       </c>
       <c r="D81" t="n">
-        <v>48.3</v>
+        <v>47.2</v>
       </c>
       <c r="E81" t="n">
-        <v>48.3</v>
+        <v>47.2</v>
       </c>
       <c r="F81" t="n">
-        <v>2017</v>
+        <v>91.75020000000001</v>
       </c>
       <c r="G81" t="n">
-        <v>266249.9709474201</v>
+        <v>47.19999999999991</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3311,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>48.5</v>
+        <v>47.2</v>
       </c>
       <c r="C82" t="n">
-        <v>48.5</v>
+        <v>47.2</v>
       </c>
       <c r="D82" t="n">
-        <v>48.5</v>
+        <v>47.2</v>
       </c>
       <c r="E82" t="n">
-        <v>48.5</v>
+        <v>47.2</v>
       </c>
       <c r="F82" t="n">
-        <v>6334.2474</v>
+        <v>516.7818</v>
       </c>
       <c r="G82" t="n">
-        <v>272584.2183474201</v>
+        <v>47.19999999999991</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3347,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>48.5</v>
+        <v>47.2</v>
       </c>
       <c r="C83" t="n">
-        <v>48.1</v>
+        <v>47.3</v>
       </c>
       <c r="D83" t="n">
-        <v>48.5</v>
+        <v>47.3</v>
       </c>
       <c r="E83" t="n">
-        <v>48.1</v>
+        <v>47.2</v>
       </c>
       <c r="F83" t="n">
-        <v>1981.5901</v>
+        <v>17563.5384</v>
       </c>
       <c r="G83" t="n">
-        <v>270602.6282474201</v>
+        <v>47.21999999999991</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3383,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>48.3</v>
+        <v>47.4</v>
       </c>
       <c r="C84" t="n">
-        <v>48.3</v>
+        <v>47.4</v>
       </c>
       <c r="D84" t="n">
-        <v>48.3</v>
+        <v>47.4</v>
       </c>
       <c r="E84" t="n">
-        <v>48.3</v>
+        <v>47.4</v>
       </c>
       <c r="F84" t="n">
-        <v>1333.4346</v>
+        <v>2016.0294</v>
       </c>
       <c r="G84" t="n">
-        <v>271936.0628474201</v>
+        <v>47.25999999999991</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3419,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>48.1</v>
+        <v>47.6</v>
       </c>
       <c r="C85" t="n">
-        <v>48.1</v>
+        <v>47.6</v>
       </c>
       <c r="D85" t="n">
-        <v>48.1</v>
+        <v>47.6</v>
       </c>
       <c r="E85" t="n">
-        <v>48.1</v>
+        <v>47.6</v>
       </c>
       <c r="F85" t="n">
-        <v>10395.0103</v>
+        <v>10000</v>
       </c>
       <c r="G85" t="n">
-        <v>261541.0525474201</v>
+        <v>47.33999999999992</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,28 +3455,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>48.1</v>
+        <v>47.5</v>
       </c>
       <c r="C86" t="n">
-        <v>48.1</v>
+        <v>47.5</v>
       </c>
       <c r="D86" t="n">
-        <v>48.1</v>
+        <v>47.5</v>
       </c>
       <c r="E86" t="n">
-        <v>48.1</v>
+        <v>47.5</v>
       </c>
       <c r="F86" t="n">
-        <v>824.999</v>
+        <v>1385.224</v>
       </c>
       <c r="G86" t="n">
-        <v>261541.0525474201</v>
+        <v>47.39999999999992</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3491,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>48</v>
+        <v>47.6</v>
       </c>
       <c r="C87" t="n">
-        <v>47.9</v>
+        <v>47.6</v>
       </c>
       <c r="D87" t="n">
-        <v>48</v>
+        <v>47.6</v>
       </c>
       <c r="E87" t="n">
-        <v>47.9</v>
+        <v>47.6</v>
       </c>
       <c r="F87" t="n">
-        <v>8121.104</v>
+        <v>1017.3867</v>
       </c>
       <c r="G87" t="n">
-        <v>253419.9485474201</v>
+        <v>47.47999999999993</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3527,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>47.9</v>
+        <v>47.4</v>
       </c>
       <c r="C88" t="n">
-        <v>48.2</v>
+        <v>47.4</v>
       </c>
       <c r="D88" t="n">
-        <v>48.2</v>
+        <v>47.4</v>
       </c>
       <c r="E88" t="n">
-        <v>47.9</v>
+        <v>47.4</v>
       </c>
       <c r="F88" t="n">
-        <v>21821.5838</v>
+        <v>1026.1556</v>
       </c>
       <c r="G88" t="n">
-        <v>275241.5323474201</v>
+        <v>47.49999999999992</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3563,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>48.1</v>
+        <v>47.2</v>
       </c>
       <c r="C89" t="n">
-        <v>48.1</v>
+        <v>47.2</v>
       </c>
       <c r="D89" t="n">
-        <v>48.1</v>
+        <v>47.2</v>
       </c>
       <c r="E89" t="n">
-        <v>48.1</v>
+        <v>47.2</v>
       </c>
       <c r="F89" t="n">
-        <v>16075.0816</v>
+        <v>226.1798</v>
       </c>
       <c r="G89" t="n">
-        <v>259166.4507474201</v>
+        <v>47.45999999999992</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3599,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>48.2</v>
+        <v>47.4</v>
       </c>
       <c r="C90" t="n">
-        <v>48.5</v>
+        <v>47.4</v>
       </c>
       <c r="D90" t="n">
-        <v>48.5</v>
+        <v>47.4</v>
       </c>
       <c r="E90" t="n">
-        <v>48.2</v>
+        <v>47.4</v>
       </c>
       <c r="F90" t="n">
-        <v>31719.9763</v>
+        <v>10735.0849</v>
       </c>
       <c r="G90" t="n">
-        <v>290886.4270474201</v>
+        <v>47.41999999999992</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +3635,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>48</v>
+        <v>47.4</v>
       </c>
       <c r="C91" t="n">
-        <v>48</v>
+        <v>47.4</v>
       </c>
       <c r="D91" t="n">
-        <v>48</v>
+        <v>47.4</v>
       </c>
       <c r="E91" t="n">
-        <v>48</v>
+        <v>47.4</v>
       </c>
       <c r="F91" t="n">
-        <v>2086.5073</v>
+        <v>39444.6202</v>
       </c>
       <c r="G91" t="n">
-        <v>288799.9197474201</v>
+        <v>47.39999999999992</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,28 +3671,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>48.1</v>
+        <v>47.5</v>
       </c>
       <c r="C92" t="n">
-        <v>48</v>
+        <v>47.5</v>
       </c>
       <c r="D92" t="n">
-        <v>48.1</v>
+        <v>47.5</v>
       </c>
       <c r="E92" t="n">
-        <v>48</v>
+        <v>47.5</v>
       </c>
       <c r="F92" t="n">
-        <v>5400</v>
+        <v>21052.63157894</v>
       </c>
       <c r="G92" t="n">
-        <v>288799.9197474201</v>
+        <v>47.37999999999992</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,28 +3707,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>48.1</v>
+        <v>47.3</v>
       </c>
       <c r="C93" t="n">
-        <v>47.8</v>
+        <v>47.3</v>
       </c>
       <c r="D93" t="n">
-        <v>48.1</v>
+        <v>47.3</v>
       </c>
       <c r="E93" t="n">
-        <v>47.8</v>
+        <v>47.3</v>
       </c>
       <c r="F93" t="n">
-        <v>11962</v>
+        <v>349.9664</v>
       </c>
       <c r="G93" t="n">
-        <v>276837.9197474201</v>
+        <v>47.35999999999991</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,28 +3743,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>47.9</v>
+        <v>47.2</v>
       </c>
       <c r="C94" t="n">
-        <v>47.9</v>
+        <v>47.2</v>
       </c>
       <c r="D94" t="n">
-        <v>47.9</v>
+        <v>47.2</v>
       </c>
       <c r="E94" t="n">
-        <v>47.9</v>
+        <v>47.2</v>
       </c>
       <c r="F94" t="n">
-        <v>10271.7388</v>
+        <v>4734.4498</v>
       </c>
       <c r="G94" t="n">
-        <v>287109.6585474201</v>
+        <v>47.35999999999992</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,28 +3779,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>47.7</v>
+        <v>47.2</v>
       </c>
       <c r="C95" t="n">
-        <v>47.7</v>
+        <v>47.2</v>
       </c>
       <c r="D95" t="n">
-        <v>47.8</v>
+        <v>47.2</v>
       </c>
       <c r="E95" t="n">
-        <v>47.7</v>
+        <v>47.2</v>
       </c>
       <c r="F95" t="n">
-        <v>46389.7195</v>
+        <v>681</v>
       </c>
       <c r="G95" t="n">
-        <v>240719.9390474201</v>
+        <v>47.31999999999992</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,28 +3815,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>47.7</v>
+        <v>47.3</v>
       </c>
       <c r="C96" t="n">
-        <v>47.7</v>
+        <v>47.3</v>
       </c>
       <c r="D96" t="n">
-        <v>47.7</v>
+        <v>47.3</v>
       </c>
       <c r="E96" t="n">
-        <v>47.7</v>
+        <v>47.3</v>
       </c>
       <c r="F96" t="n">
-        <v>37748.0305</v>
+        <v>6677.5249</v>
       </c>
       <c r="G96" t="n">
-        <v>240719.9390474201</v>
+        <v>47.29999999999991</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,28 +3851,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>47.7</v>
+        <v>47.5</v>
       </c>
       <c r="C97" t="n">
-        <v>47.7</v>
+        <v>47.5</v>
       </c>
       <c r="D97" t="n">
-        <v>47.7</v>
+        <v>47.5</v>
       </c>
       <c r="E97" t="n">
-        <v>47.7</v>
+        <v>47.5</v>
       </c>
       <c r="F97" t="n">
-        <v>36200</v>
+        <v>520.7536</v>
       </c>
       <c r="G97" t="n">
-        <v>240719.9390474201</v>
+        <v>47.29999999999991</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,28 +3887,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>47.7</v>
+        <v>47.6</v>
       </c>
       <c r="C98" t="n">
-        <v>47.7</v>
+        <v>47.6</v>
       </c>
       <c r="D98" t="n">
-        <v>47.7</v>
+        <v>47.6</v>
       </c>
       <c r="E98" t="n">
-        <v>47.7</v>
+        <v>47.6</v>
       </c>
       <c r="F98" t="n">
-        <v>756.8533</v>
+        <v>1341.8451</v>
       </c>
       <c r="G98" t="n">
-        <v>240719.9390474201</v>
+        <v>47.35999999999991</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3822,28 +3923,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>47.7</v>
+        <v>47.5</v>
       </c>
       <c r="C99" t="n">
-        <v>47.7</v>
+        <v>47.5</v>
       </c>
       <c r="D99" t="n">
-        <v>47.7</v>
+        <v>47.5</v>
       </c>
       <c r="E99" t="n">
-        <v>47.7</v>
+        <v>47.5</v>
       </c>
       <c r="F99" t="n">
-        <v>1100</v>
+        <v>920.8267</v>
       </c>
       <c r="G99" t="n">
-        <v>240719.9390474201</v>
+        <v>47.41999999999992</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,28 +3959,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>47.8</v>
+        <v>48.2</v>
       </c>
       <c r="C100" t="n">
-        <v>47.8</v>
+        <v>48.4</v>
       </c>
       <c r="D100" t="n">
-        <v>47.8</v>
+        <v>48.4</v>
       </c>
       <c r="E100" t="n">
-        <v>47.8</v>
+        <v>48.2</v>
       </c>
       <c r="F100" t="n">
-        <v>1295.8393</v>
+        <v>20667.99105888</v>
       </c>
       <c r="G100" t="n">
-        <v>242015.7783474201</v>
+        <v>47.65999999999991</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,28 +3995,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>47.7</v>
+        <v>47.8</v>
       </c>
       <c r="C101" t="n">
-        <v>47.7</v>
+        <v>47.6</v>
       </c>
       <c r="D101" t="n">
-        <v>47.7</v>
+        <v>47.8</v>
       </c>
       <c r="E101" t="n">
-        <v>47.7</v>
+        <v>47.6</v>
       </c>
       <c r="F101" t="n">
-        <v>908.577</v>
+        <v>4200</v>
       </c>
       <c r="G101" t="n">
-        <v>241107.2013474201</v>
+        <v>47.71999999999991</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3927,28 +4031,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>47.7</v>
+        <v>47.8</v>
       </c>
       <c r="C102" t="n">
-        <v>47.7</v>
+        <v>47.8</v>
       </c>
       <c r="D102" t="n">
-        <v>47.7</v>
+        <v>47.8</v>
       </c>
       <c r="E102" t="n">
-        <v>47.7</v>
+        <v>47.8</v>
       </c>
       <c r="F102" t="n">
-        <v>999.9999</v>
+        <v>1540.88</v>
       </c>
       <c r="G102" t="n">
-        <v>241107.2013474201</v>
+        <v>47.77999999999992</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,28 +4067,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>47.8</v>
+        <v>48.1</v>
       </c>
       <c r="C103" t="n">
-        <v>47.8</v>
+        <v>48.1</v>
       </c>
       <c r="D103" t="n">
-        <v>47.8</v>
+        <v>48.1</v>
       </c>
       <c r="E103" t="n">
-        <v>47.8</v>
+        <v>48.1</v>
       </c>
       <c r="F103" t="n">
-        <v>122.0083682</v>
+        <v>2780</v>
       </c>
       <c r="G103" t="n">
-        <v>241229.2097156201</v>
+        <v>47.87999999999992</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,28 +4103,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>47.6</v>
+        <v>48</v>
       </c>
       <c r="C104" t="n">
-        <v>47.6</v>
+        <v>48</v>
       </c>
       <c r="D104" t="n">
-        <v>47.6</v>
+        <v>48</v>
       </c>
       <c r="E104" t="n">
-        <v>47.6</v>
+        <v>48</v>
       </c>
       <c r="F104" t="n">
-        <v>11349.9649</v>
+        <v>16894.227</v>
       </c>
       <c r="G104" t="n">
-        <v>229879.2448156201</v>
+        <v>47.97999999999993</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,28 +4139,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>47.6</v>
+        <v>48.1</v>
       </c>
       <c r="C105" t="n">
-        <v>47.6</v>
+        <v>48.1</v>
       </c>
       <c r="D105" t="n">
-        <v>47.6</v>
+        <v>48.1</v>
       </c>
       <c r="E105" t="n">
-        <v>47.6</v>
+        <v>48.1</v>
       </c>
       <c r="F105" t="n">
-        <v>57344.5024</v>
+        <v>5000</v>
       </c>
       <c r="G105" t="n">
-        <v>229879.2448156201</v>
+        <v>47.91999999999993</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,28 +4175,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>47.5</v>
+        <v>47.8</v>
       </c>
       <c r="C106" t="n">
-        <v>47.5</v>
+        <v>48.2</v>
       </c>
       <c r="D106" t="n">
-        <v>47.5</v>
+        <v>48.2</v>
       </c>
       <c r="E106" t="n">
-        <v>47.5</v>
+        <v>47.8</v>
       </c>
       <c r="F106" t="n">
-        <v>19462.4009</v>
+        <v>8930.164000000001</v>
       </c>
       <c r="G106" t="n">
-        <v>210416.8439156201</v>
+        <v>48.03999999999994</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,28 +4211,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>47.6</v>
+        <v>48</v>
       </c>
       <c r="C107" t="n">
-        <v>47.2</v>
+        <v>48</v>
       </c>
       <c r="D107" t="n">
-        <v>47.6</v>
+        <v>48</v>
       </c>
       <c r="E107" t="n">
-        <v>47.2</v>
+        <v>48</v>
       </c>
       <c r="F107" t="n">
-        <v>39975.7941</v>
+        <v>1100</v>
       </c>
       <c r="G107" t="n">
-        <v>170441.0498156201</v>
+        <v>48.07999999999994</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,28 +4247,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="C108" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="D108" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="E108" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="F108" t="n">
-        <v>90.31310000000001</v>
+        <v>492.2962</v>
       </c>
       <c r="G108" t="n">
-        <v>170531.3629156201</v>
+        <v>48.05999999999994</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4172,28 +4283,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>47.3</v>
+        <v>48.2</v>
       </c>
       <c r="C109" t="n">
-        <v>47.3</v>
+        <v>48.2</v>
       </c>
       <c r="D109" t="n">
-        <v>47.3</v>
+        <v>48.2</v>
       </c>
       <c r="E109" t="n">
-        <v>47.3</v>
+        <v>48.2</v>
       </c>
       <c r="F109" t="n">
-        <v>505.3666</v>
+        <v>645.0766</v>
       </c>
       <c r="G109" t="n">
-        <v>170025.9963156201</v>
+        <v>48.09999999999994</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4207,28 +4319,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>47.8</v>
+        <v>48.1</v>
       </c>
       <c r="C110" t="n">
-        <v>47.8</v>
+        <v>48.2</v>
       </c>
       <c r="D110" t="n">
-        <v>47.8</v>
+        <v>48.2</v>
       </c>
       <c r="E110" t="n">
-        <v>47.3</v>
+        <v>48.1</v>
       </c>
       <c r="F110" t="n">
-        <v>131.6522</v>
+        <v>1962</v>
       </c>
       <c r="G110" t="n">
-        <v>170157.6485156201</v>
+        <v>48.11999999999994</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4242,28 +4355,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>47.3</v>
+        <v>48.5</v>
       </c>
       <c r="C111" t="n">
-        <v>47.5</v>
+        <v>48.6</v>
       </c>
       <c r="D111" t="n">
-        <v>47.8</v>
+        <v>48.6</v>
       </c>
       <c r="E111" t="n">
-        <v>47.3</v>
+        <v>48.5</v>
       </c>
       <c r="F111" t="n">
-        <v>315.0418</v>
+        <v>99683.0658</v>
       </c>
       <c r="G111" t="n">
-        <v>169842.6067156201</v>
+        <v>48.19999999999995</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4277,28 +4391,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>47.6</v>
+        <v>48.6</v>
       </c>
       <c r="C112" t="n">
-        <v>47.6</v>
+        <v>48.6</v>
       </c>
       <c r="D112" t="n">
-        <v>47.6</v>
+        <v>48.6</v>
       </c>
       <c r="E112" t="n">
-        <v>47.6</v>
+        <v>48.6</v>
       </c>
       <c r="F112" t="n">
-        <v>1243.2343</v>
+        <v>16906.9999</v>
       </c>
       <c r="G112" t="n">
-        <v>171085.8410156201</v>
+        <v>48.31999999999995</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4312,28 +4427,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>47.5</v>
+        <v>48.6</v>
       </c>
       <c r="C113" t="n">
-        <v>47.5</v>
+        <v>48.5</v>
       </c>
       <c r="D113" t="n">
-        <v>47.5</v>
+        <v>48.6</v>
       </c>
       <c r="E113" t="n">
-        <v>47.5</v>
+        <v>48.5</v>
       </c>
       <c r="F113" t="n">
-        <v>10</v>
+        <v>15809.9352</v>
       </c>
       <c r="G113" t="n">
-        <v>171075.8410156201</v>
+        <v>48.41999999999994</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4347,28 +4463,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>47.4</v>
+        <v>48.5</v>
       </c>
       <c r="C114" t="n">
-        <v>47.3</v>
+        <v>48.5</v>
       </c>
       <c r="D114" t="n">
-        <v>47.4</v>
+        <v>48.5</v>
       </c>
       <c r="E114" t="n">
-        <v>47.2</v>
+        <v>48.5</v>
       </c>
       <c r="F114" t="n">
-        <v>12780.9956</v>
+        <v>10000</v>
       </c>
       <c r="G114" t="n">
-        <v>158294.8454156201</v>
+        <v>48.47999999999995</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4382,28 +4499,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="C115" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="D115" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="E115" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="F115" t="n">
-        <v>19.2468</v>
+        <v>23421.1156</v>
       </c>
       <c r="G115" t="n">
-        <v>158314.0922156201</v>
+        <v>48.53999999999995</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4417,28 +4535,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>47.3</v>
+        <v>48.6</v>
       </c>
       <c r="C116" t="n">
-        <v>47.3</v>
+        <v>48.6</v>
       </c>
       <c r="D116" t="n">
-        <v>47.3</v>
+        <v>48.6</v>
       </c>
       <c r="E116" t="n">
-        <v>47.2</v>
+        <v>48.6</v>
       </c>
       <c r="F116" t="n">
-        <v>4036.5561</v>
+        <v>771.9058</v>
       </c>
       <c r="G116" t="n">
-        <v>154277.5361156201</v>
+        <v>48.53999999999996</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4452,28 +4571,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>47.3</v>
+        <v>48.9</v>
       </c>
       <c r="C117" t="n">
-        <v>47.3</v>
+        <v>48.9</v>
       </c>
       <c r="D117" t="n">
-        <v>47.3</v>
+        <v>48.9</v>
       </c>
       <c r="E117" t="n">
-        <v>47.3</v>
+        <v>48.9</v>
       </c>
       <c r="F117" t="n">
-        <v>1815.2114</v>
+        <v>500</v>
       </c>
       <c r="G117" t="n">
-        <v>154277.5361156201</v>
+        <v>48.59999999999996</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4487,28 +4607,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>47.2</v>
+        <v>49.2</v>
       </c>
       <c r="C118" t="n">
-        <v>47.2</v>
+        <v>49.2</v>
       </c>
       <c r="D118" t="n">
-        <v>47.2</v>
+        <v>49.2</v>
       </c>
       <c r="E118" t="n">
-        <v>47.2</v>
+        <v>49.2</v>
       </c>
       <c r="F118" t="n">
-        <v>9251.083500000001</v>
+        <v>16.9918</v>
       </c>
       <c r="G118" t="n">
-        <v>145026.4526156201</v>
+        <v>48.73999999999997</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4522,28 +4643,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>47.2</v>
+        <v>48.9</v>
       </c>
       <c r="C119" t="n">
-        <v>47.2</v>
+        <v>48.9</v>
       </c>
       <c r="D119" t="n">
-        <v>47.2</v>
+        <v>48.9</v>
       </c>
       <c r="E119" t="n">
-        <v>47.2</v>
+        <v>48.9</v>
       </c>
       <c r="F119" t="n">
-        <v>6134.6071</v>
+        <v>32.3108</v>
       </c>
       <c r="G119" t="n">
-        <v>145026.4526156201</v>
+        <v>48.81999999999996</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4557,28 +4679,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>47.2</v>
+        <v>48.5</v>
       </c>
       <c r="C120" t="n">
-        <v>47.2</v>
+        <v>48.5</v>
       </c>
       <c r="D120" t="n">
-        <v>47.2</v>
+        <v>48.5</v>
       </c>
       <c r="E120" t="n">
-        <v>47.2</v>
+        <v>48.5</v>
       </c>
       <c r="F120" t="n">
-        <v>25319.9286</v>
+        <v>763.8634</v>
       </c>
       <c r="G120" t="n">
-        <v>145026.4526156201</v>
+        <v>48.81999999999996</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4592,28 +4715,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>47.2</v>
+        <v>48.5</v>
       </c>
       <c r="C121" t="n">
-        <v>47.2</v>
+        <v>48.5</v>
       </c>
       <c r="D121" t="n">
-        <v>47.2</v>
+        <v>48.5</v>
       </c>
       <c r="E121" t="n">
-        <v>47.2</v>
+        <v>48.5</v>
       </c>
       <c r="F121" t="n">
-        <v>20694.4531</v>
+        <v>50260.6807</v>
       </c>
       <c r="G121" t="n">
-        <v>145026.4526156201</v>
+        <v>48.79999999999996</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4627,28 +4751,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>47.2</v>
+        <v>48.2</v>
       </c>
       <c r="C122" t="n">
-        <v>47.2</v>
+        <v>48.2</v>
       </c>
       <c r="D122" t="n">
-        <v>47.2</v>
+        <v>48.2</v>
       </c>
       <c r="E122" t="n">
-        <v>47.2</v>
+        <v>48.2</v>
       </c>
       <c r="F122" t="n">
-        <v>66.9533</v>
+        <v>4093.7581</v>
       </c>
       <c r="G122" t="n">
-        <v>145026.4526156201</v>
+        <v>48.65999999999996</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4662,28 +4787,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>47.2</v>
+        <v>48.4</v>
       </c>
       <c r="C123" t="n">
-        <v>47.2</v>
+        <v>48.4</v>
       </c>
       <c r="D123" t="n">
-        <v>47.2</v>
+        <v>48.4</v>
       </c>
       <c r="E123" t="n">
-        <v>47.2</v>
+        <v>48.4</v>
       </c>
       <c r="F123" t="n">
-        <v>91.75020000000001</v>
+        <v>380</v>
       </c>
       <c r="G123" t="n">
-        <v>145026.4526156201</v>
+        <v>48.49999999999996</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4697,28 +4823,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>47.2</v>
+        <v>48.3</v>
       </c>
       <c r="C124" t="n">
-        <v>47.2</v>
+        <v>48.3</v>
       </c>
       <c r="D124" t="n">
-        <v>47.2</v>
+        <v>48.3</v>
       </c>
       <c r="E124" t="n">
-        <v>47.2</v>
+        <v>48.3</v>
       </c>
       <c r="F124" t="n">
-        <v>516.7818</v>
+        <v>1625.1453</v>
       </c>
       <c r="G124" t="n">
-        <v>145026.4526156201</v>
+        <v>48.37999999999997</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4732,28 +4859,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>47.2</v>
+        <v>48.2</v>
       </c>
       <c r="C125" t="n">
-        <v>47.3</v>
+        <v>48.2</v>
       </c>
       <c r="D125" t="n">
-        <v>47.3</v>
+        <v>48.2</v>
       </c>
       <c r="E125" t="n">
-        <v>47.2</v>
+        <v>48.2</v>
       </c>
       <c r="F125" t="n">
-        <v>17563.5384</v>
+        <v>1328.3882</v>
       </c>
       <c r="G125" t="n">
-        <v>162589.9910156201</v>
+        <v>48.31999999999997</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4767,28 +4895,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>47.4</v>
+        <v>48.2</v>
       </c>
       <c r="C126" t="n">
-        <v>47.4</v>
+        <v>48.2</v>
       </c>
       <c r="D126" t="n">
-        <v>47.4</v>
+        <v>48.2</v>
       </c>
       <c r="E126" t="n">
-        <v>47.4</v>
+        <v>48.2</v>
       </c>
       <c r="F126" t="n">
-        <v>2016.0294</v>
+        <v>1070</v>
       </c>
       <c r="G126" t="n">
-        <v>164606.0204156201</v>
+        <v>48.25999999999997</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4802,28 +4931,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>47.6</v>
+        <v>48.1</v>
       </c>
       <c r="C127" t="n">
-        <v>47.6</v>
+        <v>48.1</v>
       </c>
       <c r="D127" t="n">
-        <v>47.6</v>
+        <v>48.1</v>
       </c>
       <c r="E127" t="n">
-        <v>47.6</v>
+        <v>48.1</v>
       </c>
       <c r="F127" t="n">
-        <v>10000</v>
+        <v>4328</v>
       </c>
       <c r="G127" t="n">
-        <v>174606.0204156201</v>
+        <v>48.23999999999997</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4837,28 +4967,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>47.5</v>
+        <v>48.1</v>
       </c>
       <c r="C128" t="n">
-        <v>47.5</v>
+        <v>48.1</v>
       </c>
       <c r="D128" t="n">
-        <v>47.5</v>
+        <v>48.1</v>
       </c>
       <c r="E128" t="n">
-        <v>47.5</v>
+        <v>48.1</v>
       </c>
       <c r="F128" t="n">
-        <v>1385.224</v>
+        <v>10500</v>
       </c>
       <c r="G128" t="n">
-        <v>173220.7964156201</v>
+        <v>48.17999999999998</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4872,28 +5003,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>47.6</v>
+        <v>48.1</v>
       </c>
       <c r="C129" t="n">
-        <v>47.6</v>
+        <v>48.1</v>
       </c>
       <c r="D129" t="n">
-        <v>47.6</v>
+        <v>48.1</v>
       </c>
       <c r="E129" t="n">
-        <v>47.6</v>
+        <v>48.1</v>
       </c>
       <c r="F129" t="n">
-        <v>1017.3867</v>
+        <v>50</v>
       </c>
       <c r="G129" t="n">
-        <v>174238.1831156201</v>
+        <v>48.13999999999997</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4907,28 +5039,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>47.4</v>
+        <v>48.1</v>
       </c>
       <c r="C130" t="n">
-        <v>47.4</v>
+        <v>48.1</v>
       </c>
       <c r="D130" t="n">
-        <v>47.4</v>
+        <v>48.1</v>
       </c>
       <c r="E130" t="n">
-        <v>47.4</v>
+        <v>48.1</v>
       </c>
       <c r="F130" t="n">
-        <v>1026.1556</v>
+        <v>5000</v>
       </c>
       <c r="G130" t="n">
-        <v>173212.0275156201</v>
+        <v>48.11999999999998</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4942,28 +5075,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>47.2</v>
+        <v>48.1</v>
       </c>
       <c r="C131" t="n">
-        <v>47.2</v>
+        <v>48.1</v>
       </c>
       <c r="D131" t="n">
-        <v>47.2</v>
+        <v>48.1</v>
       </c>
       <c r="E131" t="n">
-        <v>47.2</v>
+        <v>48.1</v>
       </c>
       <c r="F131" t="n">
-        <v>226.1798</v>
+        <v>2504.0623</v>
       </c>
       <c r="G131" t="n">
-        <v>172985.8477156201</v>
+        <v>48.09999999999999</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4977,28 +5111,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>47.4</v>
+        <v>48.2</v>
       </c>
       <c r="C132" t="n">
-        <v>47.4</v>
+        <v>48.2</v>
       </c>
       <c r="D132" t="n">
-        <v>47.4</v>
+        <v>48.2</v>
       </c>
       <c r="E132" t="n">
-        <v>47.4</v>
+        <v>48.2</v>
       </c>
       <c r="F132" t="n">
-        <v>10735.0849</v>
+        <v>1029.9074</v>
       </c>
       <c r="G132" t="n">
-        <v>183720.9326156201</v>
+        <v>48.11999999999999</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5012,28 +5147,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>47.4</v>
+        <v>48.2</v>
       </c>
       <c r="C133" t="n">
-        <v>47.4</v>
+        <v>48.1</v>
       </c>
       <c r="D133" t="n">
-        <v>47.4</v>
+        <v>48.2</v>
       </c>
       <c r="E133" t="n">
-        <v>47.4</v>
+        <v>48.1</v>
       </c>
       <c r="F133" t="n">
-        <v>39444.6202</v>
+        <v>376.6115</v>
       </c>
       <c r="G133" t="n">
-        <v>183720.9326156201</v>
+        <v>48.11999999999999</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5047,28 +5183,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>47.5</v>
+        <v>48</v>
       </c>
       <c r="C134" t="n">
-        <v>47.5</v>
+        <v>48</v>
       </c>
       <c r="D134" t="n">
-        <v>47.5</v>
+        <v>48</v>
       </c>
       <c r="E134" t="n">
-        <v>47.5</v>
+        <v>48</v>
       </c>
       <c r="F134" t="n">
-        <v>21052.63157894</v>
+        <v>500</v>
       </c>
       <c r="G134" t="n">
-        <v>204773.5641945601</v>
+        <v>48.09999999999998</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5082,28 +5219,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>47.3</v>
+        <v>48.1</v>
       </c>
       <c r="C135" t="n">
-        <v>47.3</v>
+        <v>48.1</v>
       </c>
       <c r="D135" t="n">
-        <v>47.3</v>
+        <v>48.1</v>
       </c>
       <c r="E135" t="n">
-        <v>47.3</v>
+        <v>48.1</v>
       </c>
       <c r="F135" t="n">
-        <v>349.9664</v>
+        <v>6076</v>
       </c>
       <c r="G135" t="n">
-        <v>204423.5977945601</v>
+        <v>48.09999999999998</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5117,28 +5255,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>47.2</v>
+        <v>48.2</v>
       </c>
       <c r="C136" t="n">
-        <v>47.2</v>
+        <v>48.2</v>
       </c>
       <c r="D136" t="n">
-        <v>47.2</v>
+        <v>48.2</v>
       </c>
       <c r="E136" t="n">
-        <v>47.2</v>
+        <v>48.2</v>
       </c>
       <c r="F136" t="n">
-        <v>4734.4498</v>
+        <v>3360</v>
       </c>
       <c r="G136" t="n">
-        <v>199689.1479945601</v>
+        <v>48.11999999999999</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5152,28 +5291,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>47.2</v>
+        <v>48.2</v>
       </c>
       <c r="C137" t="n">
-        <v>47.2</v>
+        <v>48</v>
       </c>
       <c r="D137" t="n">
-        <v>47.2</v>
+        <v>48.2</v>
       </c>
       <c r="E137" t="n">
-        <v>47.2</v>
+        <v>48</v>
       </c>
       <c r="F137" t="n">
-        <v>681</v>
+        <v>21000</v>
       </c>
       <c r="G137" t="n">
-        <v>199689.1479945601</v>
+        <v>48.07999999999998</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5187,28 +5327,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>47.3</v>
+        <v>48.1</v>
       </c>
       <c r="C138" t="n">
-        <v>47.3</v>
+        <v>48</v>
       </c>
       <c r="D138" t="n">
-        <v>47.3</v>
+        <v>48.1</v>
       </c>
       <c r="E138" t="n">
-        <v>47.3</v>
+        <v>48</v>
       </c>
       <c r="F138" t="n">
-        <v>6677.5249</v>
+        <v>5724.6849</v>
       </c>
       <c r="G138" t="n">
-        <v>206366.6728945601</v>
+        <v>48.05999999999999</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5222,28 +5363,29 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>47.5</v>
+        <v>47.8</v>
       </c>
       <c r="C139" t="n">
-        <v>47.5</v>
+        <v>47.8</v>
       </c>
       <c r="D139" t="n">
-        <v>47.5</v>
+        <v>47.8</v>
       </c>
       <c r="E139" t="n">
-        <v>47.5</v>
+        <v>47.8</v>
       </c>
       <c r="F139" t="n">
-        <v>520.7536</v>
+        <v>1403.5761</v>
       </c>
       <c r="G139" t="n">
-        <v>206887.4264945601</v>
+        <v>48.01999999999998</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5257,28 +5399,29 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>47.6</v>
+        <v>48</v>
       </c>
       <c r="C140" t="n">
-        <v>47.6</v>
+        <v>48.2</v>
       </c>
       <c r="D140" t="n">
-        <v>47.6</v>
+        <v>48.2</v>
       </c>
       <c r="E140" t="n">
-        <v>47.6</v>
+        <v>48</v>
       </c>
       <c r="F140" t="n">
-        <v>1341.8451</v>
+        <v>1490</v>
       </c>
       <c r="G140" t="n">
-        <v>208229.2715945601</v>
+        <v>48.03999999999998</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5292,28 +5435,29 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>47.5</v>
+        <v>48.1</v>
       </c>
       <c r="C141" t="n">
-        <v>47.5</v>
+        <v>48.1</v>
       </c>
       <c r="D141" t="n">
-        <v>47.5</v>
+        <v>48.1</v>
       </c>
       <c r="E141" t="n">
-        <v>47.5</v>
+        <v>48.1</v>
       </c>
       <c r="F141" t="n">
-        <v>920.8267</v>
+        <v>1419.2829</v>
       </c>
       <c r="G141" t="n">
-        <v>207308.4448945601</v>
+        <v>48.01999999999998</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5327,28 +5471,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>48.2</v>
+        <v>47.9</v>
       </c>
       <c r="C142" t="n">
-        <v>48.4</v>
+        <v>47.9</v>
       </c>
       <c r="D142" t="n">
-        <v>48.4</v>
+        <v>47.9</v>
       </c>
       <c r="E142" t="n">
-        <v>48.2</v>
+        <v>47.9</v>
       </c>
       <c r="F142" t="n">
-        <v>20667.99105888</v>
+        <v>9210.9558</v>
       </c>
       <c r="G142" t="n">
-        <v>227976.4359534401</v>
+        <v>47.99999999999998</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5362,28 +5507,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>47.8</v>
+        <v>47.9</v>
       </c>
       <c r="C143" t="n">
-        <v>47.6</v>
+        <v>47.9</v>
       </c>
       <c r="D143" t="n">
-        <v>47.8</v>
+        <v>47.9</v>
       </c>
       <c r="E143" t="n">
-        <v>47.6</v>
+        <v>47.9</v>
       </c>
       <c r="F143" t="n">
-        <v>4200</v>
+        <v>3070.3185</v>
       </c>
       <c r="G143" t="n">
-        <v>223776.4359534401</v>
+        <v>47.97999999999998</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5397,28 +5543,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>47.8</v>
+        <v>47.9</v>
       </c>
       <c r="C144" t="n">
-        <v>47.8</v>
+        <v>47.9</v>
       </c>
       <c r="D144" t="n">
-        <v>47.8</v>
+        <v>47.9</v>
       </c>
       <c r="E144" t="n">
-        <v>47.8</v>
+        <v>47.9</v>
       </c>
       <c r="F144" t="n">
-        <v>1540.88</v>
+        <v>5000</v>
       </c>
       <c r="G144" t="n">
-        <v>225317.3159534401</v>
+        <v>47.99999999999996</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5432,28 +5579,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>48.1</v>
+        <v>47.9</v>
       </c>
       <c r="C145" t="n">
-        <v>48.1</v>
+        <v>47.9</v>
       </c>
       <c r="D145" t="n">
-        <v>48.1</v>
+        <v>47.9</v>
       </c>
       <c r="E145" t="n">
-        <v>48.1</v>
+        <v>47.9</v>
       </c>
       <c r="F145" t="n">
-        <v>2780</v>
+        <v>4796.4292</v>
       </c>
       <c r="G145" t="n">
-        <v>228097.3159534401</v>
+        <v>47.93999999999996</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5467,28 +5615,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>48</v>
+        <v>47.7</v>
       </c>
       <c r="C146" t="n">
-        <v>48</v>
+        <v>47.7</v>
       </c>
       <c r="D146" t="n">
-        <v>48</v>
+        <v>47.7</v>
       </c>
       <c r="E146" t="n">
-        <v>48</v>
+        <v>47.7</v>
       </c>
       <c r="F146" t="n">
-        <v>16894.227</v>
+        <v>784</v>
       </c>
       <c r="G146" t="n">
-        <v>211203.0889534401</v>
+        <v>47.85999999999996</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5502,28 +5651,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>48.1</v>
+        <v>47.7</v>
       </c>
       <c r="C147" t="n">
-        <v>48.1</v>
+        <v>47.7</v>
       </c>
       <c r="D147" t="n">
-        <v>48.1</v>
+        <v>47.7</v>
       </c>
       <c r="E147" t="n">
-        <v>48.1</v>
+        <v>47.7</v>
       </c>
       <c r="F147" t="n">
-        <v>5000</v>
+        <v>12467</v>
       </c>
       <c r="G147" t="n">
-        <v>216203.0889534401</v>
+        <v>47.81999999999996</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5537,28 +5687,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>47.8</v>
+        <v>47.5</v>
       </c>
       <c r="C148" t="n">
-        <v>48.2</v>
+        <v>47.5</v>
       </c>
       <c r="D148" t="n">
-        <v>48.2</v>
+        <v>47.5</v>
       </c>
       <c r="E148" t="n">
-        <v>47.8</v>
+        <v>47.5</v>
       </c>
       <c r="F148" t="n">
-        <v>8930.164000000001</v>
+        <v>1263</v>
       </c>
       <c r="G148" t="n">
-        <v>225133.2529534401</v>
+        <v>47.73999999999996</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5572,28 +5723,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>48</v>
+        <v>47.4</v>
       </c>
       <c r="C149" t="n">
-        <v>48</v>
+        <v>47.4</v>
       </c>
       <c r="D149" t="n">
-        <v>48</v>
+        <v>47.4</v>
       </c>
       <c r="E149" t="n">
-        <v>48</v>
+        <v>47.4</v>
       </c>
       <c r="F149" t="n">
-        <v>1100</v>
+        <v>2666.2967</v>
       </c>
       <c r="G149" t="n">
-        <v>224033.2529534401</v>
+        <v>47.63999999999996</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5607,28 +5759,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>48</v>
+        <v>47.4</v>
       </c>
       <c r="C150" t="n">
-        <v>48</v>
+        <v>47.4</v>
       </c>
       <c r="D150" t="n">
-        <v>48</v>
+        <v>47.4</v>
       </c>
       <c r="E150" t="n">
-        <v>48</v>
+        <v>47.4</v>
       </c>
       <c r="F150" t="n">
-        <v>492.2962</v>
+        <v>12967.0761</v>
       </c>
       <c r="G150" t="n">
-        <v>224033.2529534401</v>
+        <v>47.53999999999996</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5642,28 +5795,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>48.2</v>
+        <v>47.2</v>
       </c>
       <c r="C151" t="n">
-        <v>48.2</v>
+        <v>47.2</v>
       </c>
       <c r="D151" t="n">
-        <v>48.2</v>
+        <v>47.2</v>
       </c>
       <c r="E151" t="n">
-        <v>48.2</v>
+        <v>47.2</v>
       </c>
       <c r="F151" t="n">
-        <v>645.0766</v>
+        <v>20269.5868</v>
       </c>
       <c r="G151" t="n">
-        <v>224678.3295534401</v>
+        <v>47.43999999999996</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5677,28 +5831,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>48.1</v>
+        <v>47.1</v>
       </c>
       <c r="C152" t="n">
-        <v>48.2</v>
+        <v>47.1</v>
       </c>
       <c r="D152" t="n">
-        <v>48.2</v>
+        <v>47.1</v>
       </c>
       <c r="E152" t="n">
-        <v>48.1</v>
+        <v>47.1</v>
       </c>
       <c r="F152" t="n">
-        <v>1962</v>
+        <v>960.5830999999999</v>
       </c>
       <c r="G152" t="n">
-        <v>224678.3295534401</v>
+        <v>47.31999999999997</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5712,28 +5867,29 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>48.5</v>
+        <v>47.2</v>
       </c>
       <c r="C153" t="n">
-        <v>48.6</v>
+        <v>47.2</v>
       </c>
       <c r="D153" t="n">
-        <v>48.6</v>
+        <v>47.2</v>
       </c>
       <c r="E153" t="n">
-        <v>48.5</v>
+        <v>47.2</v>
       </c>
       <c r="F153" t="n">
-        <v>99683.0658</v>
+        <v>960.5830999999999</v>
       </c>
       <c r="G153" t="n">
-        <v>324361.3953534401</v>
+        <v>47.25999999999997</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5747,28 +5903,29 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>48.6</v>
+        <v>47.1</v>
       </c>
       <c r="C154" t="n">
-        <v>48.6</v>
+        <v>47.1</v>
       </c>
       <c r="D154" t="n">
-        <v>48.6</v>
+        <v>47.1</v>
       </c>
       <c r="E154" t="n">
-        <v>48.6</v>
+        <v>47.1</v>
       </c>
       <c r="F154" t="n">
-        <v>16906.9999</v>
+        <v>994.3115</v>
       </c>
       <c r="G154" t="n">
-        <v>324361.3953534401</v>
+        <v>47.19999999999997</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5782,28 +5939,29 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>48.6</v>
+        <v>47</v>
       </c>
       <c r="C155" t="n">
-        <v>48.5</v>
+        <v>46.9</v>
       </c>
       <c r="D155" t="n">
-        <v>48.6</v>
+        <v>47</v>
       </c>
       <c r="E155" t="n">
-        <v>48.5</v>
+        <v>46.9</v>
       </c>
       <c r="F155" t="n">
-        <v>15809.9352</v>
+        <v>15876.7103</v>
       </c>
       <c r="G155" t="n">
-        <v>308551.4601534401</v>
+        <v>47.09999999999997</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5817,28 +5975,29 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>48.5</v>
+        <v>47</v>
       </c>
       <c r="C156" t="n">
-        <v>48.5</v>
+        <v>47</v>
       </c>
       <c r="D156" t="n">
-        <v>48.5</v>
+        <v>47</v>
       </c>
       <c r="E156" t="n">
-        <v>48.5</v>
+        <v>47</v>
       </c>
       <c r="F156" t="n">
-        <v>10000</v>
+        <v>10790</v>
       </c>
       <c r="G156" t="n">
-        <v>308551.4601534401</v>
+        <v>47.05999999999998</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5852,28 +6011,29 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>48.5</v>
+        <v>46.8</v>
       </c>
       <c r="C157" t="n">
-        <v>48.5</v>
+        <v>46.9</v>
       </c>
       <c r="D157" t="n">
-        <v>48.5</v>
+        <v>46.9</v>
       </c>
       <c r="E157" t="n">
-        <v>48.5</v>
+        <v>46.8</v>
       </c>
       <c r="F157" t="n">
-        <v>23421.1156</v>
+        <v>2221.1832</v>
       </c>
       <c r="G157" t="n">
-        <v>308551.4601534401</v>
+        <v>47.01999999999997</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5887,28 +6047,29 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>48.6</v>
+        <v>46.7</v>
       </c>
       <c r="C158" t="n">
-        <v>48.6</v>
+        <v>46.8</v>
       </c>
       <c r="D158" t="n">
-        <v>48.6</v>
+        <v>46.8</v>
       </c>
       <c r="E158" t="n">
-        <v>48.6</v>
+        <v>46.7</v>
       </c>
       <c r="F158" t="n">
-        <v>771.9058</v>
+        <v>10067.008</v>
       </c>
       <c r="G158" t="n">
-        <v>309323.3659534401</v>
+        <v>46.93999999999998</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5922,28 +6083,29 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>48.9</v>
+        <v>46.5</v>
       </c>
       <c r="C159" t="n">
-        <v>48.9</v>
+        <v>46.5</v>
       </c>
       <c r="D159" t="n">
-        <v>48.9</v>
+        <v>46.5</v>
       </c>
       <c r="E159" t="n">
-        <v>48.9</v>
+        <v>46.5</v>
       </c>
       <c r="F159" t="n">
-        <v>500</v>
+        <v>1679.8937</v>
       </c>
       <c r="G159" t="n">
-        <v>309823.3659534401</v>
+        <v>46.81999999999998</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5957,28 +6119,29 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>49.2</v>
+        <v>46.5</v>
       </c>
       <c r="C160" t="n">
-        <v>49.2</v>
+        <v>46.3</v>
       </c>
       <c r="D160" t="n">
-        <v>49.2</v>
+        <v>46.5</v>
       </c>
       <c r="E160" t="n">
-        <v>49.2</v>
+        <v>46.3</v>
       </c>
       <c r="F160" t="n">
-        <v>16.9918</v>
+        <v>30898.2933</v>
       </c>
       <c r="G160" t="n">
-        <v>309840.3577534401</v>
+        <v>46.69999999999997</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5992,28 +6155,29 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>48.9</v>
+        <v>46.5</v>
       </c>
       <c r="C161" t="n">
-        <v>48.9</v>
+        <v>46.3</v>
       </c>
       <c r="D161" t="n">
-        <v>48.9</v>
+        <v>46.6</v>
       </c>
       <c r="E161" t="n">
-        <v>48.9</v>
+        <v>46.3</v>
       </c>
       <c r="F161" t="n">
-        <v>32.3108</v>
+        <v>12065.1327</v>
       </c>
       <c r="G161" t="n">
-        <v>309808.0469534401</v>
+        <v>46.55999999999997</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6027,28 +6191,29 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>48.5</v>
+        <v>46.3</v>
       </c>
       <c r="C162" t="n">
-        <v>48.5</v>
+        <v>46.3</v>
       </c>
       <c r="D162" t="n">
-        <v>48.5</v>
+        <v>46.3</v>
       </c>
       <c r="E162" t="n">
-        <v>48.5</v>
+        <v>46.3</v>
       </c>
       <c r="F162" t="n">
-        <v>763.8634</v>
+        <v>10386</v>
       </c>
       <c r="G162" t="n">
-        <v>309044.1835534401</v>
+        <v>46.43999999999997</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6062,28 +6227,29 @@
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>48.5</v>
+        <v>46.3</v>
       </c>
       <c r="C163" t="n">
-        <v>48.5</v>
+        <v>46.3</v>
       </c>
       <c r="D163" t="n">
-        <v>48.5</v>
+        <v>46.3</v>
       </c>
       <c r="E163" t="n">
-        <v>48.5</v>
+        <v>46.3</v>
       </c>
       <c r="F163" t="n">
-        <v>50260.6807</v>
+        <v>11426.2871</v>
       </c>
       <c r="G163" t="n">
-        <v>309044.1835534401</v>
+        <v>46.33999999999996</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6097,28 +6263,29 @@
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>48.2</v>
+        <v>46.3</v>
       </c>
       <c r="C164" t="n">
-        <v>48.2</v>
+        <v>46.3</v>
       </c>
       <c r="D164" t="n">
-        <v>48.2</v>
+        <v>46.3</v>
       </c>
       <c r="E164" t="n">
-        <v>48.2</v>
+        <v>46.3</v>
       </c>
       <c r="F164" t="n">
-        <v>4093.7581</v>
+        <v>4714.1727</v>
       </c>
       <c r="G164" t="n">
-        <v>304950.4254534402</v>
+        <v>46.29999999999997</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6132,28 +6299,29 @@
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>48.4</v>
+        <v>46.3</v>
       </c>
       <c r="C165" t="n">
-        <v>48.4</v>
+        <v>46.3</v>
       </c>
       <c r="D165" t="n">
-        <v>48.4</v>
+        <v>46.3</v>
       </c>
       <c r="E165" t="n">
-        <v>48.4</v>
+        <v>46.3</v>
       </c>
       <c r="F165" t="n">
-        <v>380</v>
+        <v>1540.0495</v>
       </c>
       <c r="G165" t="n">
-        <v>305330.4254534402</v>
+        <v>46.29999999999997</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6167,28 +6335,29 @@
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>48.3</v>
+        <v>46.3</v>
       </c>
       <c r="C166" t="n">
-        <v>48.3</v>
+        <v>46.3</v>
       </c>
       <c r="D166" t="n">
-        <v>48.3</v>
+        <v>46.3</v>
       </c>
       <c r="E166" t="n">
-        <v>48.3</v>
+        <v>46.3</v>
       </c>
       <c r="F166" t="n">
-        <v>1625.1453</v>
+        <v>0.0001</v>
       </c>
       <c r="G166" t="n">
-        <v>303705.2801534402</v>
+        <v>46.29999999999997</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6202,1909 +6371,311 @@
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>48.2</v>
+        <v>46.3</v>
       </c>
       <c r="C167" t="n">
-        <v>48.2</v>
+        <v>46.3</v>
       </c>
       <c r="D167" t="n">
-        <v>48.2</v>
+        <v>46.3</v>
       </c>
       <c r="E167" t="n">
-        <v>48.2</v>
+        <v>46.3</v>
       </c>
       <c r="F167" t="n">
-        <v>1328.3882</v>
+        <v>2300.6952</v>
       </c>
       <c r="G167" t="n">
-        <v>302376.8919534402</v>
+        <v>46.29999999999997</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="K167" t="n">
+        <v>46.3</v>
+      </c>
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>48.2</v>
+        <v>46.3</v>
       </c>
       <c r="C168" t="n">
-        <v>48.2</v>
+        <v>46.3</v>
       </c>
       <c r="D168" t="n">
-        <v>48.2</v>
+        <v>46.3</v>
       </c>
       <c r="E168" t="n">
-        <v>48.2</v>
+        <v>46.3</v>
       </c>
       <c r="F168" t="n">
-        <v>1070</v>
+        <v>21.945</v>
       </c>
       <c r="G168" t="n">
-        <v>302376.8919534402</v>
+        <v>46.29999999999997</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="K168" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>48.1</v>
+        <v>46.3</v>
       </c>
       <c r="C169" t="n">
-        <v>48.1</v>
+        <v>46.3</v>
       </c>
       <c r="D169" t="n">
-        <v>48.1</v>
+        <v>46.3</v>
       </c>
       <c r="E169" t="n">
-        <v>48.1</v>
+        <v>46.3</v>
       </c>
       <c r="F169" t="n">
-        <v>4328</v>
+        <v>14417.77</v>
       </c>
       <c r="G169" t="n">
-        <v>298048.8919534402</v>
+        <v>46.29999999999997</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="K169" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>48.1</v>
+        <v>46.3</v>
       </c>
       <c r="C170" t="n">
-        <v>48.1</v>
+        <v>46.1</v>
       </c>
       <c r="D170" t="n">
-        <v>48.1</v>
+        <v>46.3</v>
       </c>
       <c r="E170" t="n">
-        <v>48.1</v>
+        <v>46.1</v>
       </c>
       <c r="F170" t="n">
-        <v>10500</v>
+        <v>32953.3725</v>
       </c>
       <c r="G170" t="n">
-        <v>298048.8919534402</v>
+        <v>46.25999999999997</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="K170" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>48.1</v>
+        <v>46.1</v>
       </c>
       <c r="C171" t="n">
-        <v>48.1</v>
+        <v>46.1</v>
       </c>
       <c r="D171" t="n">
-        <v>48.1</v>
+        <v>46.1</v>
       </c>
       <c r="E171" t="n">
-        <v>48.1</v>
+        <v>46.1</v>
       </c>
       <c r="F171" t="n">
-        <v>50</v>
+        <v>2128.8847</v>
       </c>
       <c r="G171" t="n">
-        <v>298048.8919534402</v>
+        <v>46.21999999999997</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="K171" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>48.1</v>
+        <v>46.1</v>
       </c>
       <c r="C172" t="n">
-        <v>48.1</v>
+        <v>46.1</v>
       </c>
       <c r="D172" t="n">
-        <v>48.1</v>
+        <v>46.1</v>
       </c>
       <c r="E172" t="n">
-        <v>48.1</v>
+        <v>46.1</v>
       </c>
       <c r="F172" t="n">
-        <v>5000</v>
+        <v>7308.7759</v>
       </c>
       <c r="G172" t="n">
-        <v>298048.8919534402</v>
+        <v>46.17999999999997</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="K172" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>48.1</v>
+        <v>46.3</v>
       </c>
       <c r="C173" t="n">
-        <v>48.1</v>
+        <v>46.3</v>
       </c>
       <c r="D173" t="n">
-        <v>48.1</v>
+        <v>46.3</v>
       </c>
       <c r="E173" t="n">
-        <v>48.1</v>
+        <v>46.3</v>
       </c>
       <c r="F173" t="n">
-        <v>2504.0623</v>
+        <v>27</v>
       </c>
       <c r="G173" t="n">
-        <v>298048.8919534402</v>
+        <v>46.17999999999997</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="C174" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="D174" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="E174" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="F174" t="n">
-        <v>1029.9074</v>
-      </c>
-      <c r="G174" t="n">
-        <v>299078.7993534402</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="C175" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="D175" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="E175" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="F175" t="n">
-        <v>376.6115</v>
-      </c>
-      <c r="G175" t="n">
-        <v>298702.1878534402</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>48</v>
-      </c>
-      <c r="C176" t="n">
-        <v>48</v>
-      </c>
-      <c r="D176" t="n">
-        <v>48</v>
-      </c>
-      <c r="E176" t="n">
-        <v>48</v>
-      </c>
-      <c r="F176" t="n">
-        <v>500</v>
-      </c>
-      <c r="G176" t="n">
-        <v>298202.1878534402</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="C177" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="D177" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="E177" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="F177" t="n">
-        <v>6076</v>
-      </c>
-      <c r="G177" t="n">
-        <v>304278.1878534402</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="C178" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="D178" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="E178" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="F178" t="n">
-        <v>3360</v>
-      </c>
-      <c r="G178" t="n">
-        <v>307638.1878534402</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="C179" t="n">
-        <v>48</v>
-      </c>
-      <c r="D179" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="E179" t="n">
-        <v>48</v>
-      </c>
-      <c r="F179" t="n">
-        <v>21000</v>
-      </c>
-      <c r="G179" t="n">
-        <v>286638.1878534402</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="C180" t="n">
-        <v>48</v>
-      </c>
-      <c r="D180" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="E180" t="n">
-        <v>48</v>
-      </c>
-      <c r="F180" t="n">
-        <v>5724.6849</v>
-      </c>
-      <c r="G180" t="n">
-        <v>286638.1878534402</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
+      <c r="J173" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="K173" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="C181" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="D181" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="E181" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="F181" t="n">
-        <v>1403.5761</v>
-      </c>
-      <c r="G181" t="n">
-        <v>285234.6117534402</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="n">
-        <v>48</v>
-      </c>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>48</v>
-      </c>
-      <c r="C182" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="D182" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="E182" t="n">
-        <v>48</v>
-      </c>
-      <c r="F182" t="n">
-        <v>1490</v>
-      </c>
-      <c r="G182" t="n">
-        <v>286724.6117534402</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="C183" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="D183" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="E183" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="F183" t="n">
-        <v>1419.2829</v>
-      </c>
-      <c r="G183" t="n">
-        <v>285305.3288534402</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="C184" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="D184" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="E184" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="F184" t="n">
-        <v>9210.9558</v>
-      </c>
-      <c r="G184" t="n">
-        <v>276094.3730534402</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="C185" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="D185" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="E185" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="F185" t="n">
-        <v>3070.3185</v>
-      </c>
-      <c r="G185" t="n">
-        <v>276094.3730534402</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="C186" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="D186" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="E186" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="F186" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G186" t="n">
-        <v>276094.3730534402</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="C187" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="D187" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="E187" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="F187" t="n">
-        <v>4796.4292</v>
-      </c>
-      <c r="G187" t="n">
-        <v>276094.3730534402</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="C188" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="D188" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="E188" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="F188" t="n">
-        <v>784</v>
-      </c>
-      <c r="G188" t="n">
-        <v>275310.3730534402</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="C189" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="D189" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="E189" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="F189" t="n">
-        <v>12467</v>
-      </c>
-      <c r="G189" t="n">
-        <v>275310.3730534402</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="C190" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="D190" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="E190" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="F190" t="n">
-        <v>1263</v>
-      </c>
-      <c r="G190" t="n">
-        <v>274047.3730534402</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="C191" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="D191" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="E191" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="F191" t="n">
-        <v>2666.2967</v>
-      </c>
-      <c r="G191" t="n">
-        <v>271381.0763534402</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="C192" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="D192" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="E192" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="F192" t="n">
-        <v>12967.0761</v>
-      </c>
-      <c r="G192" t="n">
-        <v>271381.0763534402</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="C193" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="D193" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="E193" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="F193" t="n">
-        <v>20269.5868</v>
-      </c>
-      <c r="G193" t="n">
-        <v>251111.4895534402</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="C194" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="D194" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="E194" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="F194" t="n">
-        <v>960.5830999999999</v>
-      </c>
-      <c r="G194" t="n">
-        <v>250150.9064534403</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="C195" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="D195" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="E195" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="F195" t="n">
-        <v>960.5830999999999</v>
-      </c>
-      <c r="G195" t="n">
-        <v>251111.4895534402</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="C196" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="D196" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="E196" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="F196" t="n">
-        <v>994.3115</v>
-      </c>
-      <c r="G196" t="n">
-        <v>250117.1780534402</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>47</v>
-      </c>
-      <c r="C197" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="D197" t="n">
-        <v>47</v>
-      </c>
-      <c r="E197" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="F197" t="n">
-        <v>15876.7103</v>
-      </c>
-      <c r="G197" t="n">
-        <v>234240.4677534402</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>47</v>
-      </c>
-      <c r="C198" t="n">
-        <v>47</v>
-      </c>
-      <c r="D198" t="n">
-        <v>47</v>
-      </c>
-      <c r="E198" t="n">
-        <v>47</v>
-      </c>
-      <c r="F198" t="n">
-        <v>10790</v>
-      </c>
-      <c r="G198" t="n">
-        <v>245030.4677534402</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="C199" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="D199" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="E199" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="F199" t="n">
-        <v>2221.1832</v>
-      </c>
-      <c r="G199" t="n">
-        <v>242809.2845534402</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="C200" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="D200" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="E200" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="F200" t="n">
-        <v>10067.008</v>
-      </c>
-      <c r="G200" t="n">
-        <v>232742.2765534402</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="C201" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="D201" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="E201" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="F201" t="n">
-        <v>1679.8937</v>
-      </c>
-      <c r="G201" t="n">
-        <v>231062.3828534402</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="C202" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="D202" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="E202" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="F202" t="n">
-        <v>30898.2933</v>
-      </c>
-      <c r="G202" t="n">
-        <v>200164.0895534403</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="C203" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="D203" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="E203" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="F203" t="n">
-        <v>12065.1327</v>
-      </c>
-      <c r="G203" t="n">
-        <v>200164.0895534403</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="C204" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="D204" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="E204" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="F204" t="n">
-        <v>10386</v>
-      </c>
-      <c r="G204" t="n">
-        <v>200164.0895534403</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="C205" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="D205" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="E205" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="F205" t="n">
-        <v>11426.2871</v>
-      </c>
-      <c r="G205" t="n">
-        <v>200164.0895534403</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="C206" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="D206" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="E206" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="F206" t="n">
-        <v>4714.1727</v>
-      </c>
-      <c r="G206" t="n">
-        <v>200164.0895534403</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="C207" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="D207" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="E207" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="F207" t="n">
-        <v>1540.0495</v>
-      </c>
-      <c r="G207" t="n">
-        <v>200164.0895534403</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="C208" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="D208" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="E208" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="F208" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G208" t="n">
-        <v>200164.0895534403</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="C209" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="D209" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="E209" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="F209" t="n">
-        <v>2300.6952</v>
-      </c>
-      <c r="G209" t="n">
-        <v>200164.0895534403</v>
-      </c>
-      <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="C210" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="D210" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="E210" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="F210" t="n">
-        <v>21.945</v>
-      </c>
-      <c r="G210" t="n">
-        <v>200164.0895534403</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="C211" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="D211" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="E211" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="F211" t="n">
-        <v>14417.77</v>
-      </c>
-      <c r="G211" t="n">
-        <v>200164.0895534403</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="C212" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="D212" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="E212" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="F212" t="n">
-        <v>32953.3725</v>
-      </c>
-      <c r="G212" t="n">
-        <v>167210.7170534403</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="C213" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="D213" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="E213" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="F213" t="n">
-        <v>2128.8847</v>
-      </c>
-      <c r="G213" t="n">
-        <v>167210.7170534403</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="C214" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="D214" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="E214" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="F214" t="n">
-        <v>7308.7759</v>
-      </c>
-      <c r="G214" t="n">
-        <v>167210.7170534403</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="C215" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="D215" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="E215" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="F215" t="n">
-        <v>27</v>
-      </c>
-      <c r="G215" t="n">
-        <v>167237.7170534403</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-26 BackTest XEM.xlsx
+++ b/BackTest/2019-10-26 BackTest XEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N173"/>
+  <dimension ref="A1:N244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>49.9</v>
+        <v>47.1</v>
       </c>
       <c r="C2" t="n">
-        <v>49.9</v>
+        <v>47.1</v>
       </c>
       <c r="D2" t="n">
-        <v>49.9</v>
+        <v>47.1</v>
       </c>
       <c r="E2" t="n">
-        <v>49.9</v>
+        <v>47.1</v>
       </c>
       <c r="F2" t="n">
-        <v>2496.1088</v>
+        <v>8210</v>
       </c>
       <c r="G2" t="n">
-        <v>49.93999999999996</v>
+        <v>127587.83593357</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F3" t="n">
-        <v>1034.56</v>
+        <v>1271</v>
       </c>
       <c r="G3" t="n">
-        <v>49.93999999999996</v>
+        <v>126316.83593357</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>47.1</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,32 +514,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>46.5</v>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>46.5</v>
       </c>
       <c r="F4" t="n">
-        <v>4285</v>
+        <v>10000</v>
       </c>
       <c r="G4" t="n">
-        <v>49.93999999999996</v>
+        <v>116316.83593357</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>47</v>
+      </c>
+      <c r="K4" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50</v>
+        <v>46.9</v>
       </c>
       <c r="C5" t="n">
-        <v>50.2</v>
+        <v>46.9</v>
       </c>
       <c r="D5" t="n">
-        <v>50.2</v>
+        <v>46.9</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>46.9</v>
       </c>
       <c r="F5" t="n">
-        <v>5694</v>
+        <v>1011.0779</v>
       </c>
       <c r="G5" t="n">
-        <v>49.99999999999996</v>
+        <v>117327.91383357</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,32 +602,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>49.9</v>
+        <v>47.2</v>
       </c>
       <c r="C6" t="n">
-        <v>50.3</v>
+        <v>47.2</v>
       </c>
       <c r="D6" t="n">
-        <v>50.3</v>
+        <v>47.2</v>
       </c>
       <c r="E6" t="n">
-        <v>49.4</v>
+        <v>47.2</v>
       </c>
       <c r="F6" t="n">
-        <v>97242.49950000001</v>
+        <v>5567.2329</v>
       </c>
       <c r="G6" t="n">
-        <v>50.07999999999996</v>
+        <v>122895.14673357</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="K6" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,32 +646,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>50.3</v>
+        <v>47.3</v>
       </c>
       <c r="C7" t="n">
-        <v>50.3</v>
+        <v>47.3</v>
       </c>
       <c r="D7" t="n">
-        <v>50.3</v>
+        <v>47.3</v>
       </c>
       <c r="E7" t="n">
-        <v>50.3</v>
+        <v>47.3</v>
       </c>
       <c r="F7" t="n">
-        <v>17015.5943</v>
+        <v>2590</v>
       </c>
       <c r="G7" t="n">
-        <v>50.15999999999995</v>
+        <v>125485.14673357</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,32 +690,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>50.3</v>
+        <v>47.5</v>
       </c>
       <c r="C8" t="n">
-        <v>50.3</v>
+        <v>47.5</v>
       </c>
       <c r="D8" t="n">
-        <v>50.3</v>
+        <v>47.5</v>
       </c>
       <c r="E8" t="n">
-        <v>50.3</v>
+        <v>47.5</v>
       </c>
       <c r="F8" t="n">
-        <v>15080.5917</v>
+        <v>23.38947368</v>
       </c>
       <c r="G8" t="n">
-        <v>50.21999999999995</v>
+        <v>125508.53620725</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,22 +734,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>50.3</v>
+        <v>47.4</v>
       </c>
       <c r="C9" t="n">
-        <v>50.3</v>
+        <v>47.4</v>
       </c>
       <c r="D9" t="n">
-        <v>50.3</v>
+        <v>47.4</v>
       </c>
       <c r="E9" t="n">
-        <v>50.3</v>
+        <v>47.4</v>
       </c>
       <c r="F9" t="n">
-        <v>66594.9999</v>
+        <v>5386.1785</v>
       </c>
       <c r="G9" t="n">
-        <v>50.27999999999995</v>
+        <v>120122.35770725</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -714,8 +758,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,22 +776,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>50.3</v>
+        <v>47.4</v>
       </c>
       <c r="C10" t="n">
-        <v>51</v>
+        <v>47.4</v>
       </c>
       <c r="D10" t="n">
-        <v>51</v>
+        <v>47.4</v>
       </c>
       <c r="E10" t="n">
-        <v>50.3</v>
+        <v>47.4</v>
       </c>
       <c r="F10" t="n">
-        <v>126839.917</v>
+        <v>14937.6214</v>
       </c>
       <c r="G10" t="n">
-        <v>50.43999999999996</v>
+        <v>120122.35770725</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -750,8 +800,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,22 +818,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>51</v>
+        <v>47.5</v>
       </c>
       <c r="C11" t="n">
-        <v>51.5</v>
+        <v>47.5</v>
       </c>
       <c r="D11" t="n">
-        <v>51.5</v>
+        <v>47.5</v>
       </c>
       <c r="E11" t="n">
-        <v>50.8</v>
+        <v>47.5</v>
       </c>
       <c r="F11" t="n">
-        <v>26699.6528</v>
+        <v>954.4175</v>
       </c>
       <c r="G11" t="n">
-        <v>50.67999999999995</v>
+        <v>121076.77520725</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,8 +842,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,32 +860,38 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>50.5</v>
+        <v>47.5</v>
       </c>
       <c r="C12" t="n">
-        <v>50.5</v>
+        <v>47.5</v>
       </c>
       <c r="D12" t="n">
-        <v>50.5</v>
+        <v>47.5</v>
       </c>
       <c r="E12" t="n">
-        <v>50.5</v>
+        <v>47.5</v>
       </c>
       <c r="F12" t="n">
-        <v>1100</v>
+        <v>1108.761</v>
       </c>
       <c r="G12" t="n">
-        <v>50.71999999999995</v>
+        <v>121076.77520725</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,32 +902,38 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>50.1</v>
+        <v>47.4</v>
       </c>
       <c r="C13" t="n">
-        <v>48.7</v>
+        <v>47.4</v>
       </c>
       <c r="D13" t="n">
-        <v>50.1</v>
+        <v>47.4</v>
       </c>
       <c r="E13" t="n">
-        <v>48.6</v>
+        <v>47.4</v>
       </c>
       <c r="F13" t="n">
-        <v>16509.7166</v>
+        <v>954.4175</v>
       </c>
       <c r="G13" t="n">
-        <v>50.39999999999994</v>
+        <v>120122.35770725</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,32 +944,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>48.5</v>
+        <v>47.5</v>
       </c>
       <c r="C14" t="n">
-        <v>48.5</v>
+        <v>47.6</v>
       </c>
       <c r="D14" t="n">
-        <v>48.5</v>
+        <v>47.6</v>
       </c>
       <c r="E14" t="n">
-        <v>48.5</v>
+        <v>47.5</v>
       </c>
       <c r="F14" t="n">
-        <v>2200</v>
+        <v>9400</v>
       </c>
       <c r="G14" t="n">
-        <v>50.03999999999994</v>
+        <v>129522.35770725</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,22 +988,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>48.5</v>
+        <v>47.5</v>
       </c>
       <c r="C15" t="n">
-        <v>47.7</v>
+        <v>47.5</v>
       </c>
       <c r="D15" t="n">
-        <v>48.5</v>
+        <v>47.5</v>
       </c>
       <c r="E15" t="n">
-        <v>47.7</v>
+        <v>47.5</v>
       </c>
       <c r="F15" t="n">
-        <v>3128.2002</v>
+        <v>3375.7052</v>
       </c>
       <c r="G15" t="n">
-        <v>49.37999999999994</v>
+        <v>126146.65250725</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -930,8 +1012,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,22 +1030,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>48.4</v>
+        <v>47.5</v>
       </c>
       <c r="C16" t="n">
-        <v>48.4</v>
+        <v>47.5</v>
       </c>
       <c r="D16" t="n">
-        <v>48.4</v>
+        <v>47.5</v>
       </c>
       <c r="E16" t="n">
-        <v>48.4</v>
+        <v>47.5</v>
       </c>
       <c r="F16" t="n">
-        <v>7238</v>
+        <v>1115.4645</v>
       </c>
       <c r="G16" t="n">
-        <v>48.75999999999993</v>
+        <v>126146.65250725</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -966,8 +1054,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,22 +1072,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>48.6</v>
+        <v>47.7</v>
       </c>
       <c r="C17" t="n">
-        <v>48.6</v>
+        <v>47.7</v>
       </c>
       <c r="D17" t="n">
-        <v>48.6</v>
+        <v>47.7</v>
       </c>
       <c r="E17" t="n">
-        <v>48.6</v>
+        <v>47.7</v>
       </c>
       <c r="F17" t="n">
-        <v>1056.2002</v>
+        <v>1363.7584</v>
       </c>
       <c r="G17" t="n">
-        <v>48.37999999999994</v>
+        <v>127510.41090725</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1002,8 +1096,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1114,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>48.9</v>
+        <v>47.7</v>
       </c>
       <c r="C18" t="n">
-        <v>48.9</v>
+        <v>47.7</v>
       </c>
       <c r="D18" t="n">
-        <v>48.9</v>
+        <v>47.7</v>
       </c>
       <c r="E18" t="n">
-        <v>48.9</v>
+        <v>47.7</v>
       </c>
       <c r="F18" t="n">
-        <v>361.5566</v>
+        <v>1240.0997</v>
       </c>
       <c r="G18" t="n">
-        <v>48.41999999999994</v>
+        <v>127510.41090725</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1038,8 +1138,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +1156,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>48.7</v>
+        <v>47.7</v>
       </c>
       <c r="C19" t="n">
-        <v>48.7</v>
+        <v>47.7</v>
       </c>
       <c r="D19" t="n">
-        <v>48.8</v>
+        <v>47.7</v>
       </c>
       <c r="E19" t="n">
-        <v>48.7</v>
+        <v>47.7</v>
       </c>
       <c r="F19" t="n">
-        <v>2854</v>
+        <v>8298.5908</v>
       </c>
       <c r="G19" t="n">
-        <v>48.45999999999994</v>
+        <v>127510.41090725</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1074,8 +1180,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>48.7</v>
+        <v>47.7</v>
       </c>
       <c r="C20" t="n">
-        <v>48.7</v>
+        <v>47.7</v>
       </c>
       <c r="D20" t="n">
-        <v>48.7</v>
+        <v>47.7</v>
       </c>
       <c r="E20" t="n">
-        <v>48.7</v>
+        <v>47.7</v>
       </c>
       <c r="F20" t="n">
-        <v>6368</v>
+        <v>0.0001</v>
       </c>
       <c r="G20" t="n">
-        <v>48.65999999999993</v>
+        <v>127510.41090725</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,8 +1222,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,22 +1240,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>48.8</v>
+        <v>47.8</v>
       </c>
       <c r="C21" t="n">
-        <v>48.9</v>
+        <v>47.8</v>
       </c>
       <c r="D21" t="n">
-        <v>48.9</v>
+        <v>47.8</v>
       </c>
       <c r="E21" t="n">
-        <v>48.8</v>
+        <v>47.8</v>
       </c>
       <c r="F21" t="n">
-        <v>4644.2894</v>
+        <v>2314.9281</v>
       </c>
       <c r="G21" t="n">
-        <v>48.75999999999993</v>
+        <v>129825.33900725</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1146,8 +1264,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1282,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>48.9</v>
+        <v>47.9</v>
       </c>
       <c r="C22" t="n">
-        <v>48.9</v>
+        <v>47.9</v>
       </c>
       <c r="D22" t="n">
-        <v>48.9</v>
+        <v>47.9</v>
       </c>
       <c r="E22" t="n">
-        <v>48.9</v>
+        <v>47.9</v>
       </c>
       <c r="F22" t="n">
-        <v>10517.852</v>
+        <v>2522.2171</v>
       </c>
       <c r="G22" t="n">
-        <v>48.81999999999993</v>
+        <v>132347.55610725</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1182,8 +1306,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,22 +1324,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>48.9</v>
+        <v>47.9</v>
       </c>
       <c r="C23" t="n">
-        <v>48.8</v>
+        <v>47.9</v>
       </c>
       <c r="D23" t="n">
-        <v>48.9</v>
+        <v>47.9</v>
       </c>
       <c r="E23" t="n">
-        <v>48.8</v>
+        <v>47.9</v>
       </c>
       <c r="F23" t="n">
-        <v>12271.7742</v>
+        <v>277.7829</v>
       </c>
       <c r="G23" t="n">
-        <v>48.79999999999993</v>
+        <v>132347.55610725</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1218,8 +1348,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,32 +1366,38 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>48.9</v>
+        <v>47.9</v>
       </c>
       <c r="C24" t="n">
-        <v>48.9</v>
+        <v>47.9</v>
       </c>
       <c r="D24" t="n">
-        <v>48.9</v>
+        <v>47.9</v>
       </c>
       <c r="E24" t="n">
-        <v>48.9</v>
+        <v>47.9</v>
       </c>
       <c r="F24" t="n">
-        <v>2769.2943</v>
+        <v>2696.169</v>
       </c>
       <c r="G24" t="n">
-        <v>48.83999999999993</v>
+        <v>132347.55610725</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,32 +1408,38 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>49</v>
+        <v>47.5</v>
       </c>
       <c r="C25" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" t="n">
-        <v>49</v>
+        <v>48.2</v>
       </c>
       <c r="E25" t="n">
-        <v>49</v>
+        <v>47.5</v>
       </c>
       <c r="F25" t="n">
-        <v>345.2531</v>
+        <v>8360</v>
       </c>
       <c r="G25" t="n">
-        <v>48.89999999999993</v>
+        <v>140707.55610725</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,32 +1450,38 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>49.4</v>
+        <v>47.5</v>
       </c>
       <c r="C26" t="n">
-        <v>49.3</v>
+        <v>47.5</v>
       </c>
       <c r="D26" t="n">
-        <v>49.4</v>
+        <v>47.5</v>
       </c>
       <c r="E26" t="n">
-        <v>49.3</v>
+        <v>47.5</v>
       </c>
       <c r="F26" t="n">
-        <v>1904.9038</v>
+        <v>1174.6889</v>
       </c>
       <c r="G26" t="n">
-        <v>48.97999999999993</v>
+        <v>139532.86720725</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,32 +1492,38 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>49.3</v>
+        <v>47.7</v>
       </c>
       <c r="C27" t="n">
-        <v>49.7</v>
+        <v>47.6</v>
       </c>
       <c r="D27" t="n">
-        <v>49.7</v>
+        <v>47.7</v>
       </c>
       <c r="E27" t="n">
-        <v>49.3</v>
+        <v>47.6</v>
       </c>
       <c r="F27" t="n">
-        <v>20194.349</v>
+        <v>5178</v>
       </c>
       <c r="G27" t="n">
-        <v>49.13999999999994</v>
+        <v>144710.86720725</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,32 +1534,38 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>49.2</v>
+        <v>47.7</v>
       </c>
       <c r="C28" t="n">
-        <v>49.1</v>
+        <v>47.7</v>
       </c>
       <c r="D28" t="n">
-        <v>49.2</v>
+        <v>47.7</v>
       </c>
       <c r="E28" t="n">
-        <v>49.1</v>
+        <v>47.7</v>
       </c>
       <c r="F28" t="n">
-        <v>32520.9998</v>
+        <v>1385.867</v>
       </c>
       <c r="G28" t="n">
-        <v>49.19999999999993</v>
+        <v>146096.73420725</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,32 +1576,38 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>49.1</v>
+        <v>47.5</v>
       </c>
       <c r="C29" t="n">
-        <v>49.2</v>
+        <v>47.5</v>
       </c>
       <c r="D29" t="n">
-        <v>49.2</v>
+        <v>47.5</v>
       </c>
       <c r="E29" t="n">
-        <v>49.1</v>
+        <v>47.5</v>
       </c>
       <c r="F29" t="n">
-        <v>12071.2538</v>
+        <v>137.1975</v>
       </c>
       <c r="G29" t="n">
-        <v>49.25999999999993</v>
+        <v>145959.53670725</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,32 +1618,38 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>49.2</v>
+        <v>47.7</v>
       </c>
       <c r="C30" t="n">
-        <v>49.1</v>
+        <v>47.7</v>
       </c>
       <c r="D30" t="n">
-        <v>49.2</v>
+        <v>47.7</v>
       </c>
       <c r="E30" t="n">
-        <v>49.1</v>
+        <v>47.7</v>
       </c>
       <c r="F30" t="n">
-        <v>28033.0349</v>
+        <v>969.5282999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>49.27999999999993</v>
+        <v>146929.06500725</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,32 +1660,38 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>49.1</v>
+        <v>47.7</v>
       </c>
       <c r="C31" t="n">
-        <v>49.1</v>
+        <v>47.7</v>
       </c>
       <c r="D31" t="n">
-        <v>49.1</v>
+        <v>47.7</v>
       </c>
       <c r="E31" t="n">
-        <v>49.1</v>
+        <v>47.7</v>
       </c>
       <c r="F31" t="n">
-        <v>104491.8616</v>
+        <v>1110.9078</v>
       </c>
       <c r="G31" t="n">
-        <v>49.23999999999993</v>
+        <v>146929.06500725</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,32 +1702,38 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>49</v>
+        <v>47.8</v>
       </c>
       <c r="C32" t="n">
-        <v>49</v>
+        <v>47.8</v>
       </c>
       <c r="D32" t="n">
-        <v>49</v>
+        <v>47.8</v>
       </c>
       <c r="E32" t="n">
-        <v>49</v>
+        <v>47.8</v>
       </c>
       <c r="F32" t="n">
-        <v>1760.2398</v>
+        <v>773.2688000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>49.09999999999993</v>
+        <v>147702.33380725</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,32 +1744,38 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>49.1</v>
+        <v>47.8</v>
       </c>
       <c r="C33" t="n">
-        <v>49.1</v>
+        <v>47.8</v>
       </c>
       <c r="D33" t="n">
-        <v>49.1</v>
+        <v>47.8</v>
       </c>
       <c r="E33" t="n">
-        <v>49.1</v>
+        <v>47.8</v>
       </c>
       <c r="F33" t="n">
-        <v>498.0589</v>
+        <v>382.3846</v>
       </c>
       <c r="G33" t="n">
-        <v>49.09999999999994</v>
+        <v>147702.33380725</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,32 +1786,38 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>49.1</v>
+        <v>47.8</v>
       </c>
       <c r="C34" t="n">
-        <v>49</v>
+        <v>47.8</v>
       </c>
       <c r="D34" t="n">
-        <v>49.2</v>
+        <v>47.8</v>
       </c>
       <c r="E34" t="n">
-        <v>49</v>
+        <v>47.8</v>
       </c>
       <c r="F34" t="n">
-        <v>6302.49673008</v>
+        <v>471.477</v>
       </c>
       <c r="G34" t="n">
-        <v>49.05999999999993</v>
+        <v>147702.33380725</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,32 +1828,38 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>49</v>
+        <v>47.8</v>
       </c>
       <c r="C35" t="n">
-        <v>48.9</v>
+        <v>47.8</v>
       </c>
       <c r="D35" t="n">
-        <v>49</v>
+        <v>47.8</v>
       </c>
       <c r="E35" t="n">
-        <v>48.9</v>
+        <v>47.8</v>
       </c>
       <c r="F35" t="n">
-        <v>50050.3403</v>
+        <v>356.5628</v>
       </c>
       <c r="G35" t="n">
-        <v>49.01999999999993</v>
+        <v>147702.33380725</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,32 +1870,38 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>48.9</v>
+        <v>47.8</v>
       </c>
       <c r="C36" t="n">
-        <v>48.9</v>
+        <v>47.8</v>
       </c>
       <c r="D36" t="n">
-        <v>48.9</v>
+        <v>47.8</v>
       </c>
       <c r="E36" t="n">
-        <v>48.9</v>
+        <v>47.8</v>
       </c>
       <c r="F36" t="n">
-        <v>12871.6689</v>
+        <v>1585.2793</v>
       </c>
       <c r="G36" t="n">
-        <v>48.97999999999993</v>
+        <v>147702.33380725</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,32 +1912,38 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>48.8</v>
+        <v>48.1</v>
       </c>
       <c r="C37" t="n">
-        <v>48.8</v>
+        <v>48.1</v>
       </c>
       <c r="D37" t="n">
-        <v>48.8</v>
+        <v>48.1</v>
       </c>
       <c r="E37" t="n">
-        <v>48.8</v>
+        <v>48.1</v>
       </c>
       <c r="F37" t="n">
-        <v>2000</v>
+        <v>1864.4991</v>
       </c>
       <c r="G37" t="n">
-        <v>48.93999999999993</v>
+        <v>149566.83290725</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,32 +1954,38 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="C38" t="n">
-        <v>47.6</v>
+        <v>48.2</v>
       </c>
       <c r="D38" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="E38" t="n">
-        <v>47.6</v>
+        <v>48.2</v>
       </c>
       <c r="F38" t="n">
-        <v>123152.9186</v>
+        <v>10000</v>
       </c>
       <c r="G38" t="n">
-        <v>48.63999999999994</v>
+        <v>159566.83290725</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,22 +1996,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>48.3</v>
+        <v>47.9</v>
       </c>
       <c r="C39" t="n">
-        <v>48.3</v>
+        <v>47.9</v>
       </c>
       <c r="D39" t="n">
-        <v>48.3</v>
+        <v>47.9</v>
       </c>
       <c r="E39" t="n">
-        <v>48.3</v>
+        <v>47.9</v>
       </c>
       <c r="F39" t="n">
-        <v>2017</v>
+        <v>1955.3636</v>
       </c>
       <c r="G39" t="n">
-        <v>48.49999999999993</v>
+        <v>157611.46930725</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1794,8 +2020,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,22 +2038,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>48.5</v>
+        <v>47.8</v>
       </c>
       <c r="C40" t="n">
-        <v>48.5</v>
+        <v>47.8</v>
       </c>
       <c r="D40" t="n">
-        <v>48.5</v>
+        <v>47.8</v>
       </c>
       <c r="E40" t="n">
-        <v>48.5</v>
+        <v>47.8</v>
       </c>
       <c r="F40" t="n">
-        <v>6334.2474</v>
+        <v>5418.41</v>
       </c>
       <c r="G40" t="n">
-        <v>48.41999999999993</v>
+        <v>152193.05930725</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1830,8 +2062,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,22 +2080,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>48.5</v>
+        <v>47.8</v>
       </c>
       <c r="C41" t="n">
-        <v>48.1</v>
+        <v>47.6</v>
       </c>
       <c r="D41" t="n">
-        <v>48.5</v>
+        <v>47.8</v>
       </c>
       <c r="E41" t="n">
-        <v>48.1</v>
+        <v>47.6</v>
       </c>
       <c r="F41" t="n">
-        <v>1981.5901</v>
+        <v>23336.1598</v>
       </c>
       <c r="G41" t="n">
-        <v>48.25999999999993</v>
+        <v>128856.89950725</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1866,8 +2104,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,22 +2122,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>48.3</v>
+        <v>47.6</v>
       </c>
       <c r="C42" t="n">
-        <v>48.3</v>
+        <v>47.6</v>
       </c>
       <c r="D42" t="n">
-        <v>48.3</v>
+        <v>47.6</v>
       </c>
       <c r="E42" t="n">
-        <v>48.3</v>
+        <v>47.6</v>
       </c>
       <c r="F42" t="n">
-        <v>1333.4346</v>
+        <v>15041.2015</v>
       </c>
       <c r="G42" t="n">
-        <v>48.15999999999993</v>
+        <v>128856.89950725</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1902,8 +2146,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1914,22 +2164,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>48.1</v>
+        <v>47.6</v>
       </c>
       <c r="C43" t="n">
-        <v>48.1</v>
+        <v>47.6</v>
       </c>
       <c r="D43" t="n">
-        <v>48.1</v>
+        <v>47.6</v>
       </c>
       <c r="E43" t="n">
-        <v>48.1</v>
+        <v>47.6</v>
       </c>
       <c r="F43" t="n">
-        <v>10395.0103</v>
+        <v>1647.2436</v>
       </c>
       <c r="G43" t="n">
-        <v>48.25999999999993</v>
+        <v>128856.89950725</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1938,8 +2188,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1950,22 +2206,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>48.1</v>
+        <v>47.6</v>
       </c>
       <c r="C44" t="n">
-        <v>48.1</v>
+        <v>47.7</v>
       </c>
       <c r="D44" t="n">
-        <v>48.1</v>
+        <v>47.7</v>
       </c>
       <c r="E44" t="n">
-        <v>48.1</v>
+        <v>47.6</v>
       </c>
       <c r="F44" t="n">
-        <v>824.999</v>
+        <v>916.8397</v>
       </c>
       <c r="G44" t="n">
-        <v>48.21999999999993</v>
+        <v>129773.73920725</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1974,8 +2230,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1986,22 +2248,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>48</v>
+        <v>47.6</v>
       </c>
       <c r="C45" t="n">
-        <v>47.9</v>
+        <v>47.6</v>
       </c>
       <c r="D45" t="n">
-        <v>48</v>
+        <v>47.6</v>
       </c>
       <c r="E45" t="n">
-        <v>47.9</v>
+        <v>47.6</v>
       </c>
       <c r="F45" t="n">
-        <v>8121.104</v>
+        <v>9303.893599999999</v>
       </c>
       <c r="G45" t="n">
-        <v>48.09999999999992</v>
+        <v>120469.84560725</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2010,8 +2272,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2022,22 +2290,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>47.9</v>
+        <v>47.6</v>
       </c>
       <c r="C46" t="n">
-        <v>48.2</v>
+        <v>47.6</v>
       </c>
       <c r="D46" t="n">
-        <v>48.2</v>
+        <v>47.6</v>
       </c>
       <c r="E46" t="n">
-        <v>47.9</v>
+        <v>47.6</v>
       </c>
       <c r="F46" t="n">
-        <v>21821.5838</v>
+        <v>5432</v>
       </c>
       <c r="G46" t="n">
-        <v>48.11999999999992</v>
+        <v>120469.84560725</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2046,8 +2314,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2058,22 +2332,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>48.1</v>
+        <v>47.8</v>
       </c>
       <c r="C47" t="n">
-        <v>48.1</v>
+        <v>47.9</v>
       </c>
       <c r="D47" t="n">
-        <v>48.1</v>
+        <v>47.9</v>
       </c>
       <c r="E47" t="n">
-        <v>48.1</v>
+        <v>47.8</v>
       </c>
       <c r="F47" t="n">
-        <v>16075.0816</v>
+        <v>1992</v>
       </c>
       <c r="G47" t="n">
-        <v>48.07999999999991</v>
+        <v>122461.84560725</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2082,8 +2356,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2094,22 +2374,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>48.2</v>
+        <v>47.9</v>
       </c>
       <c r="C48" t="n">
-        <v>48.5</v>
+        <v>47.9</v>
       </c>
       <c r="D48" t="n">
-        <v>48.5</v>
+        <v>47.9</v>
       </c>
       <c r="E48" t="n">
-        <v>48.2</v>
+        <v>47.9</v>
       </c>
       <c r="F48" t="n">
-        <v>31719.9763</v>
+        <v>160.341</v>
       </c>
       <c r="G48" t="n">
-        <v>48.15999999999992</v>
+        <v>122461.84560725</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2118,8 +2398,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2133,19 +2419,19 @@
         <v>48</v>
       </c>
       <c r="C49" t="n">
-        <v>48</v>
+        <v>48.2</v>
       </c>
       <c r="D49" t="n">
-        <v>48</v>
+        <v>48.2</v>
       </c>
       <c r="E49" t="n">
         <v>48</v>
       </c>
       <c r="F49" t="n">
-        <v>2086.5073</v>
+        <v>18986.1514</v>
       </c>
       <c r="G49" t="n">
-        <v>48.13999999999992</v>
+        <v>141447.99700725</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2154,8 +2440,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2166,22 +2458,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>48.1</v>
+        <v>48.3</v>
       </c>
       <c r="C50" t="n">
-        <v>48</v>
+        <v>48.3</v>
       </c>
       <c r="D50" t="n">
-        <v>48.1</v>
+        <v>48.3</v>
       </c>
       <c r="E50" t="n">
-        <v>48</v>
+        <v>48.3</v>
       </c>
       <c r="F50" t="n">
-        <v>5400</v>
+        <v>50</v>
       </c>
       <c r="G50" t="n">
-        <v>48.15999999999992</v>
+        <v>141497.99700725</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2190,8 +2482,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2202,22 +2500,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>48.1</v>
+        <v>48.4</v>
       </c>
       <c r="C51" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="D51" t="n">
-        <v>48.1</v>
+        <v>48.5</v>
       </c>
       <c r="E51" t="n">
-        <v>47.8</v>
+        <v>48.4</v>
       </c>
       <c r="F51" t="n">
-        <v>11962</v>
+        <v>1600.29927025</v>
       </c>
       <c r="G51" t="n">
-        <v>48.07999999999991</v>
+        <v>143098.2962775</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2226,8 +2524,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2238,22 +2542,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>47.9</v>
+        <v>48.7</v>
       </c>
       <c r="C52" t="n">
-        <v>47.9</v>
+        <v>48.7</v>
       </c>
       <c r="D52" t="n">
-        <v>47.9</v>
+        <v>48.7</v>
       </c>
       <c r="E52" t="n">
-        <v>47.9</v>
+        <v>48.7</v>
       </c>
       <c r="F52" t="n">
-        <v>10271.7388</v>
+        <v>17657.8279</v>
       </c>
       <c r="G52" t="n">
-        <v>48.03999999999991</v>
+        <v>160756.1241775</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2262,8 +2566,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2274,22 +2584,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>47.7</v>
+        <v>48.8</v>
       </c>
       <c r="C53" t="n">
-        <v>47.7</v>
+        <v>49.1</v>
       </c>
       <c r="D53" t="n">
-        <v>47.8</v>
+        <v>49.1</v>
       </c>
       <c r="E53" t="n">
-        <v>47.7</v>
+        <v>48.8</v>
       </c>
       <c r="F53" t="n">
-        <v>46389.7195</v>
+        <v>5309.5316</v>
       </c>
       <c r="G53" t="n">
-        <v>47.87999999999992</v>
+        <v>166065.6557775</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2298,8 +2608,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2310,22 +2626,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>47.7</v>
+        <v>49.5</v>
       </c>
       <c r="C54" t="n">
-        <v>47.7</v>
+        <v>49.6</v>
       </c>
       <c r="D54" t="n">
-        <v>47.7</v>
+        <v>49.6</v>
       </c>
       <c r="E54" t="n">
-        <v>47.7</v>
+        <v>49.4</v>
       </c>
       <c r="F54" t="n">
-        <v>37748.0305</v>
+        <v>12104.04</v>
       </c>
       <c r="G54" t="n">
-        <v>47.81999999999992</v>
+        <v>178169.6957775</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2334,8 +2650,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2346,22 +2668,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>47.7</v>
+        <v>49.6</v>
       </c>
       <c r="C55" t="n">
-        <v>47.7</v>
+        <v>49.6</v>
       </c>
       <c r="D55" t="n">
-        <v>47.7</v>
+        <v>49.6</v>
       </c>
       <c r="E55" t="n">
-        <v>47.7</v>
+        <v>49.6</v>
       </c>
       <c r="F55" t="n">
-        <v>36200</v>
+        <v>28523.7879</v>
       </c>
       <c r="G55" t="n">
-        <v>47.75999999999991</v>
+        <v>178169.6957775</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2370,8 +2692,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2382,22 +2710,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>47.7</v>
+        <v>49.6</v>
       </c>
       <c r="C56" t="n">
-        <v>47.7</v>
+        <v>49.6</v>
       </c>
       <c r="D56" t="n">
-        <v>47.7</v>
+        <v>49.6</v>
       </c>
       <c r="E56" t="n">
-        <v>47.7</v>
+        <v>49.6</v>
       </c>
       <c r="F56" t="n">
-        <v>756.8533</v>
+        <v>738.2298</v>
       </c>
       <c r="G56" t="n">
-        <v>47.73999999999991</v>
+        <v>178169.6957775</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2406,8 +2734,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2418,22 +2752,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>47.7</v>
+        <v>49</v>
       </c>
       <c r="C57" t="n">
-        <v>47.7</v>
+        <v>48.4</v>
       </c>
       <c r="D57" t="n">
-        <v>47.7</v>
+        <v>49</v>
       </c>
       <c r="E57" t="n">
-        <v>47.7</v>
+        <v>48.4</v>
       </c>
       <c r="F57" t="n">
-        <v>1100</v>
+        <v>4378.7835</v>
       </c>
       <c r="G57" t="n">
-        <v>47.6999999999999</v>
+        <v>173790.9122775</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2442,8 +2776,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2454,22 +2794,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>47.8</v>
+        <v>48.9</v>
       </c>
       <c r="C58" t="n">
-        <v>47.8</v>
+        <v>49</v>
       </c>
       <c r="D58" t="n">
-        <v>47.8</v>
+        <v>49</v>
       </c>
       <c r="E58" t="n">
-        <v>47.8</v>
+        <v>48.9</v>
       </c>
       <c r="F58" t="n">
-        <v>1295.8393</v>
+        <v>10000</v>
       </c>
       <c r="G58" t="n">
-        <v>47.7199999999999</v>
+        <v>183790.9122775</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2478,8 +2818,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2490,22 +2836,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>47.7</v>
+        <v>49.2</v>
       </c>
       <c r="C59" t="n">
-        <v>47.7</v>
+        <v>49.8</v>
       </c>
       <c r="D59" t="n">
-        <v>47.7</v>
+        <v>49.8</v>
       </c>
       <c r="E59" t="n">
-        <v>47.7</v>
+        <v>49.2</v>
       </c>
       <c r="F59" t="n">
-        <v>908.577</v>
+        <v>20712.3219</v>
       </c>
       <c r="G59" t="n">
-        <v>47.7199999999999</v>
+        <v>204503.2341775</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2514,8 +2860,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2526,22 +2878,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>47.7</v>
+        <v>49</v>
       </c>
       <c r="C60" t="n">
-        <v>47.7</v>
+        <v>48.7</v>
       </c>
       <c r="D60" t="n">
-        <v>47.7</v>
+        <v>49</v>
       </c>
       <c r="E60" t="n">
-        <v>47.7</v>
+        <v>48.7</v>
       </c>
       <c r="F60" t="n">
-        <v>999.9999</v>
+        <v>2994.1364</v>
       </c>
       <c r="G60" t="n">
-        <v>47.7199999999999</v>
+        <v>201509.0977775</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2550,8 +2902,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2562,22 +2920,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>47.8</v>
+        <v>48.9</v>
       </c>
       <c r="C61" t="n">
-        <v>47.8</v>
+        <v>49</v>
       </c>
       <c r="D61" t="n">
-        <v>47.8</v>
+        <v>49</v>
       </c>
       <c r="E61" t="n">
-        <v>47.8</v>
+        <v>48.9</v>
       </c>
       <c r="F61" t="n">
-        <v>122.0083682</v>
+        <v>7180</v>
       </c>
       <c r="G61" t="n">
-        <v>47.73999999999991</v>
+        <v>208689.0977775</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2586,8 +2944,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2598,22 +2962,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>47.6</v>
+        <v>48.8</v>
       </c>
       <c r="C62" t="n">
-        <v>47.6</v>
+        <v>48.8</v>
       </c>
       <c r="D62" t="n">
-        <v>47.6</v>
+        <v>48.8</v>
       </c>
       <c r="E62" t="n">
-        <v>47.6</v>
+        <v>48.8</v>
       </c>
       <c r="F62" t="n">
-        <v>11349.9649</v>
+        <v>1364.0253</v>
       </c>
       <c r="G62" t="n">
-        <v>47.71999999999991</v>
+        <v>207325.0724775</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2622,8 +2986,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2634,22 +3004,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>47.6</v>
+        <v>48.4</v>
       </c>
       <c r="C63" t="n">
-        <v>47.6</v>
+        <v>48.4</v>
       </c>
       <c r="D63" t="n">
-        <v>47.6</v>
+        <v>48.4</v>
       </c>
       <c r="E63" t="n">
-        <v>47.6</v>
+        <v>48.4</v>
       </c>
       <c r="F63" t="n">
-        <v>57344.5024</v>
+        <v>1060.2796</v>
       </c>
       <c r="G63" t="n">
-        <v>47.67999999999991</v>
+        <v>206264.7928775</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2658,8 +3028,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2670,22 +3046,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>47.5</v>
+        <v>48.9</v>
       </c>
       <c r="C64" t="n">
-        <v>47.5</v>
+        <v>49</v>
       </c>
       <c r="D64" t="n">
-        <v>47.5</v>
+        <v>49</v>
       </c>
       <c r="E64" t="n">
-        <v>47.5</v>
+        <v>48.9</v>
       </c>
       <c r="F64" t="n">
-        <v>19462.4009</v>
+        <v>14693.8149</v>
       </c>
       <c r="G64" t="n">
-        <v>47.63999999999992</v>
+        <v>220958.6077775</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2694,8 +3070,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2706,22 +3088,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>47.6</v>
+        <v>49</v>
       </c>
       <c r="C65" t="n">
-        <v>47.2</v>
+        <v>49</v>
       </c>
       <c r="D65" t="n">
-        <v>47.6</v>
+        <v>49</v>
       </c>
       <c r="E65" t="n">
-        <v>47.2</v>
+        <v>49</v>
       </c>
       <c r="F65" t="n">
-        <v>39975.7941</v>
+        <v>36121.9589</v>
       </c>
       <c r="G65" t="n">
-        <v>47.53999999999992</v>
+        <v>220958.6077775</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2730,8 +3112,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2742,22 +3130,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>47.9</v>
+        <v>49.2</v>
       </c>
       <c r="C66" t="n">
-        <v>47.9</v>
+        <v>49.2</v>
       </c>
       <c r="D66" t="n">
-        <v>47.9</v>
+        <v>49.2</v>
       </c>
       <c r="E66" t="n">
-        <v>47.9</v>
+        <v>49.2</v>
       </c>
       <c r="F66" t="n">
-        <v>90.31310000000001</v>
+        <v>1272.258</v>
       </c>
       <c r="G66" t="n">
-        <v>47.55999999999991</v>
+        <v>222230.8657775</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2766,8 +3154,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +3172,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>47.3</v>
+        <v>49.6</v>
       </c>
       <c r="C67" t="n">
-        <v>47.3</v>
+        <v>49.6</v>
       </c>
       <c r="D67" t="n">
-        <v>47.3</v>
+        <v>49.6</v>
       </c>
       <c r="E67" t="n">
-        <v>47.3</v>
+        <v>49.6</v>
       </c>
       <c r="F67" t="n">
-        <v>505.3666</v>
+        <v>90</v>
       </c>
       <c r="G67" t="n">
-        <v>47.49999999999991</v>
+        <v>222320.8657775</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2802,8 +3196,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2814,22 +3214,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>47.8</v>
+        <v>49.7</v>
       </c>
       <c r="C68" t="n">
-        <v>47.8</v>
+        <v>50</v>
       </c>
       <c r="D68" t="n">
-        <v>47.8</v>
+        <v>50</v>
       </c>
       <c r="E68" t="n">
-        <v>47.3</v>
+        <v>49.7</v>
       </c>
       <c r="F68" t="n">
-        <v>131.6522</v>
+        <v>19210.0539</v>
       </c>
       <c r="G68" t="n">
-        <v>47.53999999999991</v>
+        <v>241530.9196775</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2838,8 +3238,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2850,58 +3256,66 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>47.3</v>
+        <v>50</v>
       </c>
       <c r="C69" t="n">
-        <v>47.5</v>
+        <v>50</v>
       </c>
       <c r="D69" t="n">
-        <v>47.8</v>
+        <v>50</v>
       </c>
       <c r="E69" t="n">
-        <v>47.3</v>
+        <v>50</v>
       </c>
       <c r="F69" t="n">
-        <v>315.0418</v>
+        <v>8000</v>
       </c>
       <c r="G69" t="n">
-        <v>47.53999999999992</v>
+        <v>241530.9196775</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>1.056571125265393</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1.002127659574468</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>47.6</v>
+        <v>50</v>
       </c>
       <c r="C70" t="n">
-        <v>47.6</v>
+        <v>50</v>
       </c>
       <c r="D70" t="n">
-        <v>47.6</v>
+        <v>50</v>
       </c>
       <c r="E70" t="n">
-        <v>47.6</v>
+        <v>50</v>
       </c>
       <c r="F70" t="n">
-        <v>1243.2343</v>
+        <v>1100.1093</v>
       </c>
       <c r="G70" t="n">
-        <v>47.61999999999993</v>
+        <v>241530.9196775</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +3336,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>47.5</v>
+        <v>49.9</v>
       </c>
       <c r="C71" t="n">
-        <v>47.5</v>
+        <v>49.9</v>
       </c>
       <c r="D71" t="n">
-        <v>47.5</v>
+        <v>49.9</v>
       </c>
       <c r="E71" t="n">
-        <v>47.5</v>
+        <v>49.9</v>
       </c>
       <c r="F71" t="n">
-        <v>10</v>
+        <v>4008.016</v>
       </c>
       <c r="G71" t="n">
-        <v>47.53999999999992</v>
+        <v>237522.9036775</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +3372,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>47.4</v>
+        <v>49.9</v>
       </c>
       <c r="C72" t="n">
-        <v>47.3</v>
+        <v>49.9</v>
       </c>
       <c r="D72" t="n">
-        <v>47.4</v>
+        <v>49.9</v>
       </c>
       <c r="E72" t="n">
-        <v>47.2</v>
+        <v>49.9</v>
       </c>
       <c r="F72" t="n">
-        <v>12780.9956</v>
+        <v>858.123</v>
       </c>
       <c r="G72" t="n">
-        <v>47.53999999999992</v>
+        <v>237522.9036775</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +3408,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>47.8</v>
+        <v>49.9</v>
       </c>
       <c r="C73" t="n">
-        <v>47.8</v>
+        <v>49.9</v>
       </c>
       <c r="D73" t="n">
-        <v>47.8</v>
+        <v>49.9</v>
       </c>
       <c r="E73" t="n">
-        <v>47.8</v>
+        <v>49.9</v>
       </c>
       <c r="F73" t="n">
-        <v>19.2468</v>
+        <v>2496.1088</v>
       </c>
       <c r="G73" t="n">
-        <v>47.53999999999992</v>
+        <v>237522.9036775</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3444,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>47.3</v>
+        <v>50</v>
       </c>
       <c r="C74" t="n">
-        <v>47.3</v>
+        <v>50</v>
       </c>
       <c r="D74" t="n">
-        <v>47.3</v>
+        <v>50</v>
       </c>
       <c r="E74" t="n">
-        <v>47.2</v>
+        <v>50</v>
       </c>
       <c r="F74" t="n">
-        <v>4036.5561</v>
+        <v>1034.56</v>
       </c>
       <c r="G74" t="n">
-        <v>47.49999999999992</v>
+        <v>238557.4636775</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3480,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>47.3</v>
+        <v>50</v>
       </c>
       <c r="C75" t="n">
-        <v>47.3</v>
+        <v>50</v>
       </c>
       <c r="D75" t="n">
-        <v>47.3</v>
+        <v>50</v>
       </c>
       <c r="E75" t="n">
-        <v>47.3</v>
+        <v>50</v>
       </c>
       <c r="F75" t="n">
-        <v>1815.2114</v>
+        <v>4285</v>
       </c>
       <c r="G75" t="n">
-        <v>47.43999999999993</v>
+        <v>238557.4636775</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3516,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>47.2</v>
+        <v>50</v>
       </c>
       <c r="C76" t="n">
-        <v>47.2</v>
+        <v>50.2</v>
       </c>
       <c r="D76" t="n">
-        <v>47.2</v>
+        <v>50.2</v>
       </c>
       <c r="E76" t="n">
-        <v>47.2</v>
+        <v>50</v>
       </c>
       <c r="F76" t="n">
-        <v>9251.083500000001</v>
+        <v>5694</v>
       </c>
       <c r="G76" t="n">
-        <v>47.37999999999992</v>
+        <v>244251.4636775</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3552,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>47.2</v>
+        <v>49.9</v>
       </c>
       <c r="C77" t="n">
-        <v>47.2</v>
+        <v>50.3</v>
       </c>
       <c r="D77" t="n">
-        <v>47.2</v>
+        <v>50.3</v>
       </c>
       <c r="E77" t="n">
-        <v>47.2</v>
+        <v>49.4</v>
       </c>
       <c r="F77" t="n">
-        <v>6134.6071</v>
+        <v>97242.49950000001</v>
       </c>
       <c r="G77" t="n">
-        <v>47.35999999999992</v>
+        <v>341493.9631774999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,28 +3588,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>47.2</v>
+        <v>50.3</v>
       </c>
       <c r="C78" t="n">
-        <v>47.2</v>
+        <v>50.3</v>
       </c>
       <c r="D78" t="n">
-        <v>47.2</v>
+        <v>50.3</v>
       </c>
       <c r="E78" t="n">
-        <v>47.2</v>
+        <v>50.3</v>
       </c>
       <c r="F78" t="n">
-        <v>25319.9286</v>
+        <v>17015.5943</v>
       </c>
       <c r="G78" t="n">
-        <v>47.23999999999992</v>
+        <v>341493.9631774999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3210,28 +3624,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>47.2</v>
+        <v>50.3</v>
       </c>
       <c r="C79" t="n">
-        <v>47.2</v>
+        <v>50.3</v>
       </c>
       <c r="D79" t="n">
-        <v>47.2</v>
+        <v>50.3</v>
       </c>
       <c r="E79" t="n">
-        <v>47.2</v>
+        <v>50.3</v>
       </c>
       <c r="F79" t="n">
-        <v>20694.4531</v>
+        <v>15080.5917</v>
       </c>
       <c r="G79" t="n">
-        <v>47.21999999999991</v>
+        <v>341493.9631774999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3246,28 +3660,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>47.2</v>
+        <v>50.3</v>
       </c>
       <c r="C80" t="n">
-        <v>47.2</v>
+        <v>50.3</v>
       </c>
       <c r="D80" t="n">
-        <v>47.2</v>
+        <v>50.3</v>
       </c>
       <c r="E80" t="n">
-        <v>47.2</v>
+        <v>50.3</v>
       </c>
       <c r="F80" t="n">
-        <v>66.9533</v>
+        <v>66594.9999</v>
       </c>
       <c r="G80" t="n">
-        <v>47.19999999999991</v>
+        <v>341493.9631774999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3282,28 +3696,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>47.2</v>
+        <v>50.3</v>
       </c>
       <c r="C81" t="n">
-        <v>47.2</v>
+        <v>51</v>
       </c>
       <c r="D81" t="n">
-        <v>47.2</v>
+        <v>51</v>
       </c>
       <c r="E81" t="n">
-        <v>47.2</v>
+        <v>50.3</v>
       </c>
       <c r="F81" t="n">
-        <v>91.75020000000001</v>
+        <v>126839.917</v>
       </c>
       <c r="G81" t="n">
-        <v>47.19999999999991</v>
+        <v>468333.8801775</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3318,28 +3732,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>47.2</v>
+        <v>51</v>
       </c>
       <c r="C82" t="n">
-        <v>47.2</v>
+        <v>51.5</v>
       </c>
       <c r="D82" t="n">
-        <v>47.2</v>
+        <v>51.5</v>
       </c>
       <c r="E82" t="n">
-        <v>47.2</v>
+        <v>50.8</v>
       </c>
       <c r="F82" t="n">
-        <v>516.7818</v>
+        <v>26699.6528</v>
       </c>
       <c r="G82" t="n">
-        <v>47.19999999999991</v>
+        <v>495033.5329774999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3354,28 +3768,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>47.2</v>
+        <v>50.5</v>
       </c>
       <c r="C83" t="n">
-        <v>47.3</v>
+        <v>50.5</v>
       </c>
       <c r="D83" t="n">
-        <v>47.3</v>
+        <v>50.5</v>
       </c>
       <c r="E83" t="n">
-        <v>47.2</v>
+        <v>50.5</v>
       </c>
       <c r="F83" t="n">
-        <v>17563.5384</v>
+        <v>1100</v>
       </c>
       <c r="G83" t="n">
-        <v>47.21999999999991</v>
+        <v>493933.5329774999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3390,28 +3804,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>47.4</v>
+        <v>50.1</v>
       </c>
       <c r="C84" t="n">
-        <v>47.4</v>
+        <v>48.7</v>
       </c>
       <c r="D84" t="n">
-        <v>47.4</v>
+        <v>50.1</v>
       </c>
       <c r="E84" t="n">
-        <v>47.4</v>
+        <v>48.6</v>
       </c>
       <c r="F84" t="n">
-        <v>2016.0294</v>
+        <v>16509.7166</v>
       </c>
       <c r="G84" t="n">
-        <v>47.25999999999991</v>
+        <v>477423.8163775</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3426,28 +3840,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>47.6</v>
+        <v>48.5</v>
       </c>
       <c r="C85" t="n">
-        <v>47.6</v>
+        <v>48.5</v>
       </c>
       <c r="D85" t="n">
-        <v>47.6</v>
+        <v>48.5</v>
       </c>
       <c r="E85" t="n">
-        <v>47.6</v>
+        <v>48.5</v>
       </c>
       <c r="F85" t="n">
-        <v>10000</v>
+        <v>2200</v>
       </c>
       <c r="G85" t="n">
-        <v>47.33999999999992</v>
+        <v>475223.8163775</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3462,22 +3876,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>47.5</v>
+        <v>48.5</v>
       </c>
       <c r="C86" t="n">
-        <v>47.5</v>
+        <v>47.7</v>
       </c>
       <c r="D86" t="n">
-        <v>47.5</v>
+        <v>48.5</v>
       </c>
       <c r="E86" t="n">
-        <v>47.5</v>
+        <v>47.7</v>
       </c>
       <c r="F86" t="n">
-        <v>1385.224</v>
+        <v>3128.2002</v>
       </c>
       <c r="G86" t="n">
-        <v>47.39999999999992</v>
+        <v>472095.6161774999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,22 +3912,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>47.6</v>
+        <v>48.4</v>
       </c>
       <c r="C87" t="n">
-        <v>47.6</v>
+        <v>48.4</v>
       </c>
       <c r="D87" t="n">
-        <v>47.6</v>
+        <v>48.4</v>
       </c>
       <c r="E87" t="n">
-        <v>47.6</v>
+        <v>48.4</v>
       </c>
       <c r="F87" t="n">
-        <v>1017.3867</v>
+        <v>7238</v>
       </c>
       <c r="G87" t="n">
-        <v>47.47999999999993</v>
+        <v>479333.6161774999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +3948,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>47.4</v>
+        <v>48.6</v>
       </c>
       <c r="C88" t="n">
-        <v>47.4</v>
+        <v>48.6</v>
       </c>
       <c r="D88" t="n">
-        <v>47.4</v>
+        <v>48.6</v>
       </c>
       <c r="E88" t="n">
-        <v>47.4</v>
+        <v>48.6</v>
       </c>
       <c r="F88" t="n">
-        <v>1026.1556</v>
+        <v>1056.2002</v>
       </c>
       <c r="G88" t="n">
-        <v>47.49999999999992</v>
+        <v>480389.8163775</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3984,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>47.2</v>
+        <v>48.9</v>
       </c>
       <c r="C89" t="n">
-        <v>47.2</v>
+        <v>48.9</v>
       </c>
       <c r="D89" t="n">
-        <v>47.2</v>
+        <v>48.9</v>
       </c>
       <c r="E89" t="n">
-        <v>47.2</v>
+        <v>48.9</v>
       </c>
       <c r="F89" t="n">
-        <v>226.1798</v>
+        <v>361.5566</v>
       </c>
       <c r="G89" t="n">
-        <v>47.45999999999992</v>
+        <v>480751.3729775</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +4020,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>47.4</v>
+        <v>48.7</v>
       </c>
       <c r="C90" t="n">
-        <v>47.4</v>
+        <v>48.7</v>
       </c>
       <c r="D90" t="n">
-        <v>47.4</v>
+        <v>48.8</v>
       </c>
       <c r="E90" t="n">
-        <v>47.4</v>
+        <v>48.7</v>
       </c>
       <c r="F90" t="n">
-        <v>10735.0849</v>
+        <v>2854</v>
       </c>
       <c r="G90" t="n">
-        <v>47.41999999999992</v>
+        <v>477897.3729775</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,28 +4056,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>47.4</v>
+        <v>48.7</v>
       </c>
       <c r="C91" t="n">
-        <v>47.4</v>
+        <v>48.7</v>
       </c>
       <c r="D91" t="n">
-        <v>47.4</v>
+        <v>48.7</v>
       </c>
       <c r="E91" t="n">
-        <v>47.4</v>
+        <v>48.7</v>
       </c>
       <c r="F91" t="n">
-        <v>39444.6202</v>
+        <v>6368</v>
       </c>
       <c r="G91" t="n">
-        <v>47.39999999999992</v>
+        <v>477897.3729775</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3678,28 +4092,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>47.5</v>
+        <v>48.8</v>
       </c>
       <c r="C92" t="n">
-        <v>47.5</v>
+        <v>48.9</v>
       </c>
       <c r="D92" t="n">
-        <v>47.5</v>
+        <v>48.9</v>
       </c>
       <c r="E92" t="n">
-        <v>47.5</v>
+        <v>48.8</v>
       </c>
       <c r="F92" t="n">
-        <v>21052.63157894</v>
+        <v>4644.2894</v>
       </c>
       <c r="G92" t="n">
-        <v>47.37999999999992</v>
+        <v>482541.6623775</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3714,28 +4128,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>47.3</v>
+        <v>48.9</v>
       </c>
       <c r="C93" t="n">
-        <v>47.3</v>
+        <v>48.9</v>
       </c>
       <c r="D93" t="n">
-        <v>47.3</v>
+        <v>48.9</v>
       </c>
       <c r="E93" t="n">
-        <v>47.3</v>
+        <v>48.9</v>
       </c>
       <c r="F93" t="n">
-        <v>349.9664</v>
+        <v>10517.852</v>
       </c>
       <c r="G93" t="n">
-        <v>47.35999999999991</v>
+        <v>482541.6623775</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3750,22 +4164,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>47.2</v>
+        <v>48.9</v>
       </c>
       <c r="C94" t="n">
-        <v>47.2</v>
+        <v>48.8</v>
       </c>
       <c r="D94" t="n">
-        <v>47.2</v>
+        <v>48.9</v>
       </c>
       <c r="E94" t="n">
-        <v>47.2</v>
+        <v>48.8</v>
       </c>
       <c r="F94" t="n">
-        <v>4734.4498</v>
+        <v>12271.7742</v>
       </c>
       <c r="G94" t="n">
-        <v>47.35999999999992</v>
+        <v>470269.8881775</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,22 +4200,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>47.2</v>
+        <v>48.9</v>
       </c>
       <c r="C95" t="n">
-        <v>47.2</v>
+        <v>48.9</v>
       </c>
       <c r="D95" t="n">
-        <v>47.2</v>
+        <v>48.9</v>
       </c>
       <c r="E95" t="n">
-        <v>47.2</v>
+        <v>48.9</v>
       </c>
       <c r="F95" t="n">
-        <v>681</v>
+        <v>2769.2943</v>
       </c>
       <c r="G95" t="n">
-        <v>47.31999999999992</v>
+        <v>473039.1824775</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3822,22 +4236,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>47.3</v>
+        <v>49</v>
       </c>
       <c r="C96" t="n">
-        <v>47.3</v>
+        <v>49</v>
       </c>
       <c r="D96" t="n">
-        <v>47.3</v>
+        <v>49</v>
       </c>
       <c r="E96" t="n">
-        <v>47.3</v>
+        <v>49</v>
       </c>
       <c r="F96" t="n">
-        <v>6677.5249</v>
+        <v>345.2531</v>
       </c>
       <c r="G96" t="n">
-        <v>47.29999999999991</v>
+        <v>473384.4355775</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,22 +4272,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>47.5</v>
+        <v>49.4</v>
       </c>
       <c r="C97" t="n">
-        <v>47.5</v>
+        <v>49.3</v>
       </c>
       <c r="D97" t="n">
-        <v>47.5</v>
+        <v>49.4</v>
       </c>
       <c r="E97" t="n">
-        <v>47.5</v>
+        <v>49.3</v>
       </c>
       <c r="F97" t="n">
-        <v>520.7536</v>
+        <v>1904.9038</v>
       </c>
       <c r="G97" t="n">
-        <v>47.29999999999991</v>
+        <v>475289.3393775</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,22 +4308,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>47.6</v>
+        <v>49.3</v>
       </c>
       <c r="C98" t="n">
-        <v>47.6</v>
+        <v>49.7</v>
       </c>
       <c r="D98" t="n">
-        <v>47.6</v>
+        <v>49.7</v>
       </c>
       <c r="E98" t="n">
-        <v>47.6</v>
+        <v>49.3</v>
       </c>
       <c r="F98" t="n">
-        <v>1341.8451</v>
+        <v>20194.349</v>
       </c>
       <c r="G98" t="n">
-        <v>47.35999999999991</v>
+        <v>495483.6883775</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,22 +4344,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>47.5</v>
+        <v>49.2</v>
       </c>
       <c r="C99" t="n">
-        <v>47.5</v>
+        <v>49.1</v>
       </c>
       <c r="D99" t="n">
-        <v>47.5</v>
+        <v>49.2</v>
       </c>
       <c r="E99" t="n">
-        <v>47.5</v>
+        <v>49.1</v>
       </c>
       <c r="F99" t="n">
-        <v>920.8267</v>
+        <v>32520.9998</v>
       </c>
       <c r="G99" t="n">
-        <v>47.41999999999992</v>
+        <v>462962.6885775</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3966,22 +4380,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>48.2</v>
+        <v>49.1</v>
       </c>
       <c r="C100" t="n">
-        <v>48.4</v>
+        <v>49.2</v>
       </c>
       <c r="D100" t="n">
-        <v>48.4</v>
+        <v>49.2</v>
       </c>
       <c r="E100" t="n">
-        <v>48.2</v>
+        <v>49.1</v>
       </c>
       <c r="F100" t="n">
-        <v>20667.99105888</v>
+        <v>12071.2538</v>
       </c>
       <c r="G100" t="n">
-        <v>47.65999999999991</v>
+        <v>475033.9423775</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4002,22 +4416,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>47.8</v>
+        <v>49.2</v>
       </c>
       <c r="C101" t="n">
-        <v>47.6</v>
+        <v>49.1</v>
       </c>
       <c r="D101" t="n">
-        <v>47.8</v>
+        <v>49.2</v>
       </c>
       <c r="E101" t="n">
-        <v>47.6</v>
+        <v>49.1</v>
       </c>
       <c r="F101" t="n">
-        <v>4200</v>
+        <v>28033.0349</v>
       </c>
       <c r="G101" t="n">
-        <v>47.71999999999991</v>
+        <v>447000.9074775</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4038,28 +4452,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>47.8</v>
+        <v>49.1</v>
       </c>
       <c r="C102" t="n">
-        <v>47.8</v>
+        <v>49.1</v>
       </c>
       <c r="D102" t="n">
-        <v>47.8</v>
+        <v>49.1</v>
       </c>
       <c r="E102" t="n">
-        <v>47.8</v>
+        <v>49.1</v>
       </c>
       <c r="F102" t="n">
-        <v>1540.88</v>
+        <v>104491.8616</v>
       </c>
       <c r="G102" t="n">
-        <v>47.77999999999992</v>
+        <v>447000.9074775</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4074,28 +4488,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>48.1</v>
+        <v>49</v>
       </c>
       <c r="C103" t="n">
-        <v>48.1</v>
+        <v>49</v>
       </c>
       <c r="D103" t="n">
-        <v>48.1</v>
+        <v>49</v>
       </c>
       <c r="E103" t="n">
-        <v>48.1</v>
+        <v>49</v>
       </c>
       <c r="F103" t="n">
-        <v>2780</v>
+        <v>1760.2398</v>
       </c>
       <c r="G103" t="n">
-        <v>47.87999999999992</v>
+        <v>445240.6676775001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4110,22 +4524,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>48</v>
+        <v>49.1</v>
       </c>
       <c r="C104" t="n">
-        <v>48</v>
+        <v>49.1</v>
       </c>
       <c r="D104" t="n">
-        <v>48</v>
+        <v>49.1</v>
       </c>
       <c r="E104" t="n">
-        <v>48</v>
+        <v>49.1</v>
       </c>
       <c r="F104" t="n">
-        <v>16894.227</v>
+        <v>498.0589</v>
       </c>
       <c r="G104" t="n">
-        <v>47.97999999999993</v>
+        <v>445738.7265775001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4146,28 +4560,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>48.1</v>
+        <v>49.1</v>
       </c>
       <c r="C105" t="n">
-        <v>48.1</v>
+        <v>49</v>
       </c>
       <c r="D105" t="n">
-        <v>48.1</v>
+        <v>49.2</v>
       </c>
       <c r="E105" t="n">
-        <v>48.1</v>
+        <v>49</v>
       </c>
       <c r="F105" t="n">
-        <v>5000</v>
+        <v>6302.49673008</v>
       </c>
       <c r="G105" t="n">
-        <v>47.91999999999993</v>
+        <v>439436.2298474201</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4182,28 +4596,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>47.8</v>
+        <v>49</v>
       </c>
       <c r="C106" t="n">
-        <v>48.2</v>
+        <v>48.9</v>
       </c>
       <c r="D106" t="n">
-        <v>48.2</v>
+        <v>49</v>
       </c>
       <c r="E106" t="n">
-        <v>47.8</v>
+        <v>48.9</v>
       </c>
       <c r="F106" t="n">
-        <v>8930.164000000001</v>
+        <v>50050.3403</v>
       </c>
       <c r="G106" t="n">
-        <v>48.03999999999994</v>
+        <v>389385.8895474201</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4218,22 +4632,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>48</v>
+        <v>48.9</v>
       </c>
       <c r="C107" t="n">
-        <v>48</v>
+        <v>48.9</v>
       </c>
       <c r="D107" t="n">
-        <v>48</v>
+        <v>48.9</v>
       </c>
       <c r="E107" t="n">
-        <v>48</v>
+        <v>48.9</v>
       </c>
       <c r="F107" t="n">
-        <v>1100</v>
+        <v>12871.6689</v>
       </c>
       <c r="G107" t="n">
-        <v>48.07999999999994</v>
+        <v>389385.8895474201</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4254,22 +4668,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>48</v>
+        <v>48.8</v>
       </c>
       <c r="C108" t="n">
-        <v>48</v>
+        <v>48.8</v>
       </c>
       <c r="D108" t="n">
-        <v>48</v>
+        <v>48.8</v>
       </c>
       <c r="E108" t="n">
-        <v>48</v>
+        <v>48.8</v>
       </c>
       <c r="F108" t="n">
-        <v>492.2962</v>
+        <v>2000</v>
       </c>
       <c r="G108" t="n">
-        <v>48.05999999999994</v>
+        <v>387385.8895474201</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4290,22 +4704,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="C109" t="n">
-        <v>48.2</v>
+        <v>47.6</v>
       </c>
       <c r="D109" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="E109" t="n">
-        <v>48.2</v>
+        <v>47.6</v>
       </c>
       <c r="F109" t="n">
-        <v>645.0766</v>
+        <v>123152.9186</v>
       </c>
       <c r="G109" t="n">
-        <v>48.09999999999994</v>
+        <v>264232.9709474201</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4326,22 +4740,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>48.1</v>
+        <v>48.3</v>
       </c>
       <c r="C110" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="D110" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="E110" t="n">
-        <v>48.1</v>
+        <v>48.3</v>
       </c>
       <c r="F110" t="n">
-        <v>1962</v>
+        <v>2017</v>
       </c>
       <c r="G110" t="n">
-        <v>48.11999999999994</v>
+        <v>266249.9709474201</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4365,19 +4779,19 @@
         <v>48.5</v>
       </c>
       <c r="C111" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="D111" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="E111" t="n">
         <v>48.5</v>
       </c>
       <c r="F111" t="n">
-        <v>99683.0658</v>
+        <v>6334.2474</v>
       </c>
       <c r="G111" t="n">
-        <v>48.19999999999995</v>
+        <v>272584.2183474201</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4398,22 +4812,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="C112" t="n">
-        <v>48.6</v>
+        <v>48.1</v>
       </c>
       <c r="D112" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="E112" t="n">
-        <v>48.6</v>
+        <v>48.1</v>
       </c>
       <c r="F112" t="n">
-        <v>16906.9999</v>
+        <v>1981.5901</v>
       </c>
       <c r="G112" t="n">
-        <v>48.31999999999995</v>
+        <v>270602.6282474201</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4434,22 +4848,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>48.6</v>
+        <v>48.3</v>
       </c>
       <c r="C113" t="n">
-        <v>48.5</v>
+        <v>48.3</v>
       </c>
       <c r="D113" t="n">
-        <v>48.6</v>
+        <v>48.3</v>
       </c>
       <c r="E113" t="n">
-        <v>48.5</v>
+        <v>48.3</v>
       </c>
       <c r="F113" t="n">
-        <v>15809.9352</v>
+        <v>1333.4346</v>
       </c>
       <c r="G113" t="n">
-        <v>48.41999999999994</v>
+        <v>271936.0628474201</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4470,22 +4884,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>48.5</v>
+        <v>48.1</v>
       </c>
       <c r="C114" t="n">
-        <v>48.5</v>
+        <v>48.1</v>
       </c>
       <c r="D114" t="n">
-        <v>48.5</v>
+        <v>48.1</v>
       </c>
       <c r="E114" t="n">
-        <v>48.5</v>
+        <v>48.1</v>
       </c>
       <c r="F114" t="n">
-        <v>10000</v>
+        <v>10395.0103</v>
       </c>
       <c r="G114" t="n">
-        <v>48.47999999999995</v>
+        <v>261541.0525474201</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4506,22 +4920,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>48.5</v>
+        <v>48.1</v>
       </c>
       <c r="C115" t="n">
-        <v>48.5</v>
+        <v>48.1</v>
       </c>
       <c r="D115" t="n">
-        <v>48.5</v>
+        <v>48.1</v>
       </c>
       <c r="E115" t="n">
-        <v>48.5</v>
+        <v>48.1</v>
       </c>
       <c r="F115" t="n">
-        <v>23421.1156</v>
+        <v>824.999</v>
       </c>
       <c r="G115" t="n">
-        <v>48.53999999999995</v>
+        <v>261541.0525474201</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4542,22 +4956,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>48.6</v>
+        <v>48</v>
       </c>
       <c r="C116" t="n">
-        <v>48.6</v>
+        <v>47.9</v>
       </c>
       <c r="D116" t="n">
-        <v>48.6</v>
+        <v>48</v>
       </c>
       <c r="E116" t="n">
-        <v>48.6</v>
+        <v>47.9</v>
       </c>
       <c r="F116" t="n">
-        <v>771.9058</v>
+        <v>8121.104</v>
       </c>
       <c r="G116" t="n">
-        <v>48.53999999999996</v>
+        <v>253419.9485474201</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4578,22 +4992,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>48.9</v>
+        <v>47.9</v>
       </c>
       <c r="C117" t="n">
-        <v>48.9</v>
+        <v>48.2</v>
       </c>
       <c r="D117" t="n">
-        <v>48.9</v>
+        <v>48.2</v>
       </c>
       <c r="E117" t="n">
-        <v>48.9</v>
+        <v>47.9</v>
       </c>
       <c r="F117" t="n">
-        <v>500</v>
+        <v>21821.5838</v>
       </c>
       <c r="G117" t="n">
-        <v>48.59999999999996</v>
+        <v>275241.5323474201</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4614,22 +5028,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>49.2</v>
+        <v>48.1</v>
       </c>
       <c r="C118" t="n">
-        <v>49.2</v>
+        <v>48.1</v>
       </c>
       <c r="D118" t="n">
-        <v>49.2</v>
+        <v>48.1</v>
       </c>
       <c r="E118" t="n">
-        <v>49.2</v>
+        <v>48.1</v>
       </c>
       <c r="F118" t="n">
-        <v>16.9918</v>
+        <v>16075.0816</v>
       </c>
       <c r="G118" t="n">
-        <v>48.73999999999997</v>
+        <v>259166.4507474201</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4650,22 +5064,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>48.9</v>
+        <v>48.2</v>
       </c>
       <c r="C119" t="n">
-        <v>48.9</v>
+        <v>48.5</v>
       </c>
       <c r="D119" t="n">
-        <v>48.9</v>
+        <v>48.5</v>
       </c>
       <c r="E119" t="n">
-        <v>48.9</v>
+        <v>48.2</v>
       </c>
       <c r="F119" t="n">
-        <v>32.3108</v>
+        <v>31719.9763</v>
       </c>
       <c r="G119" t="n">
-        <v>48.81999999999996</v>
+        <v>290886.4270474201</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4686,22 +5100,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>48.5</v>
+        <v>48</v>
       </c>
       <c r="C120" t="n">
-        <v>48.5</v>
+        <v>48</v>
       </c>
       <c r="D120" t="n">
-        <v>48.5</v>
+        <v>48</v>
       </c>
       <c r="E120" t="n">
-        <v>48.5</v>
+        <v>48</v>
       </c>
       <c r="F120" t="n">
-        <v>763.8634</v>
+        <v>2086.5073</v>
       </c>
       <c r="G120" t="n">
-        <v>48.81999999999996</v>
+        <v>288799.9197474201</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4722,22 +5136,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>48.5</v>
+        <v>48.1</v>
       </c>
       <c r="C121" t="n">
-        <v>48.5</v>
+        <v>48</v>
       </c>
       <c r="D121" t="n">
-        <v>48.5</v>
+        <v>48.1</v>
       </c>
       <c r="E121" t="n">
-        <v>48.5</v>
+        <v>48</v>
       </c>
       <c r="F121" t="n">
-        <v>50260.6807</v>
+        <v>5400</v>
       </c>
       <c r="G121" t="n">
-        <v>48.79999999999996</v>
+        <v>288799.9197474201</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4758,22 +5172,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="C122" t="n">
-        <v>48.2</v>
+        <v>47.8</v>
       </c>
       <c r="D122" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="E122" t="n">
-        <v>48.2</v>
+        <v>47.8</v>
       </c>
       <c r="F122" t="n">
-        <v>4093.7581</v>
+        <v>11962</v>
       </c>
       <c r="G122" t="n">
-        <v>48.65999999999996</v>
+        <v>276837.9197474201</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4794,22 +5208,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>48.4</v>
+        <v>47.9</v>
       </c>
       <c r="C123" t="n">
-        <v>48.4</v>
+        <v>47.9</v>
       </c>
       <c r="D123" t="n">
-        <v>48.4</v>
+        <v>47.9</v>
       </c>
       <c r="E123" t="n">
-        <v>48.4</v>
+        <v>47.9</v>
       </c>
       <c r="F123" t="n">
-        <v>380</v>
+        <v>10271.7388</v>
       </c>
       <c r="G123" t="n">
-        <v>48.49999999999996</v>
+        <v>287109.6585474201</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4830,22 +5244,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>48.3</v>
+        <v>47.7</v>
       </c>
       <c r="C124" t="n">
-        <v>48.3</v>
+        <v>47.7</v>
       </c>
       <c r="D124" t="n">
-        <v>48.3</v>
+        <v>47.8</v>
       </c>
       <c r="E124" t="n">
-        <v>48.3</v>
+        <v>47.7</v>
       </c>
       <c r="F124" t="n">
-        <v>1625.1453</v>
+        <v>46389.7195</v>
       </c>
       <c r="G124" t="n">
-        <v>48.37999999999997</v>
+        <v>240719.9390474201</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4866,22 +5280,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>48.2</v>
+        <v>47.7</v>
       </c>
       <c r="C125" t="n">
-        <v>48.2</v>
+        <v>47.7</v>
       </c>
       <c r="D125" t="n">
-        <v>48.2</v>
+        <v>47.7</v>
       </c>
       <c r="E125" t="n">
-        <v>48.2</v>
+        <v>47.7</v>
       </c>
       <c r="F125" t="n">
-        <v>1328.3882</v>
+        <v>37748.0305</v>
       </c>
       <c r="G125" t="n">
-        <v>48.31999999999997</v>
+        <v>240719.9390474201</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4902,22 +5316,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>48.2</v>
+        <v>47.7</v>
       </c>
       <c r="C126" t="n">
-        <v>48.2</v>
+        <v>47.7</v>
       </c>
       <c r="D126" t="n">
-        <v>48.2</v>
+        <v>47.7</v>
       </c>
       <c r="E126" t="n">
-        <v>48.2</v>
+        <v>47.7</v>
       </c>
       <c r="F126" t="n">
-        <v>1070</v>
+        <v>36200</v>
       </c>
       <c r="G126" t="n">
-        <v>48.25999999999997</v>
+        <v>240719.9390474201</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4938,22 +5352,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>48.1</v>
+        <v>47.7</v>
       </c>
       <c r="C127" t="n">
-        <v>48.1</v>
+        <v>47.7</v>
       </c>
       <c r="D127" t="n">
-        <v>48.1</v>
+        <v>47.7</v>
       </c>
       <c r="E127" t="n">
-        <v>48.1</v>
+        <v>47.7</v>
       </c>
       <c r="F127" t="n">
-        <v>4328</v>
+        <v>756.8533</v>
       </c>
       <c r="G127" t="n">
-        <v>48.23999999999997</v>
+        <v>240719.9390474201</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4974,22 +5388,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>48.1</v>
+        <v>47.7</v>
       </c>
       <c r="C128" t="n">
-        <v>48.1</v>
+        <v>47.7</v>
       </c>
       <c r="D128" t="n">
-        <v>48.1</v>
+        <v>47.7</v>
       </c>
       <c r="E128" t="n">
-        <v>48.1</v>
+        <v>47.7</v>
       </c>
       <c r="F128" t="n">
-        <v>10500</v>
+        <v>1100</v>
       </c>
       <c r="G128" t="n">
-        <v>48.17999999999998</v>
+        <v>240719.9390474201</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5010,22 +5424,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>48.1</v>
+        <v>47.8</v>
       </c>
       <c r="C129" t="n">
-        <v>48.1</v>
+        <v>47.8</v>
       </c>
       <c r="D129" t="n">
-        <v>48.1</v>
+        <v>47.8</v>
       </c>
       <c r="E129" t="n">
-        <v>48.1</v>
+        <v>47.8</v>
       </c>
       <c r="F129" t="n">
-        <v>50</v>
+        <v>1295.8393</v>
       </c>
       <c r="G129" t="n">
-        <v>48.13999999999997</v>
+        <v>242015.7783474201</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5046,22 +5460,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>48.1</v>
+        <v>47.7</v>
       </c>
       <c r="C130" t="n">
-        <v>48.1</v>
+        <v>47.7</v>
       </c>
       <c r="D130" t="n">
-        <v>48.1</v>
+        <v>47.7</v>
       </c>
       <c r="E130" t="n">
-        <v>48.1</v>
+        <v>47.7</v>
       </c>
       <c r="F130" t="n">
-        <v>5000</v>
+        <v>908.577</v>
       </c>
       <c r="G130" t="n">
-        <v>48.11999999999998</v>
+        <v>241107.2013474201</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5082,22 +5496,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>48.1</v>
+        <v>47.7</v>
       </c>
       <c r="C131" t="n">
-        <v>48.1</v>
+        <v>47.7</v>
       </c>
       <c r="D131" t="n">
-        <v>48.1</v>
+        <v>47.7</v>
       </c>
       <c r="E131" t="n">
-        <v>48.1</v>
+        <v>47.7</v>
       </c>
       <c r="F131" t="n">
-        <v>2504.0623</v>
+        <v>999.9999</v>
       </c>
       <c r="G131" t="n">
-        <v>48.09999999999999</v>
+        <v>241107.2013474201</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5118,22 +5532,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>48.2</v>
+        <v>47.8</v>
       </c>
       <c r="C132" t="n">
-        <v>48.2</v>
+        <v>47.8</v>
       </c>
       <c r="D132" t="n">
-        <v>48.2</v>
+        <v>47.8</v>
       </c>
       <c r="E132" t="n">
-        <v>48.2</v>
+        <v>47.8</v>
       </c>
       <c r="F132" t="n">
-        <v>1029.9074</v>
+        <v>122.0083682</v>
       </c>
       <c r="G132" t="n">
-        <v>48.11999999999999</v>
+        <v>241229.2097156201</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5154,22 +5568,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>48.2</v>
+        <v>47.6</v>
       </c>
       <c r="C133" t="n">
-        <v>48.1</v>
+        <v>47.6</v>
       </c>
       <c r="D133" t="n">
-        <v>48.2</v>
+        <v>47.6</v>
       </c>
       <c r="E133" t="n">
-        <v>48.1</v>
+        <v>47.6</v>
       </c>
       <c r="F133" t="n">
-        <v>376.6115</v>
+        <v>11349.9649</v>
       </c>
       <c r="G133" t="n">
-        <v>48.11999999999999</v>
+        <v>229879.2448156201</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5190,22 +5604,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>48</v>
+        <v>47.6</v>
       </c>
       <c r="C134" t="n">
-        <v>48</v>
+        <v>47.6</v>
       </c>
       <c r="D134" t="n">
-        <v>48</v>
+        <v>47.6</v>
       </c>
       <c r="E134" t="n">
-        <v>48</v>
+        <v>47.6</v>
       </c>
       <c r="F134" t="n">
-        <v>500</v>
+        <v>57344.5024</v>
       </c>
       <c r="G134" t="n">
-        <v>48.09999999999998</v>
+        <v>229879.2448156201</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5226,22 +5640,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>48.1</v>
+        <v>47.5</v>
       </c>
       <c r="C135" t="n">
-        <v>48.1</v>
+        <v>47.5</v>
       </c>
       <c r="D135" t="n">
-        <v>48.1</v>
+        <v>47.5</v>
       </c>
       <c r="E135" t="n">
-        <v>48.1</v>
+        <v>47.5</v>
       </c>
       <c r="F135" t="n">
-        <v>6076</v>
+        <v>19462.4009</v>
       </c>
       <c r="G135" t="n">
-        <v>48.09999999999998</v>
+        <v>210416.8439156201</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5262,22 +5676,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>48.2</v>
+        <v>47.6</v>
       </c>
       <c r="C136" t="n">
-        <v>48.2</v>
+        <v>47.2</v>
       </c>
       <c r="D136" t="n">
-        <v>48.2</v>
+        <v>47.6</v>
       </c>
       <c r="E136" t="n">
-        <v>48.2</v>
+        <v>47.2</v>
       </c>
       <c r="F136" t="n">
-        <v>3360</v>
+        <v>39975.7941</v>
       </c>
       <c r="G136" t="n">
-        <v>48.11999999999999</v>
+        <v>170441.0498156201</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5298,22 +5712,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>48.2</v>
+        <v>47.9</v>
       </c>
       <c r="C137" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="D137" t="n">
-        <v>48.2</v>
+        <v>47.9</v>
       </c>
       <c r="E137" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="F137" t="n">
-        <v>21000</v>
+        <v>90.31310000000001</v>
       </c>
       <c r="G137" t="n">
-        <v>48.07999999999998</v>
+        <v>170531.3629156201</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5334,22 +5748,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>48.1</v>
+        <v>47.3</v>
       </c>
       <c r="C138" t="n">
-        <v>48</v>
+        <v>47.3</v>
       </c>
       <c r="D138" t="n">
-        <v>48.1</v>
+        <v>47.3</v>
       </c>
       <c r="E138" t="n">
-        <v>48</v>
+        <v>47.3</v>
       </c>
       <c r="F138" t="n">
-        <v>5724.6849</v>
+        <v>505.3666</v>
       </c>
       <c r="G138" t="n">
-        <v>48.05999999999999</v>
+        <v>170025.9963156201</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5379,13 +5793,13 @@
         <v>47.8</v>
       </c>
       <c r="E139" t="n">
-        <v>47.8</v>
+        <v>47.3</v>
       </c>
       <c r="F139" t="n">
-        <v>1403.5761</v>
+        <v>131.6522</v>
       </c>
       <c r="G139" t="n">
-        <v>48.01999999999998</v>
+        <v>170157.6485156201</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5406,22 +5820,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>48</v>
+        <v>47.3</v>
       </c>
       <c r="C140" t="n">
-        <v>48.2</v>
+        <v>47.5</v>
       </c>
       <c r="D140" t="n">
-        <v>48.2</v>
+        <v>47.8</v>
       </c>
       <c r="E140" t="n">
-        <v>48</v>
+        <v>47.3</v>
       </c>
       <c r="F140" t="n">
-        <v>1490</v>
+        <v>315.0418</v>
       </c>
       <c r="G140" t="n">
-        <v>48.03999999999998</v>
+        <v>169842.6067156201</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5442,22 +5856,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>48.1</v>
+        <v>47.6</v>
       </c>
       <c r="C141" t="n">
-        <v>48.1</v>
+        <v>47.6</v>
       </c>
       <c r="D141" t="n">
-        <v>48.1</v>
+        <v>47.6</v>
       </c>
       <c r="E141" t="n">
-        <v>48.1</v>
+        <v>47.6</v>
       </c>
       <c r="F141" t="n">
-        <v>1419.2829</v>
+        <v>1243.2343</v>
       </c>
       <c r="G141" t="n">
-        <v>48.01999999999998</v>
+        <v>171085.8410156201</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5478,22 +5892,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>47.9</v>
+        <v>47.5</v>
       </c>
       <c r="C142" t="n">
-        <v>47.9</v>
+        <v>47.5</v>
       </c>
       <c r="D142" t="n">
-        <v>47.9</v>
+        <v>47.5</v>
       </c>
       <c r="E142" t="n">
-        <v>47.9</v>
+        <v>47.5</v>
       </c>
       <c r="F142" t="n">
-        <v>9210.9558</v>
+        <v>10</v>
       </c>
       <c r="G142" t="n">
-        <v>47.99999999999998</v>
+        <v>171075.8410156201</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5514,22 +5928,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>47.9</v>
+        <v>47.4</v>
       </c>
       <c r="C143" t="n">
-        <v>47.9</v>
+        <v>47.3</v>
       </c>
       <c r="D143" t="n">
-        <v>47.9</v>
+        <v>47.4</v>
       </c>
       <c r="E143" t="n">
-        <v>47.9</v>
+        <v>47.2</v>
       </c>
       <c r="F143" t="n">
-        <v>3070.3185</v>
+        <v>12780.9956</v>
       </c>
       <c r="G143" t="n">
-        <v>47.97999999999998</v>
+        <v>158294.8454156201</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5550,22 +5964,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>47.9</v>
+        <v>47.8</v>
       </c>
       <c r="C144" t="n">
-        <v>47.9</v>
+        <v>47.8</v>
       </c>
       <c r="D144" t="n">
-        <v>47.9</v>
+        <v>47.8</v>
       </c>
       <c r="E144" t="n">
-        <v>47.9</v>
+        <v>47.8</v>
       </c>
       <c r="F144" t="n">
-        <v>5000</v>
+        <v>19.2468</v>
       </c>
       <c r="G144" t="n">
-        <v>47.99999999999996</v>
+        <v>158314.0922156201</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5586,22 +6000,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>47.9</v>
+        <v>47.3</v>
       </c>
       <c r="C145" t="n">
-        <v>47.9</v>
+        <v>47.3</v>
       </c>
       <c r="D145" t="n">
-        <v>47.9</v>
+        <v>47.3</v>
       </c>
       <c r="E145" t="n">
-        <v>47.9</v>
+        <v>47.2</v>
       </c>
       <c r="F145" t="n">
-        <v>4796.4292</v>
+        <v>4036.5561</v>
       </c>
       <c r="G145" t="n">
-        <v>47.93999999999996</v>
+        <v>154277.5361156201</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5622,22 +6036,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>47.7</v>
+        <v>47.3</v>
       </c>
       <c r="C146" t="n">
-        <v>47.7</v>
+        <v>47.3</v>
       </c>
       <c r="D146" t="n">
-        <v>47.7</v>
+        <v>47.3</v>
       </c>
       <c r="E146" t="n">
-        <v>47.7</v>
+        <v>47.3</v>
       </c>
       <c r="F146" t="n">
-        <v>784</v>
+        <v>1815.2114</v>
       </c>
       <c r="G146" t="n">
-        <v>47.85999999999996</v>
+        <v>154277.5361156201</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5658,22 +6072,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>47.7</v>
+        <v>47.2</v>
       </c>
       <c r="C147" t="n">
-        <v>47.7</v>
+        <v>47.2</v>
       </c>
       <c r="D147" t="n">
-        <v>47.7</v>
+        <v>47.2</v>
       </c>
       <c r="E147" t="n">
-        <v>47.7</v>
+        <v>47.2</v>
       </c>
       <c r="F147" t="n">
-        <v>12467</v>
+        <v>9251.083500000001</v>
       </c>
       <c r="G147" t="n">
-        <v>47.81999999999996</v>
+        <v>145026.4526156201</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5694,22 +6108,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>47.5</v>
+        <v>47.2</v>
       </c>
       <c r="C148" t="n">
-        <v>47.5</v>
+        <v>47.2</v>
       </c>
       <c r="D148" t="n">
-        <v>47.5</v>
+        <v>47.2</v>
       </c>
       <c r="E148" t="n">
-        <v>47.5</v>
+        <v>47.2</v>
       </c>
       <c r="F148" t="n">
-        <v>1263</v>
+        <v>6134.6071</v>
       </c>
       <c r="G148" t="n">
-        <v>47.73999999999996</v>
+        <v>145026.4526156201</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5730,22 +6144,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>47.4</v>
+        <v>47.2</v>
       </c>
       <c r="C149" t="n">
-        <v>47.4</v>
+        <v>47.2</v>
       </c>
       <c r="D149" t="n">
-        <v>47.4</v>
+        <v>47.2</v>
       </c>
       <c r="E149" t="n">
-        <v>47.4</v>
+        <v>47.2</v>
       </c>
       <c r="F149" t="n">
-        <v>2666.2967</v>
+        <v>25319.9286</v>
       </c>
       <c r="G149" t="n">
-        <v>47.63999999999996</v>
+        <v>145026.4526156201</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5766,22 +6180,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>47.4</v>
+        <v>47.2</v>
       </c>
       <c r="C150" t="n">
-        <v>47.4</v>
+        <v>47.2</v>
       </c>
       <c r="D150" t="n">
-        <v>47.4</v>
+        <v>47.2</v>
       </c>
       <c r="E150" t="n">
-        <v>47.4</v>
+        <v>47.2</v>
       </c>
       <c r="F150" t="n">
-        <v>12967.0761</v>
+        <v>20694.4531</v>
       </c>
       <c r="G150" t="n">
-        <v>47.53999999999996</v>
+        <v>145026.4526156201</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5814,10 +6228,10 @@
         <v>47.2</v>
       </c>
       <c r="F151" t="n">
-        <v>20269.5868</v>
+        <v>66.9533</v>
       </c>
       <c r="G151" t="n">
-        <v>47.43999999999996</v>
+        <v>145026.4526156201</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5838,22 +6252,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>47.1</v>
+        <v>47.2</v>
       </c>
       <c r="C152" t="n">
-        <v>47.1</v>
+        <v>47.2</v>
       </c>
       <c r="D152" t="n">
-        <v>47.1</v>
+        <v>47.2</v>
       </c>
       <c r="E152" t="n">
-        <v>47.1</v>
+        <v>47.2</v>
       </c>
       <c r="F152" t="n">
-        <v>960.5830999999999</v>
+        <v>91.75020000000001</v>
       </c>
       <c r="G152" t="n">
-        <v>47.31999999999997</v>
+        <v>145026.4526156201</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5886,10 +6300,10 @@
         <v>47.2</v>
       </c>
       <c r="F153" t="n">
-        <v>960.5830999999999</v>
+        <v>516.7818</v>
       </c>
       <c r="G153" t="n">
-        <v>47.25999999999997</v>
+        <v>145026.4526156201</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5910,22 +6324,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>47.1</v>
+        <v>47.2</v>
       </c>
       <c r="C154" t="n">
-        <v>47.1</v>
+        <v>47.3</v>
       </c>
       <c r="D154" t="n">
-        <v>47.1</v>
+        <v>47.3</v>
       </c>
       <c r="E154" t="n">
-        <v>47.1</v>
+        <v>47.2</v>
       </c>
       <c r="F154" t="n">
-        <v>994.3115</v>
+        <v>17563.5384</v>
       </c>
       <c r="G154" t="n">
-        <v>47.19999999999997</v>
+        <v>162589.9910156201</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5946,22 +6360,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>47</v>
+        <v>47.4</v>
       </c>
       <c r="C155" t="n">
-        <v>46.9</v>
+        <v>47.4</v>
       </c>
       <c r="D155" t="n">
-        <v>47</v>
+        <v>47.4</v>
       </c>
       <c r="E155" t="n">
-        <v>46.9</v>
+        <v>47.4</v>
       </c>
       <c r="F155" t="n">
-        <v>15876.7103</v>
+        <v>2016.0294</v>
       </c>
       <c r="G155" t="n">
-        <v>47.09999999999997</v>
+        <v>164606.0204156201</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5982,22 +6396,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>47</v>
+        <v>47.6</v>
       </c>
       <c r="C156" t="n">
-        <v>47</v>
+        <v>47.6</v>
       </c>
       <c r="D156" t="n">
-        <v>47</v>
+        <v>47.6</v>
       </c>
       <c r="E156" t="n">
-        <v>47</v>
+        <v>47.6</v>
       </c>
       <c r="F156" t="n">
-        <v>10790</v>
+        <v>10000</v>
       </c>
       <c r="G156" t="n">
-        <v>47.05999999999998</v>
+        <v>174606.0204156201</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6018,22 +6432,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>46.8</v>
+        <v>47.5</v>
       </c>
       <c r="C157" t="n">
-        <v>46.9</v>
+        <v>47.5</v>
       </c>
       <c r="D157" t="n">
-        <v>46.9</v>
+        <v>47.5</v>
       </c>
       <c r="E157" t="n">
-        <v>46.8</v>
+        <v>47.5</v>
       </c>
       <c r="F157" t="n">
-        <v>2221.1832</v>
+        <v>1385.224</v>
       </c>
       <c r="G157" t="n">
-        <v>47.01999999999997</v>
+        <v>173220.7964156201</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6054,22 +6468,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>46.7</v>
+        <v>47.6</v>
       </c>
       <c r="C158" t="n">
-        <v>46.8</v>
+        <v>47.6</v>
       </c>
       <c r="D158" t="n">
-        <v>46.8</v>
+        <v>47.6</v>
       </c>
       <c r="E158" t="n">
-        <v>46.7</v>
+        <v>47.6</v>
       </c>
       <c r="F158" t="n">
-        <v>10067.008</v>
+        <v>1017.3867</v>
       </c>
       <c r="G158" t="n">
-        <v>46.93999999999998</v>
+        <v>174238.1831156201</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6090,22 +6504,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>46.5</v>
+        <v>47.4</v>
       </c>
       <c r="C159" t="n">
-        <v>46.5</v>
+        <v>47.4</v>
       </c>
       <c r="D159" t="n">
-        <v>46.5</v>
+        <v>47.4</v>
       </c>
       <c r="E159" t="n">
-        <v>46.5</v>
+        <v>47.4</v>
       </c>
       <c r="F159" t="n">
-        <v>1679.8937</v>
+        <v>1026.1556</v>
       </c>
       <c r="G159" t="n">
-        <v>46.81999999999998</v>
+        <v>173212.0275156201</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6126,22 +6540,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>46.5</v>
+        <v>47.2</v>
       </c>
       <c r="C160" t="n">
-        <v>46.3</v>
+        <v>47.2</v>
       </c>
       <c r="D160" t="n">
-        <v>46.5</v>
+        <v>47.2</v>
       </c>
       <c r="E160" t="n">
-        <v>46.3</v>
+        <v>47.2</v>
       </c>
       <c r="F160" t="n">
-        <v>30898.2933</v>
+        <v>226.1798</v>
       </c>
       <c r="G160" t="n">
-        <v>46.69999999999997</v>
+        <v>172985.8477156201</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6162,22 +6576,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>46.5</v>
+        <v>47.4</v>
       </c>
       <c r="C161" t="n">
-        <v>46.3</v>
+        <v>47.4</v>
       </c>
       <c r="D161" t="n">
-        <v>46.6</v>
+        <v>47.4</v>
       </c>
       <c r="E161" t="n">
-        <v>46.3</v>
+        <v>47.4</v>
       </c>
       <c r="F161" t="n">
-        <v>12065.1327</v>
+        <v>10735.0849</v>
       </c>
       <c r="G161" t="n">
-        <v>46.55999999999997</v>
+        <v>183720.9326156201</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6198,22 +6612,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>46.3</v>
+        <v>47.4</v>
       </c>
       <c r="C162" t="n">
-        <v>46.3</v>
+        <v>47.4</v>
       </c>
       <c r="D162" t="n">
-        <v>46.3</v>
+        <v>47.4</v>
       </c>
       <c r="E162" t="n">
-        <v>46.3</v>
+        <v>47.4</v>
       </c>
       <c r="F162" t="n">
-        <v>10386</v>
+        <v>39444.6202</v>
       </c>
       <c r="G162" t="n">
-        <v>46.43999999999997</v>
+        <v>183720.9326156201</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6234,22 +6648,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>46.3</v>
+        <v>47.5</v>
       </c>
       <c r="C163" t="n">
-        <v>46.3</v>
+        <v>47.5</v>
       </c>
       <c r="D163" t="n">
-        <v>46.3</v>
+        <v>47.5</v>
       </c>
       <c r="E163" t="n">
-        <v>46.3</v>
+        <v>47.5</v>
       </c>
       <c r="F163" t="n">
-        <v>11426.2871</v>
+        <v>21052.63157894</v>
       </c>
       <c r="G163" t="n">
-        <v>46.33999999999996</v>
+        <v>204773.5641945601</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6270,22 +6684,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>46.3</v>
+        <v>47.3</v>
       </c>
       <c r="C164" t="n">
-        <v>46.3</v>
+        <v>47.3</v>
       </c>
       <c r="D164" t="n">
-        <v>46.3</v>
+        <v>47.3</v>
       </c>
       <c r="E164" t="n">
-        <v>46.3</v>
+        <v>47.3</v>
       </c>
       <c r="F164" t="n">
-        <v>4714.1727</v>
+        <v>349.9664</v>
       </c>
       <c r="G164" t="n">
-        <v>46.29999999999997</v>
+        <v>204423.5977945601</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6306,22 +6720,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>46.3</v>
+        <v>47.2</v>
       </c>
       <c r="C165" t="n">
-        <v>46.3</v>
+        <v>47.2</v>
       </c>
       <c r="D165" t="n">
-        <v>46.3</v>
+        <v>47.2</v>
       </c>
       <c r="E165" t="n">
-        <v>46.3</v>
+        <v>47.2</v>
       </c>
       <c r="F165" t="n">
-        <v>1540.0495</v>
+        <v>4734.4498</v>
       </c>
       <c r="G165" t="n">
-        <v>46.29999999999997</v>
+        <v>199689.1479945601</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6342,22 +6756,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>46.3</v>
+        <v>47.2</v>
       </c>
       <c r="C166" t="n">
-        <v>46.3</v>
+        <v>47.2</v>
       </c>
       <c r="D166" t="n">
-        <v>46.3</v>
+        <v>47.2</v>
       </c>
       <c r="E166" t="n">
-        <v>46.3</v>
+        <v>47.2</v>
       </c>
       <c r="F166" t="n">
-        <v>0.0001</v>
+        <v>681</v>
       </c>
       <c r="G166" t="n">
-        <v>46.29999999999997</v>
+        <v>199689.1479945601</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6378,35 +6792,31 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>46.3</v>
+        <v>47.3</v>
       </c>
       <c r="C167" t="n">
-        <v>46.3</v>
+        <v>47.3</v>
       </c>
       <c r="D167" t="n">
-        <v>46.3</v>
+        <v>47.3</v>
       </c>
       <c r="E167" t="n">
-        <v>46.3</v>
+        <v>47.3</v>
       </c>
       <c r="F167" t="n">
-        <v>2300.6952</v>
+        <v>6677.5249</v>
       </c>
       <c r="G167" t="n">
-        <v>46.29999999999997</v>
+        <v>206366.6728945601</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="K167" t="n">
-        <v>46.3</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
@@ -6418,40 +6828,32 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>46.3</v>
+        <v>47.5</v>
       </c>
       <c r="C168" t="n">
-        <v>46.3</v>
+        <v>47.5</v>
       </c>
       <c r="D168" t="n">
-        <v>46.3</v>
+        <v>47.5</v>
       </c>
       <c r="E168" t="n">
-        <v>46.3</v>
+        <v>47.5</v>
       </c>
       <c r="F168" t="n">
-        <v>21.945</v>
+        <v>520.7536</v>
       </c>
       <c r="G168" t="n">
-        <v>46.29999999999997</v>
+        <v>206887.4264945601</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="K168" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6462,40 +6864,32 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>46.3</v>
+        <v>47.6</v>
       </c>
       <c r="C169" t="n">
-        <v>46.3</v>
+        <v>47.6</v>
       </c>
       <c r="D169" t="n">
-        <v>46.3</v>
+        <v>47.6</v>
       </c>
       <c r="E169" t="n">
-        <v>46.3</v>
+        <v>47.6</v>
       </c>
       <c r="F169" t="n">
-        <v>14417.77</v>
+        <v>1341.8451</v>
       </c>
       <c r="G169" t="n">
-        <v>46.29999999999997</v>
+        <v>208229.2715945601</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="K169" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6506,40 +6900,32 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>46.3</v>
+        <v>47.5</v>
       </c>
       <c r="C170" t="n">
-        <v>46.1</v>
+        <v>47.5</v>
       </c>
       <c r="D170" t="n">
-        <v>46.3</v>
+        <v>47.5</v>
       </c>
       <c r="E170" t="n">
-        <v>46.1</v>
+        <v>47.5</v>
       </c>
       <c r="F170" t="n">
-        <v>32953.3725</v>
+        <v>920.8267</v>
       </c>
       <c r="G170" t="n">
-        <v>46.25999999999997</v>
+        <v>207308.4448945601</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="K170" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6550,40 +6936,32 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>46.1</v>
+        <v>48.2</v>
       </c>
       <c r="C171" t="n">
-        <v>46.1</v>
+        <v>48.4</v>
       </c>
       <c r="D171" t="n">
-        <v>46.1</v>
+        <v>48.4</v>
       </c>
       <c r="E171" t="n">
-        <v>46.1</v>
+        <v>48.2</v>
       </c>
       <c r="F171" t="n">
-        <v>2128.8847</v>
+        <v>20667.99105888</v>
       </c>
       <c r="G171" t="n">
-        <v>46.21999999999997</v>
+        <v>227976.4359534401</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="K171" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6594,40 +6972,32 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>46.1</v>
+        <v>47.8</v>
       </c>
       <c r="C172" t="n">
-        <v>46.1</v>
+        <v>47.6</v>
       </c>
       <c r="D172" t="n">
-        <v>46.1</v>
+        <v>47.8</v>
       </c>
       <c r="E172" t="n">
-        <v>46.1</v>
+        <v>47.6</v>
       </c>
       <c r="F172" t="n">
-        <v>7308.7759</v>
+        <v>4200</v>
       </c>
       <c r="G172" t="n">
-        <v>46.17999999999997</v>
+        <v>223776.4359534401</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="K172" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6638,44 +7008,2592 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="C173" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="D173" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="E173" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1540.88</v>
+      </c>
+      <c r="G173" t="n">
+        <v>225317.3159534401</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="C174" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="D174" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="E174" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2780</v>
+      </c>
+      <c r="G174" t="n">
+        <v>228097.3159534401</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>48</v>
+      </c>
+      <c r="C175" t="n">
+        <v>48</v>
+      </c>
+      <c r="D175" t="n">
+        <v>48</v>
+      </c>
+      <c r="E175" t="n">
+        <v>48</v>
+      </c>
+      <c r="F175" t="n">
+        <v>16894.227</v>
+      </c>
+      <c r="G175" t="n">
+        <v>211203.0889534401</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="C176" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="D176" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="E176" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="F176" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G176" t="n">
+        <v>216203.0889534401</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="C177" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="D177" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="E177" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="F177" t="n">
+        <v>8930.164000000001</v>
+      </c>
+      <c r="G177" t="n">
+        <v>225133.2529534401</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>48</v>
+      </c>
+      <c r="C178" t="n">
+        <v>48</v>
+      </c>
+      <c r="D178" t="n">
+        <v>48</v>
+      </c>
+      <c r="E178" t="n">
+        <v>48</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G178" t="n">
+        <v>224033.2529534401</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>48</v>
+      </c>
+      <c r="C179" t="n">
+        <v>48</v>
+      </c>
+      <c r="D179" t="n">
+        <v>48</v>
+      </c>
+      <c r="E179" t="n">
+        <v>48</v>
+      </c>
+      <c r="F179" t="n">
+        <v>492.2962</v>
+      </c>
+      <c r="G179" t="n">
+        <v>224033.2529534401</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="C180" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="D180" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="E180" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="F180" t="n">
+        <v>645.0766</v>
+      </c>
+      <c r="G180" t="n">
+        <v>224678.3295534401</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="C181" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="D181" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="E181" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1962</v>
+      </c>
+      <c r="G181" t="n">
+        <v>224678.3295534401</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C182" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="D182" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="E182" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="F182" t="n">
+        <v>99683.0658</v>
+      </c>
+      <c r="G182" t="n">
+        <v>324361.3953534401</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="C183" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="D183" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="E183" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="F183" t="n">
+        <v>16906.9999</v>
+      </c>
+      <c r="G183" t="n">
+        <v>324361.3953534401</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="C184" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="D184" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="E184" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="F184" t="n">
+        <v>15809.9352</v>
+      </c>
+      <c r="G184" t="n">
+        <v>308551.4601534401</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C185" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="D185" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="E185" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="F185" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G185" t="n">
+        <v>308551.4601534401</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C186" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="D186" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="E186" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="F186" t="n">
+        <v>23421.1156</v>
+      </c>
+      <c r="G186" t="n">
+        <v>308551.4601534401</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="C187" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="D187" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="E187" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="F187" t="n">
+        <v>771.9058</v>
+      </c>
+      <c r="G187" t="n">
+        <v>309323.3659534401</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="C188" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="D188" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="E188" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="F188" t="n">
+        <v>500</v>
+      </c>
+      <c r="G188" t="n">
+        <v>309823.3659534401</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="C189" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="D189" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="E189" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="F189" t="n">
+        <v>16.9918</v>
+      </c>
+      <c r="G189" t="n">
+        <v>309840.3577534401</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="C190" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="D190" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="E190" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="F190" t="n">
+        <v>32.3108</v>
+      </c>
+      <c r="G190" t="n">
+        <v>309808.0469534401</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C191" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="D191" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="E191" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="F191" t="n">
+        <v>763.8634</v>
+      </c>
+      <c r="G191" t="n">
+        <v>309044.1835534401</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C192" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="D192" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="E192" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="F192" t="n">
+        <v>50260.6807</v>
+      </c>
+      <c r="G192" t="n">
+        <v>309044.1835534401</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="C193" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="D193" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="E193" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="F193" t="n">
+        <v>4093.7581</v>
+      </c>
+      <c r="G193" t="n">
+        <v>304950.4254534402</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="C194" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="D194" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="E194" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="F194" t="n">
+        <v>380</v>
+      </c>
+      <c r="G194" t="n">
+        <v>305330.4254534402</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="C195" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="D195" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="E195" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1625.1453</v>
+      </c>
+      <c r="G195" t="n">
+        <v>303705.2801534402</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="C196" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="D196" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="E196" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1328.3882</v>
+      </c>
+      <c r="G196" t="n">
+        <v>302376.8919534402</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="C197" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="D197" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="E197" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1070</v>
+      </c>
+      <c r="G197" t="n">
+        <v>302376.8919534402</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="C198" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="D198" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="E198" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="F198" t="n">
+        <v>4328</v>
+      </c>
+      <c r="G198" t="n">
+        <v>298048.8919534402</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="C199" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="D199" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="E199" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="F199" t="n">
+        <v>10500</v>
+      </c>
+      <c r="G199" t="n">
+        <v>298048.8919534402</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="C200" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="D200" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="E200" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="F200" t="n">
+        <v>50</v>
+      </c>
+      <c r="G200" t="n">
+        <v>298048.8919534402</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="C201" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="D201" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="E201" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="F201" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G201" t="n">
+        <v>298048.8919534402</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="C202" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="D202" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="E202" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="F202" t="n">
+        <v>2504.0623</v>
+      </c>
+      <c r="G202" t="n">
+        <v>298048.8919534402</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="C203" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="D203" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="E203" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1029.9074</v>
+      </c>
+      <c r="G203" t="n">
+        <v>299078.7993534402</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="C204" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="D204" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="E204" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="F204" t="n">
+        <v>376.6115</v>
+      </c>
+      <c r="G204" t="n">
+        <v>298702.1878534402</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>48</v>
+      </c>
+      <c r="C205" t="n">
+        <v>48</v>
+      </c>
+      <c r="D205" t="n">
+        <v>48</v>
+      </c>
+      <c r="E205" t="n">
+        <v>48</v>
+      </c>
+      <c r="F205" t="n">
+        <v>500</v>
+      </c>
+      <c r="G205" t="n">
+        <v>298202.1878534402</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="C206" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="D206" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="E206" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="F206" t="n">
+        <v>6076</v>
+      </c>
+      <c r="G206" t="n">
+        <v>304278.1878534402</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="C207" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="D207" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="E207" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="F207" t="n">
+        <v>3360</v>
+      </c>
+      <c r="G207" t="n">
+        <v>307638.1878534402</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="C208" t="n">
+        <v>48</v>
+      </c>
+      <c r="D208" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="E208" t="n">
+        <v>48</v>
+      </c>
+      <c r="F208" t="n">
+        <v>21000</v>
+      </c>
+      <c r="G208" t="n">
+        <v>286638.1878534402</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="C209" t="n">
+        <v>48</v>
+      </c>
+      <c r="D209" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="E209" t="n">
+        <v>48</v>
+      </c>
+      <c r="F209" t="n">
+        <v>5724.6849</v>
+      </c>
+      <c r="G209" t="n">
+        <v>286638.1878534402</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="C210" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="D210" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="E210" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1403.5761</v>
+      </c>
+      <c r="G210" t="n">
+        <v>285234.6117534402</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>48</v>
+      </c>
+      <c r="C211" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="D211" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="E211" t="n">
+        <v>48</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1490</v>
+      </c>
+      <c r="G211" t="n">
+        <v>286724.6117534402</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="C212" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="D212" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="E212" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1419.2829</v>
+      </c>
+      <c r="G212" t="n">
+        <v>285305.3288534402</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="C213" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="D213" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="E213" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="F213" t="n">
+        <v>9210.9558</v>
+      </c>
+      <c r="G213" t="n">
+        <v>276094.3730534402</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="C214" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="D214" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="E214" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="F214" t="n">
+        <v>3070.3185</v>
+      </c>
+      <c r="G214" t="n">
+        <v>276094.3730534402</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="C215" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="D215" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="E215" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="F215" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G215" t="n">
+        <v>276094.3730534402</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="C216" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="D216" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="E216" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="F216" t="n">
+        <v>4796.4292</v>
+      </c>
+      <c r="G216" t="n">
+        <v>276094.3730534402</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="C217" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="D217" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="E217" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="F217" t="n">
+        <v>784</v>
+      </c>
+      <c r="G217" t="n">
+        <v>275310.3730534402</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="C218" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="D218" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="E218" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="F218" t="n">
+        <v>12467</v>
+      </c>
+      <c r="G218" t="n">
+        <v>275310.3730534402</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="C219" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="D219" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="E219" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1263</v>
+      </c>
+      <c r="G219" t="n">
+        <v>274047.3730534402</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="C220" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="D220" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="E220" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2666.2967</v>
+      </c>
+      <c r="G220" t="n">
+        <v>271381.0763534402</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="C221" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="D221" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="E221" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="F221" t="n">
+        <v>12967.0761</v>
+      </c>
+      <c r="G221" t="n">
+        <v>271381.0763534402</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="C222" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="D222" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="E222" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="F222" t="n">
+        <v>20269.5868</v>
+      </c>
+      <c r="G222" t="n">
+        <v>251111.4895534402</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="C223" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="D223" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="E223" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="F223" t="n">
+        <v>960.5830999999999</v>
+      </c>
+      <c r="G223" t="n">
+        <v>250150.9064534403</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="C224" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="D224" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="E224" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="F224" t="n">
+        <v>960.5830999999999</v>
+      </c>
+      <c r="G224" t="n">
+        <v>251111.4895534402</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="C225" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="D225" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="E225" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="F225" t="n">
+        <v>994.3115</v>
+      </c>
+      <c r="G225" t="n">
+        <v>250117.1780534402</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>47</v>
+      </c>
+      <c r="C226" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="D226" t="n">
+        <v>47</v>
+      </c>
+      <c r="E226" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="F226" t="n">
+        <v>15876.7103</v>
+      </c>
+      <c r="G226" t="n">
+        <v>234240.4677534402</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>47</v>
+      </c>
+      <c r="C227" t="n">
+        <v>47</v>
+      </c>
+      <c r="D227" t="n">
+        <v>47</v>
+      </c>
+      <c r="E227" t="n">
+        <v>47</v>
+      </c>
+      <c r="F227" t="n">
+        <v>10790</v>
+      </c>
+      <c r="G227" t="n">
+        <v>245030.4677534402</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="C228" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="D228" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="E228" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="F228" t="n">
+        <v>2221.1832</v>
+      </c>
+      <c r="G228" t="n">
+        <v>242809.2845534402</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="C229" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="D229" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="E229" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="F229" t="n">
+        <v>10067.008</v>
+      </c>
+      <c r="G229" t="n">
+        <v>232742.2765534402</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="C230" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="D230" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="E230" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="F230" t="n">
+        <v>1679.8937</v>
+      </c>
+      <c r="G230" t="n">
+        <v>231062.3828534402</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="C231" t="n">
         <v>46.3</v>
       </c>
-      <c r="C173" t="n">
+      <c r="D231" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="E231" t="n">
         <v>46.3</v>
       </c>
-      <c r="D173" t="n">
+      <c r="F231" t="n">
+        <v>30898.2933</v>
+      </c>
+      <c r="G231" t="n">
+        <v>200164.0895534403</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="C232" t="n">
         <v>46.3</v>
       </c>
-      <c r="E173" t="n">
+      <c r="D232" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="E232" t="n">
         <v>46.3</v>
       </c>
-      <c r="F173" t="n">
+      <c r="F232" t="n">
+        <v>12065.1327</v>
+      </c>
+      <c r="G232" t="n">
+        <v>200164.0895534403</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="C233" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="D233" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E233" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="F233" t="n">
+        <v>10386</v>
+      </c>
+      <c r="G233" t="n">
+        <v>200164.0895534403</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="C234" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="D234" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E234" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="F234" t="n">
+        <v>11426.2871</v>
+      </c>
+      <c r="G234" t="n">
+        <v>200164.0895534403</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="C235" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="D235" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E235" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="F235" t="n">
+        <v>4714.1727</v>
+      </c>
+      <c r="G235" t="n">
+        <v>200164.0895534403</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="C236" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="D236" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E236" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="F236" t="n">
+        <v>1540.0495</v>
+      </c>
+      <c r="G236" t="n">
+        <v>200164.0895534403</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="C237" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="D237" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E237" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G237" t="n">
+        <v>200164.0895534403</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="C238" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="D238" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E238" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="F238" t="n">
+        <v>2300.6952</v>
+      </c>
+      <c r="G238" t="n">
+        <v>200164.0895534403</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="C239" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="D239" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E239" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="F239" t="n">
+        <v>21.945</v>
+      </c>
+      <c r="G239" t="n">
+        <v>200164.0895534403</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="C240" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="D240" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E240" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="F240" t="n">
+        <v>14417.77</v>
+      </c>
+      <c r="G240" t="n">
+        <v>200164.0895534403</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="C241" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="D241" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E241" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="F241" t="n">
+        <v>32953.3725</v>
+      </c>
+      <c r="G241" t="n">
+        <v>167210.7170534403</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="C242" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="D242" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="E242" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="F242" t="n">
+        <v>2128.8847</v>
+      </c>
+      <c r="G242" t="n">
+        <v>167210.7170534403</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="C243" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="D243" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="E243" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="F243" t="n">
+        <v>7308.7759</v>
+      </c>
+      <c r="G243" t="n">
+        <v>167210.7170534403</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="C244" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="D244" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E244" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="F244" t="n">
         <v>27</v>
       </c>
-      <c r="G173" t="n">
-        <v>46.17999999999997</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="K173" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="G244" t="n">
+        <v>167237.7170534403</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-26 BackTest XEM.xlsx
+++ b/BackTest/2019-10-26 BackTest XEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N244"/>
+  <dimension ref="A1:M244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>127587.83593357</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,15 @@
         <v>126316.83593357</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +517,15 @@
         <v>116316.83593357</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>47</v>
-      </c>
-      <c r="K4" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +550,15 @@
         <v>117327.91383357</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,26 +583,19 @@
         <v>122895.14673357</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>46.9</v>
       </c>
       <c r="J6" t="n">
         <v>46.9</v>
       </c>
-      <c r="K6" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -664,26 +620,23 @@
         <v>125485.14673357</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>47.2</v>
       </c>
       <c r="J7" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L7" t="inlineStr">
+        <v>46.9</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -708,26 +661,23 @@
         <v>125508.53620725</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>47.3</v>
       </c>
       <c r="J8" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L8" t="inlineStr">
+        <v>46.9</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -752,24 +702,19 @@
         <v>120122.35770725</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>47.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -796,22 +741,19 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -838,22 +780,19 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -880,22 +819,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -922,22 +852,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -962,26 +883,15 @@
         <v>129522.35770725</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="K14" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1008,22 +918,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1050,22 +951,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1092,22 +984,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1134,22 +1017,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1176,22 +1050,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1218,22 +1083,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1260,22 +1116,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1302,22 +1149,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1344,22 +1182,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1386,22 +1215,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1428,22 +1248,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1470,22 +1281,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1512,22 +1314,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1554,22 +1347,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1596,22 +1380,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1638,22 +1413,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1680,22 +1446,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1722,22 +1479,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1764,22 +1512,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1806,22 +1545,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1848,22 +1578,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1890,22 +1611,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1932,22 +1644,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1974,22 +1677,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2016,22 +1710,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2058,22 +1743,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2100,22 +1776,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2142,22 +1809,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2184,22 +1842,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2226,22 +1875,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2268,22 +1908,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2310,22 +1941,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2352,22 +1974,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2394,22 +2007,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2436,22 +2040,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2478,22 +2073,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2520,22 +2106,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2562,22 +2139,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2604,22 +2172,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2644,24 +2203,15 @@
         <v>178169.6957775</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2686,24 +2236,15 @@
         <v>178169.6957775</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2728,24 +2269,15 @@
         <v>178169.6957775</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2770,24 +2302,15 @@
         <v>173790.9122775</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2812,24 +2335,15 @@
         <v>183790.9122775</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2854,24 +2368,15 @@
         <v>204503.2341775</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2896,24 +2401,15 @@
         <v>201509.0977775</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2938,24 +2434,15 @@
         <v>208689.0977775</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2980,24 +2467,15 @@
         <v>207325.0724775</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3022,24 +2500,15 @@
         <v>206264.7928775</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3064,24 +2533,15 @@
         <v>220958.6077775</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3108,22 +2568,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3150,22 +2601,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3192,22 +2634,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3234,22 +2667,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3274,26 +2698,15 @@
         <v>241530.9196775</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1.056571125265393</v>
-      </c>
-      <c r="N69" t="n">
-        <v>1.002127659574468</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3318,18 +2731,15 @@
         <v>241530.9196775</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3354,18 +2764,15 @@
         <v>237522.9036775</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3390,18 +2797,15 @@
         <v>237522.9036775</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3426,18 +2830,15 @@
         <v>237522.9036775</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3462,18 +2863,15 @@
         <v>238557.4636775</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3498,18 +2896,15 @@
         <v>238557.4636775</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3536,16 +2931,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3572,16 +2964,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3608,16 +2997,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3642,18 +3028,15 @@
         <v>341493.9631774999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3680,16 +3063,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3716,16 +3096,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3752,16 +3129,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3786,18 +3160,15 @@
         <v>493933.5329774999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3824,16 +3195,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3860,16 +3228,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3896,16 +3261,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3932,16 +3294,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3968,16 +3327,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4004,16 +3360,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4040,16 +3393,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4076,16 +3426,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4112,16 +3459,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4148,16 +3492,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4184,16 +3525,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4220,16 +3558,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4256,16 +3591,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4292,16 +3624,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4328,16 +3657,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4364,16 +3690,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4400,16 +3723,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4436,16 +3756,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4470,18 +3787,15 @@
         <v>447000.9074775</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4508,16 +3822,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4542,18 +3853,15 @@
         <v>445738.7265775001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4580,16 +3888,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4616,16 +3921,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4652,16 +3954,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4688,16 +3987,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4724,16 +4020,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4760,16 +4053,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4796,16 +4086,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4832,16 +4119,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4868,16 +4152,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4904,16 +4185,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4938,18 +4216,15 @@
         <v>261541.0525474201</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4974,18 +4249,15 @@
         <v>253419.9485474201</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5012,16 +4284,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5048,16 +4317,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5084,16 +4350,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5120,16 +4383,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5156,16 +4416,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5192,16 +4449,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5228,16 +4482,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5264,16 +4515,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5300,16 +4548,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5336,16 +4581,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5372,16 +4614,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5408,16 +4647,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5444,16 +4680,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5480,16 +4713,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5516,16 +4746,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5552,16 +4779,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5588,16 +4812,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5624,16 +4845,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5660,16 +4878,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5696,16 +4911,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5732,16 +4944,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5768,16 +4977,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5804,16 +5010,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5840,16 +5043,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5876,16 +5076,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5912,16 +5109,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5948,16 +5142,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5984,16 +5175,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6020,16 +5208,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6056,16 +5241,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6092,16 +5274,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6128,16 +5307,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6164,16 +5340,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6200,16 +5373,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6236,16 +5406,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6272,16 +5439,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6308,16 +5472,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6344,16 +5505,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6380,16 +5538,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6416,16 +5571,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6452,16 +5604,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6488,16 +5637,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6524,16 +5670,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6560,16 +5703,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6596,16 +5736,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6632,16 +5769,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6668,16 +5802,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6704,16 +5835,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6740,16 +5868,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6776,16 +5901,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6812,16 +5934,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6848,16 +5967,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6884,16 +6000,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6920,16 +6033,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6956,16 +6066,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6992,16 +6099,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7028,16 +6132,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7064,16 +6165,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7100,16 +6198,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7136,16 +6231,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7172,16 +6264,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7208,16 +6297,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7244,16 +6330,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7280,16 +6363,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7316,16 +6396,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7352,16 +6429,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7388,16 +6462,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7424,16 +6495,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7460,16 +6528,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7496,16 +6561,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7532,16 +6594,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7568,16 +6627,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7602,18 +6658,15 @@
         <v>309840.3577534401</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7640,16 +6693,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7674,18 +6724,15 @@
         <v>309044.1835534401</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7712,16 +6759,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7748,16 +6792,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7784,16 +6825,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7820,16 +6858,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7856,16 +6891,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7892,16 +6924,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7928,16 +6957,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7964,16 +6990,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8000,16 +7023,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8036,16 +7056,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8072,16 +7089,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8108,16 +7122,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8144,16 +7155,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8180,16 +7188,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8216,16 +7221,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8252,16 +7254,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8288,16 +7287,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8324,16 +7320,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8360,16 +7353,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8396,16 +7386,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8432,16 +7419,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8468,16 +7452,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8504,16 +7485,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8540,16 +7518,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8576,16 +7551,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8612,16 +7584,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8648,16 +7617,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8684,16 +7650,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8720,16 +7683,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8756,16 +7716,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8792,16 +7749,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8828,16 +7782,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8864,16 +7815,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8900,16 +7848,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8936,16 +7881,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8972,16 +7914,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9008,16 +7947,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9044,16 +7980,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9080,16 +8013,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9116,16 +8046,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9152,16 +8079,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9188,16 +8112,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9224,16 +8145,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9260,16 +8178,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9296,16 +8211,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9332,16 +8244,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9368,16 +8277,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9404,16 +8310,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9440,16 +8343,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9476,16 +8376,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9512,16 +8409,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9548,16 +8442,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9584,18 +8475,15 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest XEM.xlsx
+++ b/BackTest/2019-10-26 BackTest XEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>127587.83593357</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>126316.83593357</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>47.1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>116316.83593357</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>47</v>
+      </c>
+      <c r="J4" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>117327.91383357</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,15 +603,19 @@
         <v>122895.14673357</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>46.9</v>
       </c>
       <c r="J6" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>47.1</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,17 +644,17 @@
         <v>125485.14673357</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>47.2</v>
       </c>
       <c r="J7" t="n">
-        <v>46.9</v>
+        <v>47.1</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -661,17 +685,17 @@
         <v>125508.53620725</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>47.3</v>
       </c>
       <c r="J8" t="n">
-        <v>46.9</v>
+        <v>47.1</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -702,15 +726,19 @@
         <v>120122.35770725</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>47.5</v>
       </c>
       <c r="J9" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+        <v>47.1</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -739,15 +767,17 @@
         <v>120122.35770725</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>47.4</v>
+      </c>
       <c r="J10" t="n">
-        <v>47.5</v>
+        <v>47.1</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -778,15 +808,17 @@
         <v>121076.77520725</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>47.4</v>
+      </c>
       <c r="J11" t="n">
-        <v>47.5</v>
+        <v>47.1</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -817,11 +849,19 @@
         <v>121076.77520725</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -850,11 +890,19 @@
         <v>120122.35770725</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -883,11 +931,19 @@
         <v>129522.35770725</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -916,11 +972,19 @@
         <v>126146.65250725</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="J15" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -949,11 +1013,19 @@
         <v>126146.65250725</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -985,8 +1057,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1018,8 +1096,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1051,8 +1135,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1084,8 +1174,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1117,8 +1213,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1150,8 +1252,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1183,8 +1291,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1216,8 +1330,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1249,8 +1369,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1282,8 +1408,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1315,8 +1447,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1348,8 +1486,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1381,8 +1525,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1414,8 +1564,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1447,8 +1603,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1480,8 +1642,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1513,8 +1681,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1546,8 +1720,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1579,8 +1759,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1612,8 +1798,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1645,8 +1837,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1678,8 +1876,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1711,8 +1915,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1744,8 +1954,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1777,8 +1993,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1810,8 +2032,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1843,8 +2071,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1876,8 +2110,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1909,8 +2149,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1942,8 +2188,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1975,8 +2227,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2008,8 +2266,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2041,8 +2305,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2074,8 +2344,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2107,8 +2383,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2140,8 +2422,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2173,8 +2461,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2203,11 +2497,17 @@
         <v>178169.6957775</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2236,11 +2536,17 @@
         <v>178169.6957775</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2269,11 +2575,17 @@
         <v>178169.6957775</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2302,11 +2614,17 @@
         <v>173790.9122775</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2335,11 +2653,17 @@
         <v>183790.9122775</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2368,11 +2692,17 @@
         <v>204503.2341775</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2401,11 +2731,17 @@
         <v>201509.0977775</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2434,11 +2770,17 @@
         <v>208689.0977775</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2467,11 +2809,17 @@
         <v>207325.0724775</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2500,11 +2848,17 @@
         <v>206264.7928775</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2533,11 +2887,17 @@
         <v>220958.6077775</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2569,8 +2929,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2602,8 +2968,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2635,8 +3007,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2668,8 +3046,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2698,11 +3082,17 @@
         <v>241530.9196775</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2731,11 +3121,17 @@
         <v>241530.9196775</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2764,11 +3160,17 @@
         <v>237522.9036775</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2797,11 +3199,17 @@
         <v>237522.9036775</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2830,11 +3238,17 @@
         <v>237522.9036775</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2863,11 +3277,17 @@
         <v>238557.4636775</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2896,11 +3316,17 @@
         <v>238557.4636775</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2932,8 +3358,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2965,8 +3397,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2998,8 +3436,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3028,11 +3472,17 @@
         <v>341493.9631774999</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3064,8 +3514,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3097,8 +3553,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3130,8 +3592,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3160,11 +3628,17 @@
         <v>493933.5329774999</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3196,8 +3670,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3229,8 +3709,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3262,8 +3748,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3292,13 +3784,19 @@
         <v>479333.6161774999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L87" t="n">
-        <v>1</v>
+        <v>1.0226008492569</v>
       </c>
       <c r="M87" t="inlineStr"/>
     </row>
@@ -3325,7 +3823,7 @@
         <v>480389.8163775</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3358,7 +3856,7 @@
         <v>480751.3729775</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3391,7 +3889,7 @@
         <v>477897.3729775</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3424,7 +3922,7 @@
         <v>477897.3729775</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3457,7 +3955,7 @@
         <v>482541.6623775</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3490,7 +3988,7 @@
         <v>482541.6623775</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3523,7 +4021,7 @@
         <v>470269.8881775</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3556,7 +4054,7 @@
         <v>473039.1824775</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3589,7 +4087,7 @@
         <v>473384.4355775</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3622,7 +4120,7 @@
         <v>475289.3393775</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3655,7 +4153,7 @@
         <v>495483.6883775</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3688,7 +4186,7 @@
         <v>462962.6885775</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3721,7 +4219,7 @@
         <v>475033.9423775</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3754,7 +4252,7 @@
         <v>447000.9074775</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3787,7 +4285,7 @@
         <v>447000.9074775</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3820,7 +4318,7 @@
         <v>445240.6676775001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3853,7 +4351,7 @@
         <v>445738.7265775001</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3886,7 +4384,7 @@
         <v>439436.2298474201</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3919,7 +4417,7 @@
         <v>389385.8895474201</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3952,7 +4450,7 @@
         <v>389385.8895474201</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3985,7 +4483,7 @@
         <v>387385.8895474201</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4018,7 +4516,7 @@
         <v>264232.9709474201</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4051,7 +4549,7 @@
         <v>266249.9709474201</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4084,7 +4582,7 @@
         <v>272584.2183474201</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4117,7 +4615,7 @@
         <v>270602.6282474201</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4216,7 +4714,7 @@
         <v>261541.0525474201</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4249,7 +4747,7 @@
         <v>253419.9485474201</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4282,7 +4780,7 @@
         <v>275241.5323474201</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4315,7 +4813,7 @@
         <v>259166.4507474201</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4348,7 +4846,7 @@
         <v>290886.4270474201</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4381,7 +4879,7 @@
         <v>288799.9197474201</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4414,7 +4912,7 @@
         <v>288799.9197474201</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4447,7 +4945,7 @@
         <v>276837.9197474201</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4480,7 +4978,7 @@
         <v>287109.6585474201</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4513,7 +5011,7 @@
         <v>240719.9390474201</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4546,7 +5044,7 @@
         <v>240719.9390474201</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4579,7 +5077,7 @@
         <v>240719.9390474201</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4612,7 +5110,7 @@
         <v>240719.9390474201</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4645,7 +5143,7 @@
         <v>240719.9390474201</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4678,7 +5176,7 @@
         <v>242015.7783474201</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4711,7 +5209,7 @@
         <v>241107.2013474201</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4744,7 +5242,7 @@
         <v>241107.2013474201</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4777,7 +5275,7 @@
         <v>241229.2097156201</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4810,7 +5308,7 @@
         <v>229879.2448156201</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4876,7 +5374,7 @@
         <v>210416.8439156201</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4942,7 +5440,7 @@
         <v>170531.3629156201</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4975,7 +5473,7 @@
         <v>170025.9963156201</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -6658,7 +7156,7 @@
         <v>309840.3577534401</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6724,7 +7222,7 @@
         <v>309044.1835534401</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -8484,6 +8982,6 @@
       <c r="M244" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest XEM.xlsx
+++ b/BackTest/2019-10-26 BackTest XEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>127587.83593357</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>126316.83593357</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>47.1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>116316.83593357</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>47</v>
-      </c>
-      <c r="J4" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>117327.91383357</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,11 @@
         <v>122895.14673357</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,19 +616,11 @@
         <v>125485.14673357</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -685,19 +649,11 @@
         <v>125508.53620725</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -726,19 +682,11 @@
         <v>120122.35770725</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -767,19 +715,11 @@
         <v>120122.35770725</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -808,19 +748,11 @@
         <v>121076.77520725</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -849,19 +781,11 @@
         <v>121076.77520725</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -890,19 +814,11 @@
         <v>120122.35770725</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -931,19 +847,11 @@
         <v>129522.35770725</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="J14" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -972,19 +880,11 @@
         <v>126146.65250725</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="J15" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1013,19 +913,11 @@
         <v>126146.65250725</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1057,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1096,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1132,17 +1012,15 @@
         <v>127510.41090725</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>47.7</v>
+      </c>
       <c r="J19" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>47.7</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1171,15 +1049,17 @@
         <v>127510.41090725</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>47.7</v>
+      </c>
       <c r="J20" t="n">
-        <v>47.1</v>
+        <v>47.7</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1214,11 +1094,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>47.1</v>
+        <v>47.7</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1252,14 +1132,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1291,14 +1165,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1330,14 +1198,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1369,14 +1231,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1408,14 +1264,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1447,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1486,14 +1330,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1525,14 +1363,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1564,14 +1396,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1603,14 +1429,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1642,14 +1462,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1681,14 +1495,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1720,14 +1528,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1759,14 +1561,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1798,14 +1594,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1837,14 +1627,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1876,14 +1660,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1915,14 +1693,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1954,14 +1726,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1993,14 +1759,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2032,14 +1792,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2071,14 +1825,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2110,14 +1858,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2149,14 +1891,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2188,14 +1924,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2227,14 +1957,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2266,14 +1990,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2305,14 +2023,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2344,14 +2056,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2383,14 +2089,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2422,14 +2122,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2461,14 +2155,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2500,14 +2188,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2539,14 +2221,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2578,14 +2254,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2617,14 +2287,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2656,14 +2320,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2695,14 +2353,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2734,14 +2386,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2773,14 +2419,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2812,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2851,14 +2485,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2890,14 +2518,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2929,14 +2551,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2968,14 +2584,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3007,14 +2617,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3046,14 +2650,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3085,14 +2683,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3124,14 +2716,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3163,14 +2749,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3202,14 +2782,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3241,14 +2815,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3280,14 +2848,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3319,14 +2881,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3358,14 +2914,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3397,14 +2947,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3436,14 +2980,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3475,14 +3013,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3514,14 +3046,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3553,14 +3079,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3592,14 +3112,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3631,14 +3145,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3670,14 +3178,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3709,14 +3211,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3748,14 +3244,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3784,19 +3274,13 @@
         <v>479333.6161774999</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
-        <v>1.0226008492569</v>
+        <v>1</v>
       </c>
       <c r="M87" t="inlineStr"/>
     </row>
@@ -3823,7 +3307,7 @@
         <v>480389.8163775</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3856,7 +3340,7 @@
         <v>480751.3729775</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3889,7 +3373,7 @@
         <v>477897.3729775</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3922,7 +3406,7 @@
         <v>477897.3729775</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3955,7 +3439,7 @@
         <v>482541.6623775</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3988,7 +3472,7 @@
         <v>482541.6623775</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -4021,7 +3505,7 @@
         <v>470269.8881775</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -4054,7 +3538,7 @@
         <v>473039.1824775</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -4087,7 +3571,7 @@
         <v>473384.4355775</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4120,7 +3604,7 @@
         <v>475289.3393775</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4153,7 +3637,7 @@
         <v>495483.6883775</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4186,7 +3670,7 @@
         <v>462962.6885775</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4219,7 +3703,7 @@
         <v>475033.9423775</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4252,7 +3736,7 @@
         <v>447000.9074775</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4285,7 +3769,7 @@
         <v>447000.9074775</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4318,7 +3802,7 @@
         <v>445240.6676775001</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4351,7 +3835,7 @@
         <v>445738.7265775001</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4384,7 +3868,7 @@
         <v>439436.2298474201</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4417,7 +3901,7 @@
         <v>389385.8895474201</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4450,7 +3934,7 @@
         <v>389385.8895474201</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4483,7 +3967,7 @@
         <v>387385.8895474201</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4516,7 +4000,7 @@
         <v>264232.9709474201</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4549,7 +4033,7 @@
         <v>266249.9709474201</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4582,7 +4066,7 @@
         <v>272584.2183474201</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4615,7 +4099,7 @@
         <v>270602.6282474201</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4714,7 +4198,7 @@
         <v>261541.0525474201</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4747,7 +4231,7 @@
         <v>253419.9485474201</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4780,7 +4264,7 @@
         <v>275241.5323474201</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4813,7 +4297,7 @@
         <v>259166.4507474201</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4846,7 +4330,7 @@
         <v>290886.4270474201</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4879,7 +4363,7 @@
         <v>288799.9197474201</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4912,7 +4396,7 @@
         <v>288799.9197474201</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4945,7 +4429,7 @@
         <v>276837.9197474201</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4978,7 +4462,7 @@
         <v>287109.6585474201</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5011,7 +4495,7 @@
         <v>240719.9390474201</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5044,7 +4528,7 @@
         <v>240719.9390474201</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5077,7 +4561,7 @@
         <v>240719.9390474201</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5110,7 +4594,7 @@
         <v>240719.9390474201</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5143,7 +4627,7 @@
         <v>240719.9390474201</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5176,7 +4660,7 @@
         <v>242015.7783474201</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5209,7 +4693,7 @@
         <v>241107.2013474201</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5242,7 +4726,7 @@
         <v>241107.2013474201</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5275,7 +4759,7 @@
         <v>241229.2097156201</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5308,7 +4792,7 @@
         <v>229879.2448156201</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5374,7 +4858,7 @@
         <v>210416.8439156201</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5440,7 +4924,7 @@
         <v>170531.3629156201</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5473,7 +4957,7 @@
         <v>170025.9963156201</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -8740,10 +8224,14 @@
         <v>200164.0895534403</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="J237" t="n">
+        <v>46.3</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
@@ -8773,11 +8261,19 @@
         <v>200164.0895534403</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="J238" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8806,11 +8302,19 @@
         <v>200164.0895534403</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="J239" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8839,10 +8343,14 @@
         <v>200164.0895534403</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="J240" t="n">
+        <v>46.3</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
@@ -8872,11 +8380,19 @@
         <v>167210.7170534403</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="J241" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8905,11 +8421,19 @@
         <v>167210.7170534403</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="J242" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8938,11 +8462,19 @@
         <v>167210.7170534403</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="J243" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8971,17 +8503,25 @@
         <v>167237.7170534403</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="J244" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
       <c r="M244" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest XEM.xlsx
+++ b/BackTest/2019-10-26 BackTest XEM.xlsx
@@ -451,7 +451,7 @@
         <v>127587.83593357</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>126316.83593357</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>47.1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>116316.83593357</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>47</v>
+      </c>
+      <c r="J4" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>117327.91383357</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>122895.14673357</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>125485.14673357</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>125508.53620725</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>120122.35770725</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +767,19 @@
         <v>120122.35770725</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +808,19 @@
         <v>121076.77520725</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +849,19 @@
         <v>121076.77520725</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +890,19 @@
         <v>120122.35770725</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +931,17 @@
         <v>129522.35770725</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +973,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +1012,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1051,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1090,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,15 +1126,17 @@
         <v>127510.41090725</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>47.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
+        <v>47.1</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,17 +1165,15 @@
         <v>127510.41090725</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>47.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>47.7</v>
+        <v>47.1</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1094,11 +1208,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>47.7</v>
+        <v>47.1</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1132,8 +1246,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1165,8 +1285,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1198,8 +1324,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1231,8 +1363,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1264,8 +1402,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1297,8 +1441,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1330,8 +1480,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1363,8 +1519,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1396,8 +1558,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1429,8 +1597,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1462,8 +1636,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1495,8 +1675,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1528,8 +1714,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1561,8 +1753,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1594,8 +1792,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1627,8 +1831,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1660,8 +1870,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1693,8 +1909,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1726,8 +1948,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1759,8 +1987,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1792,8 +2026,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1825,8 +2065,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1858,8 +2104,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1891,8 +2143,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1924,8 +2182,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1957,8 +2221,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1990,8 +2260,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2023,8 +2299,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2056,8 +2338,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2089,8 +2377,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2122,8 +2416,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2155,8 +2455,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2188,8 +2494,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2221,8 +2533,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2254,8 +2572,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2287,8 +2611,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2320,8 +2650,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2353,8 +2689,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2386,8 +2728,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2419,8 +2767,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2452,8 +2806,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2485,8 +2845,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2518,8 +2884,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2551,8 +2923,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2584,8 +2962,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2617,8 +3001,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2650,8 +3040,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2683,8 +3079,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2716,8 +3118,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2749,8 +3157,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2782,8 +3196,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2815,8 +3235,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2848,8 +3274,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2881,8 +3313,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2914,8 +3352,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2947,8 +3391,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2980,8 +3430,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3013,8 +3469,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3043,15 +3505,23 @@
         <v>341493.9631774999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>1.062940552016985</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1.002127659574468</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3109,7 +3579,7 @@
         <v>495033.5329774999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3142,7 +3612,7 @@
         <v>493933.5329774999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3175,7 +3645,7 @@
         <v>477423.8163775</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3208,7 +3678,7 @@
         <v>475223.8163775</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3802,7 +4272,7 @@
         <v>445240.6676775001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -8224,14 +8694,10 @@
         <v>200164.0895534403</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="J237" t="n">
-        <v>46.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
@@ -8261,19 +8727,11 @@
         <v>200164.0895534403</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="J238" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8302,19 +8760,11 @@
         <v>200164.0895534403</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="J239" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8343,14 +8793,10 @@
         <v>200164.0895534403</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="J240" t="n">
-        <v>46.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
@@ -8380,19 +8826,11 @@
         <v>167210.7170534403</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="J241" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8421,19 +8859,11 @@
         <v>167210.7170534403</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="J242" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8462,19 +8892,11 @@
         <v>167210.7170534403</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="J243" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8503,19 +8925,11 @@
         <v>167237.7170534403</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="J244" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
